--- a/subjects.xlsx
+++ b/subjects.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="124">
-  <si>
-    <t>자격증명</t>
-  </si>
-  <si>
-    <t>과목번호</t>
-  </si>
-  <si>
-    <t>과목명</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="129">
   <si>
     <t>가스기사</t>
   </si>
@@ -312,85 +303,117 @@
     <t>표면공학</t>
   </si>
   <si>
+    <t>기계가공법 및 안전관리</t>
+  </si>
+  <si>
+    <t>기계제도</t>
+  </si>
+  <si>
+    <t>컴퓨터응용설계</t>
+  </si>
+  <si>
+    <t>기상관측법</t>
+  </si>
+  <si>
+    <t>대기열역학</t>
+  </si>
+  <si>
+    <t>대기운동학</t>
+  </si>
+  <si>
+    <t>기후학</t>
+  </si>
+  <si>
+    <t>일기분석 및 예보론</t>
+  </si>
+  <si>
+    <t>농업동력학</t>
+  </si>
+  <si>
+    <t>농업기계학</t>
+  </si>
+  <si>
+    <t>농작업과 안전보건교육</t>
+  </si>
+  <si>
+    <t>농작업 안전관리</t>
+  </si>
+  <si>
+    <t>농작업 보건관리</t>
+  </si>
+  <si>
+    <t>농작업 안전생활</t>
+  </si>
+  <si>
+    <t>비파괴검사 개론</t>
+  </si>
+  <si>
+    <t>누설검사 원리</t>
+  </si>
+  <si>
+    <t>누설검사 시험</t>
+  </si>
+  <si>
+    <t>누설검사 규격</t>
+  </si>
+  <si>
+    <t>대기오염 개론</t>
+  </si>
+  <si>
+    <t>대기오염 방지기술</t>
+  </si>
+  <si>
+    <t>대기오염 공정시험기준(방법)</t>
+  </si>
+  <si>
+    <t>대기환경관계법규</t>
+  </si>
+  <si>
+    <t>대기오염개론</t>
+  </si>
+  <si>
+    <t>대기오염 공정시험 기준(방법)</t>
+  </si>
+  <si>
+    <t>대기오염방지기술</t>
+  </si>
+  <si>
+    <t>대기환경 관계 법규</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>certId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subjectNum</t>
+  </si>
+  <si>
+    <t>certName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료역학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계제작법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계설계 및 기계재료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>기구학 및 CAD</t>
-  </si>
-  <si>
-    <t>기계가공법 및 안전관리</t>
-  </si>
-  <si>
-    <t>기계제도</t>
-  </si>
-  <si>
-    <t>컴퓨터응용설계</t>
-  </si>
-  <si>
-    <t>기상관측법</t>
-  </si>
-  <si>
-    <t>대기열역학</t>
-  </si>
-  <si>
-    <t>대기운동학</t>
-  </si>
-  <si>
-    <t>기후학</t>
-  </si>
-  <si>
-    <t>일기분석 및 예보론</t>
-  </si>
-  <si>
-    <t>농업동력학</t>
-  </si>
-  <si>
-    <t>농업기계학</t>
-  </si>
-  <si>
-    <t>농작업과 안전보건교육</t>
-  </si>
-  <si>
-    <t>농작업 안전관리</t>
-  </si>
-  <si>
-    <t>농작업 보건관리</t>
-  </si>
-  <si>
-    <t>농작업 안전생활</t>
-  </si>
-  <si>
-    <t>비파괴검사 개론</t>
-  </si>
-  <si>
-    <t>누설검사 원리</t>
-  </si>
-  <si>
-    <t>누설검사 시험</t>
-  </si>
-  <si>
-    <t>누설검사 규격</t>
-  </si>
-  <si>
-    <t>대기오염 개론</t>
-  </si>
-  <si>
-    <t>대기오염 방지기술</t>
-  </si>
-  <si>
-    <t>대기오염 공정시험기준(방법)</t>
-  </si>
-  <si>
-    <t>대기환경관계법규</t>
-  </si>
-  <si>
-    <t>대기오염개론</t>
-  </si>
-  <si>
-    <t>대기오염 공정시험 기준(방법)</t>
-  </si>
-  <si>
-    <t>대기오염방지기술</t>
-  </si>
-  <si>
-    <t>대기환경 관계 법규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -765,1745 +788,1754 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>13</v>
-      </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>16</v>
-      </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>16</v>
-      </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>16</v>
-      </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>17</v>
-      </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>17</v>
-      </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>17</v>
-      </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>17</v>
-      </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>18</v>
-      </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>18</v>
-      </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>18</v>
-      </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>19</v>
-      </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>19</v>
-      </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>19</v>
-      </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>19</v>
-      </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>19</v>
-      </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>20</v>
-      </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>20</v>
-      </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>20</v>
-      </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>20</v>
-      </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>20</v>
-      </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>21</v>
-      </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>21</v>
-      </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>21</v>
-      </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>21</v>
-      </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>22</v>
-      </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>22</v>
-      </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>22</v>
-      </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>22</v>
-      </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>23</v>
-      </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>23</v>
-      </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>23</v>
-      </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>23</v>
-      </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
-        <v>23</v>
-      </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
-        <v>24</v>
-      </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E103" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
-        <v>24</v>
-      </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
-        <v>24</v>
-      </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E105" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
-        <v>24</v>
-      </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
-        <v>24</v>
-      </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E107" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
-        <v>25</v>
-      </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E108" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
-        <v>25</v>
-      </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D109" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
-        <v>25</v>
-      </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D110" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E110" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
-        <v>25</v>
-      </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E111" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
-        <v>26</v>
-      </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
-        <v>26</v>
-      </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E113" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
-        <v>26</v>
-      </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E114" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
-        <v>26</v>
-      </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E115" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
-        <v>27</v>
-      </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E116" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
-        <v>27</v>
-      </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
-        <v>27</v>
-      </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
-        <v>27</v>
-      </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E119" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
-        <v>27</v>
-      </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E120" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
-        <v>28</v>
-      </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E121" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
-        <v>28</v>
-      </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E122" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
-        <v>28</v>
-      </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E123" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
-        <v>28</v>
-      </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D124" t="s">
-        <v>123</v>
+        <v>29</v>
+      </c>
+      <c r="E124" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/subjects.xlsx
+++ b/subjects.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jyj_project\project_crawling_25_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yunzi\academy\project_crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="449">
   <si>
     <t>가스기사</t>
   </si>
@@ -381,39 +381,991 @@
     <t>대기환경 관계 법규</t>
   </si>
   <si>
+    <t>subjectNum</t>
+  </si>
+  <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>certId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>certName</t>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>subjectNum</t>
-  </si>
-  <si>
-    <t>certName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료역학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계제작법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계설계 및 기계재료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7과목</t>
+  </si>
+  <si>
+    <t>8과목</t>
+  </si>
+  <si>
+    <t>9과목</t>
   </si>
   <si>
     <t>기구학 및 CAD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시계획기사</t>
+  </si>
+  <si>
+    <t>국토 및 지역계획</t>
+  </si>
+  <si>
+    <t>도시개발론</t>
+  </si>
+  <si>
+    <t>도시계획관계법규</t>
+  </si>
+  <si>
+    <t>도시계획론</t>
+  </si>
+  <si>
+    <t>도시설계 및 단지계획</t>
+  </si>
+  <si>
+    <t>무선설비기사</t>
+  </si>
+  <si>
+    <t>디지털 전자회로</t>
+  </si>
+  <si>
+    <t>무선통신 기기</t>
+  </si>
+  <si>
+    <t>무선통신 시스템</t>
+  </si>
+  <si>
+    <t>안테나 공학</t>
+  </si>
+  <si>
+    <t>전자계산기 일반 및 무선설비기준</t>
+  </si>
+  <si>
+    <t>무선설비산업기사</t>
+  </si>
+  <si>
+    <t>안테나 개론</t>
+  </si>
+  <si>
+    <t>바이오화학제품제조기사</t>
+  </si>
+  <si>
+    <t>미생물공학</t>
+  </si>
+  <si>
+    <t>배양공학</t>
+  </si>
+  <si>
+    <t>생물공학개론</t>
+  </si>
+  <si>
+    <t>생물반응공학</t>
+  </si>
+  <si>
+    <t>생물분리공학</t>
+  </si>
+  <si>
+    <t>방사선비파괴검사기사</t>
+  </si>
+  <si>
+    <t>방사선투과검사 규격</t>
+  </si>
+  <si>
+    <t>방사선투과검사 시험</t>
+  </si>
+  <si>
+    <t>방사선투과검사 원리</t>
+  </si>
+  <si>
+    <t>방송통신기사</t>
+  </si>
+  <si>
+    <t>방송미디어 공학</t>
+  </si>
+  <si>
+    <t>방송미디어공학</t>
+  </si>
+  <si>
+    <t>방송통신 기기</t>
+  </si>
+  <si>
+    <t>방송통신 시스템</t>
+  </si>
+  <si>
+    <t>방송통신기기</t>
+  </si>
+  <si>
+    <t>방송통신시스템</t>
+  </si>
+  <si>
+    <t>방송통신일반</t>
+  </si>
+  <si>
+    <t>전자계산기 일반 및 방송설비기준</t>
+  </si>
+  <si>
+    <t>10과목</t>
+  </si>
+  <si>
+    <t>컴퓨터일반 및 방송설비기준</t>
+  </si>
+  <si>
+    <t>방송통신산업기사</t>
+  </si>
+  <si>
+    <t>방송미디어 개론</t>
+  </si>
+  <si>
+    <t>방수산업기사</t>
+  </si>
+  <si>
+    <t>방수시공</t>
+  </si>
+  <si>
+    <t>방수유지관리</t>
+  </si>
+  <si>
+    <t>방수일반</t>
+  </si>
+  <si>
+    <t>방수재료</t>
+  </si>
+  <si>
+    <t>방재기사</t>
+  </si>
+  <si>
+    <t>방재사업</t>
+  </si>
+  <si>
+    <t>방재시설</t>
+  </si>
+  <si>
+    <t>재난관리</t>
+  </si>
+  <si>
+    <t>재해대책</t>
+  </si>
+  <si>
+    <t>재해분석</t>
+  </si>
+  <si>
+    <t>사무자동화산업기사</t>
+  </si>
+  <si>
+    <t>사무경영관리 개론</t>
+  </si>
+  <si>
+    <t>사무자동화 시스템</t>
+  </si>
+  <si>
+    <t>정보통신 개론</t>
+  </si>
+  <si>
+    <t>프로그래밍 일반</t>
+  </si>
+  <si>
+    <t>산림기사</t>
+  </si>
+  <si>
+    <t>사방공학</t>
+  </si>
+  <si>
+    <t>산림보호학</t>
+  </si>
+  <si>
+    <t>임도공학</t>
+  </si>
+  <si>
+    <t>임업경영학</t>
+  </si>
+  <si>
+    <t>조림학</t>
+  </si>
+  <si>
+    <t>산림산업기사</t>
+  </si>
+  <si>
+    <t>산림공학</t>
+  </si>
+  <si>
+    <t>산업안전기사</t>
+  </si>
+  <si>
+    <t>기계위험방지기술</t>
+  </si>
+  <si>
+    <t>안전관리론</t>
+  </si>
+  <si>
+    <t>전기위험방지기술</t>
+  </si>
+  <si>
+    <t>화학설비위험방지기술</t>
+  </si>
+  <si>
+    <t>산업안전산업기사</t>
+  </si>
+  <si>
+    <t>전기 및 화학설비위험방지기술</t>
+  </si>
+  <si>
+    <t>산업위생관리기사</t>
+  </si>
+  <si>
+    <t>물리적유해인자관리</t>
+  </si>
+  <si>
+    <t>산업독성학</t>
+  </si>
+  <si>
+    <t>산업위생학개론</t>
+  </si>
+  <si>
+    <t>작업위생측정 및 평가</t>
+  </si>
+  <si>
+    <t>작업환경관리대책</t>
+  </si>
+  <si>
+    <t>산업위생관리산업기사</t>
+  </si>
+  <si>
+    <t>산업위생학 개론</t>
+  </si>
+  <si>
+    <t>산업환기</t>
+  </si>
+  <si>
+    <t>작업환경관리</t>
+  </si>
+  <si>
+    <t>작업환경측정 및 평가</t>
+  </si>
+  <si>
+    <t>생물분류기사</t>
+  </si>
+  <si>
+    <t>계통분류학</t>
+  </si>
+  <si>
+    <t>보존 및 자원생물학</t>
+  </si>
+  <si>
+    <t>자연환경관계법규</t>
+  </si>
+  <si>
+    <t>형태학</t>
+  </si>
+  <si>
+    <t>환경생태학</t>
+  </si>
+  <si>
+    <t>생산자동화산업기사</t>
+  </si>
+  <si>
+    <t>기계제도 및 기초공학</t>
+  </si>
+  <si>
+    <t>메카트로닉스</t>
+  </si>
+  <si>
+    <t>자동제어</t>
+  </si>
+  <si>
+    <t>설비보전기사</t>
+  </si>
+  <si>
+    <t>공유압 및 자동화</t>
+  </si>
+  <si>
+    <t>기계일반 및 기계보전</t>
+  </si>
+  <si>
+    <t>설비 진단 및 계측</t>
+  </si>
+  <si>
+    <t>설비관리</t>
+  </si>
+  <si>
+    <t>설비진단 및 계측</t>
+  </si>
+  <si>
+    <t>윤활관리</t>
+  </si>
+  <si>
+    <t>설비보전산업기사</t>
+  </si>
+  <si>
+    <t>공업계측 및 전기전자제어</t>
+  </si>
+  <si>
+    <t>공유압 및 자동화시스템</t>
+  </si>
+  <si>
+    <t>기계정비 일반</t>
+  </si>
+  <si>
+    <t>설비진단관리 및 기계정비</t>
+  </si>
+  <si>
+    <t>소방설비기사</t>
+  </si>
+  <si>
+    <t>소방관계법규</t>
+  </si>
+  <si>
+    <t>소방기계시설의 구조 및 원리</t>
+  </si>
+  <si>
+    <t>소방원론</t>
+  </si>
+  <si>
+    <t>소방유체역학</t>
+  </si>
+  <si>
+    <t>소방설비산업기사</t>
+  </si>
+  <si>
+    <t>소음진동기사</t>
+  </si>
+  <si>
+    <t>소음 측정 및 분석</t>
+  </si>
+  <si>
+    <t>소음방지기술</t>
+  </si>
+  <si>
+    <t>소음진동 공정시험 기준</t>
+  </si>
+  <si>
+    <t>소음진동 관계 법규</t>
+  </si>
+  <si>
+    <t>소음진동 평가 및 대책</t>
+  </si>
+  <si>
+    <t>소음진동개론</t>
+  </si>
+  <si>
+    <t>소음진동계획</t>
+  </si>
+  <si>
+    <t>진동 측정 및 분석</t>
+  </si>
+  <si>
+    <t>진동방지기술</t>
+  </si>
+  <si>
+    <t>소음진동산업기사</t>
+  </si>
+  <si>
+    <t>소음진동방지기술</t>
+  </si>
+  <si>
+    <t>수산양식기사</t>
+  </si>
+  <si>
+    <t>무척추동물양식학</t>
+  </si>
+  <si>
+    <t>수산질병학</t>
+  </si>
+  <si>
+    <t>양식장환경</t>
+  </si>
+  <si>
+    <t>어류양식학</t>
+  </si>
+  <si>
+    <t>해조류양식학</t>
+  </si>
+  <si>
+    <t>수질환경기사</t>
+  </si>
+  <si>
+    <t>상하수도계획</t>
+  </si>
+  <si>
+    <t>수질오염개론</t>
+  </si>
+  <si>
+    <t>수질오염공정시험기준</t>
+  </si>
+  <si>
+    <t>수질오염방지기술</t>
+  </si>
+  <si>
+    <t>수질환경관계법규</t>
+  </si>
+  <si>
+    <t>수질환경산업기사</t>
+  </si>
+  <si>
+    <t>수질오염공정시험방법</t>
+  </si>
+  <si>
+    <t>승강기기사</t>
+  </si>
+  <si>
+    <t>승강기 개론</t>
+  </si>
+  <si>
+    <t>승강기 설계</t>
+  </si>
+  <si>
+    <t>승강기산업기사</t>
+  </si>
+  <si>
+    <t>승강기개론</t>
+  </si>
+  <si>
+    <t>승강기설계</t>
+  </si>
+  <si>
+    <t>시각디자인기사</t>
+  </si>
+  <si>
+    <t>광고학</t>
+  </si>
+  <si>
+    <t>사진 및 인쇄제판론</t>
+  </si>
+  <si>
+    <t>색채학</t>
+  </si>
+  <si>
+    <t>시각디자인론</t>
+  </si>
+  <si>
+    <t>조형심리학</t>
+  </si>
+  <si>
+    <t>시각디자인산업기사</t>
+  </si>
+  <si>
+    <t>시각디자인실무 이론</t>
+  </si>
+  <si>
+    <t>인쇄 및 사진기법</t>
+  </si>
+  <si>
+    <t>시설원예기사</t>
+  </si>
+  <si>
+    <t>수경재배학</t>
+  </si>
+  <si>
+    <t>시설원예학</t>
+  </si>
+  <si>
+    <t>원예학개론</t>
+  </si>
+  <si>
+    <t>작물생리학</t>
+  </si>
+  <si>
+    <t>재배학원론</t>
+  </si>
+  <si>
+    <t>식물보호기사</t>
+  </si>
+  <si>
+    <t>농림해충학</t>
+  </si>
+  <si>
+    <t>농약학</t>
+  </si>
+  <si>
+    <t>식물병리학</t>
+  </si>
+  <si>
+    <t>잡초방제학</t>
+  </si>
+  <si>
+    <t>식물보호산업기사</t>
+  </si>
+  <si>
+    <t>식육가공기사</t>
+  </si>
+  <si>
+    <t>식육가공학</t>
+  </si>
+  <si>
+    <t>식육과학</t>
+  </si>
+  <si>
+    <t>식품위생학</t>
+  </si>
+  <si>
+    <t>제품저장 및 유통학</t>
+  </si>
+  <si>
+    <t>축산식품 관련 규정</t>
+  </si>
+  <si>
+    <t>식품산업기사</t>
+  </si>
+  <si>
+    <t>식품가공학</t>
+  </si>
+  <si>
+    <t>식품미생물학</t>
+  </si>
+  <si>
+    <t>식품제조공정</t>
+  </si>
+  <si>
+    <t>식품화학</t>
+  </si>
+  <si>
+    <t>식품안전기사</t>
+  </si>
+  <si>
+    <t>생화학 및 발효학</t>
+  </si>
+  <si>
+    <t>신재생에너지발전설비기사</t>
+  </si>
+  <si>
+    <t>태양광발전 기획</t>
+  </si>
+  <si>
+    <t>태양광발전 설계</t>
+  </si>
+  <si>
+    <t>태양광발전 시공</t>
+  </si>
+  <si>
+    <t>태양광발전 운영</t>
+  </si>
+  <si>
+    <t>신재생에너지발전설비산업기사</t>
+  </si>
+  <si>
+    <t>신재생 에너지 관련 법규</t>
+  </si>
+  <si>
+    <t>태양광 발전 시스템 시공</t>
+  </si>
+  <si>
+    <t>태양광 발전 시스템 운영</t>
+  </si>
+  <si>
+    <t>태양광 발전 시스템 이론</t>
+  </si>
+  <si>
+    <t>실내건축기사</t>
+  </si>
+  <si>
+    <t>건축재료</t>
+  </si>
+  <si>
+    <t>건축환경</t>
+  </si>
+  <si>
+    <t>실내디자인 색채 및 사용자 행태분석</t>
+  </si>
+  <si>
+    <t>실내디자인 시공 및 재료</t>
+  </si>
+  <si>
+    <t>실내디자인계획</t>
+  </si>
+  <si>
+    <t>실내디자인론</t>
+  </si>
+  <si>
+    <t>실내디자인환경</t>
+  </si>
+  <si>
+    <t>인간공학</t>
+  </si>
+  <si>
+    <t>실내건축산업기사</t>
+  </si>
+  <si>
+    <t>색채 및 인간공학</t>
+  </si>
+  <si>
+    <t>에너지관리기사</t>
+  </si>
+  <si>
+    <t>계측방법</t>
+  </si>
+  <si>
+    <t>열설비설계</t>
+  </si>
+  <si>
+    <t>열설비재료 및 관계법규</t>
+  </si>
+  <si>
+    <t>열역학</t>
+  </si>
+  <si>
+    <t>에너지관리산업기사</t>
+  </si>
+  <si>
+    <t>계측 및 에너지진단</t>
+  </si>
+  <si>
+    <t>열설비구조 및 시공</t>
+  </si>
+  <si>
+    <t>열설비취급 및 안전관리</t>
+  </si>
+  <si>
+    <t>열역학 및 연소관리</t>
+  </si>
+  <si>
+    <t>온실가스관리기사</t>
+  </si>
+  <si>
+    <t>기후변화개론</t>
+  </si>
+  <si>
+    <t>온실가스 감축관리</t>
+  </si>
+  <si>
+    <t>온실가스 배출의 이해</t>
+  </si>
+  <si>
+    <t>온실가스 산정과 데이터 품질관리</t>
+  </si>
+  <si>
+    <t>온실가스관련 법규</t>
+  </si>
+  <si>
+    <t>와전류비파괴검사기사</t>
+  </si>
+  <si>
+    <t>와전류탐상검사 규격</t>
+  </si>
+  <si>
+    <t>와전류탐상검사 시험</t>
+  </si>
+  <si>
+    <t>와전류탐상검사 원리</t>
+  </si>
+  <si>
+    <t>용접기사</t>
+  </si>
+  <si>
+    <t>용접구조설계</t>
+  </si>
+  <si>
+    <t>용접야금</t>
+  </si>
+  <si>
+    <t>용접일반 및 안전관리</t>
+  </si>
+  <si>
+    <t>용접산업기사</t>
+  </si>
+  <si>
+    <t>용접야금 및 용접설비제도</t>
+  </si>
+  <si>
+    <t>원자력기사</t>
+  </si>
+  <si>
+    <t>발전로계통공학</t>
+  </si>
+  <si>
+    <t>방사선이용 및 보건물리</t>
+  </si>
+  <si>
+    <t>원자력기초</t>
+  </si>
+  <si>
+    <t>원자로 안전과 운전</t>
+  </si>
+  <si>
+    <t>핵재료공학 및 핵연료관리</t>
+  </si>
+  <si>
+    <t>위험물산업기사</t>
+  </si>
+  <si>
+    <t>위험물의 성질과 취급</t>
+  </si>
+  <si>
+    <t>일반화학</t>
+  </si>
+  <si>
+    <t>화재예방과 소화방법</t>
+  </si>
+  <si>
+    <t>유기농업기사</t>
+  </si>
+  <si>
+    <t>유기농업개론</t>
+  </si>
+  <si>
+    <t>유기농업관련 규정</t>
+  </si>
+  <si>
+    <t>유기식품 가공.유통론</t>
+  </si>
+  <si>
+    <t>재배원론</t>
+  </si>
+  <si>
+    <t>토양비옥도 및 관리</t>
+  </si>
+  <si>
+    <t>의공기사</t>
+  </si>
+  <si>
+    <t>기초의학 및 의공학</t>
+  </si>
+  <si>
+    <t>의료기기</t>
+  </si>
+  <si>
+    <t>의료안전·법규 및 정보</t>
+  </si>
+  <si>
+    <t>의용기계공학</t>
+  </si>
+  <si>
+    <t>의용전자공학</t>
+  </si>
+  <si>
+    <t>인간공학기사</t>
+  </si>
+  <si>
+    <t>근골격계질환 예방을 위한 작업관리</t>
+  </si>
+  <si>
+    <t>산업심리학 및 관계법규</t>
+  </si>
+  <si>
+    <t>인간공학개론</t>
+  </si>
+  <si>
+    <t>작업생리학</t>
+  </si>
+  <si>
+    <t>인쇄설계기사</t>
+  </si>
+  <si>
+    <t>인쇄공학</t>
+  </si>
+  <si>
+    <t>인쇄색채학</t>
+  </si>
+  <si>
+    <t>인쇄작업론 및 품질관리</t>
+  </si>
+  <si>
+    <t>인쇄재료학</t>
+  </si>
+  <si>
+    <t>특수인쇄학</t>
+  </si>
+  <si>
+    <t>일반기계기사</t>
+  </si>
+  <si>
+    <t>기계재료 및 유압기기</t>
+  </si>
+  <si>
+    <t>기계제작법 및 기계동력학</t>
+  </si>
+  <si>
+    <t>임업종묘기사</t>
+  </si>
+  <si>
+    <t>임목육종학</t>
+  </si>
+  <si>
+    <t>토양학 및 비료학</t>
+  </si>
+  <si>
+    <t>자기비파괴검사기사</t>
+  </si>
+  <si>
+    <t>자기탐상검사 규격</t>
+  </si>
+  <si>
+    <t>자기탐상검사 시험</t>
+  </si>
+  <si>
+    <t>자기탐상검사 원리</t>
+  </si>
+  <si>
+    <t>자동차정비기사</t>
+  </si>
+  <si>
+    <t>자동차기관</t>
+  </si>
+  <si>
+    <t>자동차새시</t>
+  </si>
+  <si>
+    <t>자동차전기</t>
+  </si>
+  <si>
+    <t>자동차정비산업기사</t>
+  </si>
+  <si>
+    <t>자동차섀시</t>
+  </si>
+  <si>
+    <t>자동차엔진</t>
+  </si>
+  <si>
+    <t>자연생태복원기사</t>
+  </si>
+  <si>
+    <t>경관생태학</t>
+  </si>
+  <si>
+    <t>생태복원 사후관리·평가</t>
+  </si>
+  <si>
+    <t>생태복원계획</t>
+  </si>
+  <si>
+    <t>생태복원공학</t>
+  </si>
+  <si>
+    <t>생태복원설계·시공</t>
+  </si>
+  <si>
+    <t>생태환경조사분석</t>
+  </si>
+  <si>
+    <t>환경계획학</t>
+  </si>
+  <si>
+    <t>환경생태학개론</t>
+  </si>
+  <si>
+    <t>자연생태복원산업기사</t>
+  </si>
+  <si>
+    <t>생태조사방법론</t>
+  </si>
+  <si>
+    <t>환경학개론</t>
+  </si>
+  <si>
+    <t>전기공사기사</t>
+  </si>
+  <si>
+    <t>전기기기</t>
+  </si>
+  <si>
+    <t>전기설비기술기준 및 판단기준</t>
+  </si>
+  <si>
+    <t>전기응용 및 공사재료</t>
+  </si>
+  <si>
+    <t>전력공학</t>
+  </si>
+  <si>
+    <t>회로이론 및 제어공학</t>
+  </si>
+  <si>
+    <t>전기공사산업기사</t>
+  </si>
+  <si>
+    <t>전기설비</t>
+  </si>
+  <si>
+    <t>전기응용</t>
+  </si>
+  <si>
+    <t>회로이론</t>
+  </si>
+  <si>
+    <t>전기기사</t>
+  </si>
+  <si>
+    <t>전기자기학</t>
+  </si>
+  <si>
+    <t>전기산업기사</t>
+  </si>
+  <si>
+    <t>전기설비기술기준 및 판단 기준</t>
+  </si>
+  <si>
+    <t>전기철도기사</t>
+  </si>
+  <si>
+    <t>전기철도 구조물공학</t>
+  </si>
+  <si>
+    <t>전기철도공학</t>
+  </si>
+  <si>
+    <t>전기철도산업기사</t>
+  </si>
+  <si>
+    <t>전기철도구조물공학</t>
+  </si>
+  <si>
+    <t>전자계산기기사</t>
+  </si>
+  <si>
+    <t>논리회로</t>
+  </si>
+  <si>
+    <t>데이터통신</t>
+  </si>
+  <si>
+    <t>마이크로전자계산기</t>
+  </si>
+  <si>
+    <t>시스템 프로그래밍</t>
+  </si>
+  <si>
+    <t>전자계산기구조</t>
+  </si>
+  <si>
+    <t>전자계산기제어산업기사</t>
+  </si>
+  <si>
+    <t>디지털공학</t>
+  </si>
+  <si>
+    <t>마이크로프로세서</t>
+  </si>
+  <si>
+    <t>전자회로</t>
+  </si>
+  <si>
+    <t>프로그래밍언어</t>
+  </si>
+  <si>
+    <t>전자계산기조직응용기사</t>
+  </si>
+  <si>
+    <t>마이크로 전자계산기</t>
+  </si>
+  <si>
+    <t>운영체제</t>
+  </si>
+  <si>
+    <t>자료구조 및 데이터통신</t>
+  </si>
+  <si>
+    <t>전자계산기 프로그래밍</t>
+  </si>
+  <si>
+    <t>전자기사</t>
+  </si>
+  <si>
+    <t>물리전자공학</t>
+  </si>
+  <si>
+    <t>전자계산기일반</t>
   </si>
 </sst>
 </file>
@@ -788,32 +1740,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -827,7 +1779,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -841,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -855,7 +1807,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -869,7 +1821,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -883,7 +1835,7 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -897,7 +1849,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -939,7 +1891,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -953,7 +1905,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1009,7 +1961,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1023,7 +1975,7 @@
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1037,7 +1989,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1051,7 +2003,7 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1065,7 +2017,7 @@
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1135,7 +2087,7 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1149,7 +2101,7 @@
         <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1163,7 +2115,7 @@
         <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1177,7 +2129,7 @@
         <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1191,7 +2143,7 @@
         <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1205,7 +2157,7 @@
         <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1219,7 +2171,7 @@
         <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1233,7 +2185,7 @@
         <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1247,7 +2199,7 @@
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1261,7 +2213,7 @@
         <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1275,7 +2227,7 @@
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1289,7 +2241,7 @@
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1303,7 +2255,7 @@
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1317,7 +2269,7 @@
         <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1345,7 +2297,7 @@
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1373,7 +2325,7 @@
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1415,7 +2367,7 @@
         <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1429,7 +2381,7 @@
         <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1457,7 +2409,7 @@
         <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1485,7 +2437,7 @@
         <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1527,7 +2479,7 @@
         <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1541,7 +2493,7 @@
         <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1555,7 +2507,7 @@
         <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1597,7 +2549,7 @@
         <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1611,7 +2563,7 @@
         <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1625,7 +2577,7 @@
         <v>27</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1653,7 +2605,7 @@
         <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1667,7 +2619,7 @@
         <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1681,7 +2633,7 @@
         <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1695,7 +2647,7 @@
         <v>28</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1709,7 +2661,7 @@
         <v>29</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1734,10 +2686,10 @@
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1748,10 +2700,10 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1762,10 +2714,10 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1776,10 +2728,10 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1849,7 +2801,7 @@
         <v>26</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -1863,7 +2815,7 @@
         <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1877,7 +2829,7 @@
         <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -1891,7 +2843,7 @@
         <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,7 +2885,7 @@
         <v>28</v>
       </c>
       <c r="E81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -1947,7 +2899,7 @@
         <v>29</v>
       </c>
       <c r="E82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -1961,7 +2913,7 @@
         <v>30</v>
       </c>
       <c r="E83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -1975,7 +2927,7 @@
         <v>31</v>
       </c>
       <c r="E84" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -1989,7 +2941,7 @@
         <v>26</v>
       </c>
       <c r="E85" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2017,7 +2969,7 @@
         <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2031,7 +2983,7 @@
         <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2059,7 +3011,7 @@
         <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2073,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="E91" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2087,7 +3039,7 @@
         <v>28</v>
       </c>
       <c r="E92" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2101,7 +3053,7 @@
         <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2129,7 +3081,7 @@
         <v>27</v>
       </c>
       <c r="E95" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2143,7 +3095,7 @@
         <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2185,7 +3137,7 @@
         <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2199,7 +3151,7 @@
         <v>28</v>
       </c>
       <c r="E100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2213,7 +3165,7 @@
         <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2241,7 +3193,7 @@
         <v>26</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2255,7 +3207,7 @@
         <v>27</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2269,7 +3221,7 @@
         <v>28</v>
       </c>
       <c r="E105" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2297,7 +3249,7 @@
         <v>30</v>
       </c>
       <c r="E107" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2311,7 +3263,7 @@
         <v>26</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2339,7 +3291,7 @@
         <v>28</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2353,7 +3305,7 @@
         <v>29</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2367,7 +3319,7 @@
         <v>26</v>
       </c>
       <c r="E112" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -2381,7 +3333,7 @@
         <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -2395,7 +3347,7 @@
         <v>28</v>
       </c>
       <c r="E114" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -2409,7 +3361,7 @@
         <v>29</v>
       </c>
       <c r="E115" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2437,7 +3389,7 @@
         <v>27</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -2465,7 +3417,7 @@
         <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -2479,7 +3431,7 @@
         <v>30</v>
       </c>
       <c r="E120" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -2493,7 +3445,7 @@
         <v>26</v>
       </c>
       <c r="E121" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -2507,7 +3459,7 @@
         <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -2536,6 +3488,4724 @@
       </c>
       <c r="E124" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>129</v>
+      </c>
+      <c r="D125" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>129</v>
+      </c>
+      <c r="D128" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>129</v>
+      </c>
+      <c r="D129" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>135</v>
+      </c>
+      <c r="D131" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>141</v>
+      </c>
+      <c r="D135" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>141</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>143</v>
+      </c>
+      <c r="D139" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140" t="s">
+        <v>27</v>
+      </c>
+      <c r="E140" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>143</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>143</v>
+      </c>
+      <c r="D143" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>149</v>
+      </c>
+      <c r="D144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>149</v>
+      </c>
+      <c r="D145" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>153</v>
+      </c>
+      <c r="D148" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>153</v>
+      </c>
+      <c r="D149" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>153</v>
+      </c>
+      <c r="D151" t="s">
+        <v>29</v>
+      </c>
+      <c r="E151" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" t="s">
+        <v>30</v>
+      </c>
+      <c r="E152" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>153</v>
+      </c>
+      <c r="D153" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>153</v>
+      </c>
+      <c r="D154" t="s">
+        <v>125</v>
+      </c>
+      <c r="E154" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>153</v>
+      </c>
+      <c r="D155" t="s">
+        <v>126</v>
+      </c>
+      <c r="E155" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>153</v>
+      </c>
+      <c r="D156" t="s">
+        <v>127</v>
+      </c>
+      <c r="E156" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>153</v>
+      </c>
+      <c r="D157" t="s">
+        <v>162</v>
+      </c>
+      <c r="E157" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>164</v>
+      </c>
+      <c r="D158" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>164</v>
+      </c>
+      <c r="D159" t="s">
+        <v>27</v>
+      </c>
+      <c r="E159" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>164</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>164</v>
+      </c>
+      <c r="D161" t="s">
+        <v>29</v>
+      </c>
+      <c r="E161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>164</v>
+      </c>
+      <c r="D162" t="s">
+        <v>30</v>
+      </c>
+      <c r="E162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>164</v>
+      </c>
+      <c r="D163" t="s">
+        <v>31</v>
+      </c>
+      <c r="E163" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>166</v>
+      </c>
+      <c r="D164" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D165" t="s">
+        <v>27</v>
+      </c>
+      <c r="E165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>166</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>166</v>
+      </c>
+      <c r="D167" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="C168" t="s">
+        <v>171</v>
+      </c>
+      <c r="D168" t="s">
+        <v>26</v>
+      </c>
+      <c r="E168" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="C169" t="s">
+        <v>171</v>
+      </c>
+      <c r="D169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E169" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>171</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>171</v>
+      </c>
+      <c r="D171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>171</v>
+      </c>
+      <c r="D172" t="s">
+        <v>30</v>
+      </c>
+      <c r="E172" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>177</v>
+      </c>
+      <c r="D173" t="s">
+        <v>26</v>
+      </c>
+      <c r="E173" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>177</v>
+      </c>
+      <c r="D174" t="s">
+        <v>27</v>
+      </c>
+      <c r="E174" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>177</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>177</v>
+      </c>
+      <c r="D176" t="s">
+        <v>29</v>
+      </c>
+      <c r="E176" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>182</v>
+      </c>
+      <c r="D177" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>182</v>
+      </c>
+      <c r="D178" t="s">
+        <v>27</v>
+      </c>
+      <c r="E178" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="C179" t="s">
+        <v>182</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="C180" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
+        <v>182</v>
+      </c>
+      <c r="D181" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s">
+        <v>188</v>
+      </c>
+      <c r="D182" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="C183" t="s">
+        <v>188</v>
+      </c>
+      <c r="D183" t="s">
+        <v>27</v>
+      </c>
+      <c r="E183" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="C184" t="s">
+        <v>188</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="C185" t="s">
+        <v>188</v>
+      </c>
+      <c r="D185" t="s">
+        <v>29</v>
+      </c>
+      <c r="E185" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="C186" t="s">
+        <v>190</v>
+      </c>
+      <c r="D186" t="s">
+        <v>26</v>
+      </c>
+      <c r="E186" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="C187" t="s">
+        <v>190</v>
+      </c>
+      <c r="D187" t="s">
+        <v>27</v>
+      </c>
+      <c r="E187" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="C188" t="s">
+        <v>190</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="C189" t="s">
+        <v>190</v>
+      </c>
+      <c r="D189" t="s">
+        <v>29</v>
+      </c>
+      <c r="E189" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="C190" t="s">
+        <v>190</v>
+      </c>
+      <c r="D190" t="s">
+        <v>30</v>
+      </c>
+      <c r="E190" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="C191" t="s">
+        <v>190</v>
+      </c>
+      <c r="D191" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="C192" t="s">
+        <v>195</v>
+      </c>
+      <c r="D192" t="s">
+        <v>26</v>
+      </c>
+      <c r="E192" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="C193" t="s">
+        <v>195</v>
+      </c>
+      <c r="D193" t="s">
+        <v>27</v>
+      </c>
+      <c r="E193" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>195</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="C195" t="s">
+        <v>195</v>
+      </c>
+      <c r="D195" t="s">
+        <v>29</v>
+      </c>
+      <c r="E195" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="C196" t="s">
+        <v>195</v>
+      </c>
+      <c r="D196" t="s">
+        <v>30</v>
+      </c>
+      <c r="E196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="C197" t="s">
+        <v>197</v>
+      </c>
+      <c r="D197" t="s">
+        <v>26</v>
+      </c>
+      <c r="E197" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>197</v>
+      </c>
+      <c r="D198" t="s">
+        <v>27</v>
+      </c>
+      <c r="E198" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="C199" t="s">
+        <v>197</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="C200" t="s">
+        <v>197</v>
+      </c>
+      <c r="D200" t="s">
+        <v>29</v>
+      </c>
+      <c r="E200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="C201" t="s">
+        <v>197</v>
+      </c>
+      <c r="D201" t="s">
+        <v>30</v>
+      </c>
+      <c r="E201" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="C202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D202" t="s">
+        <v>26</v>
+      </c>
+      <c r="E202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="C203" t="s">
+        <v>203</v>
+      </c>
+      <c r="D203" t="s">
+        <v>27</v>
+      </c>
+      <c r="E203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="C204" t="s">
+        <v>203</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="C205" t="s">
+        <v>203</v>
+      </c>
+      <c r="D205" t="s">
+        <v>29</v>
+      </c>
+      <c r="E205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="C206" t="s">
+        <v>208</v>
+      </c>
+      <c r="D206" t="s">
+        <v>26</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="C207" t="s">
+        <v>208</v>
+      </c>
+      <c r="D207" t="s">
+        <v>27</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="C208" t="s">
+        <v>208</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="C209" t="s">
+        <v>208</v>
+      </c>
+      <c r="D209" t="s">
+        <v>29</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="C210" t="s">
+        <v>208</v>
+      </c>
+      <c r="D210" t="s">
+        <v>30</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="C211" t="s">
+        <v>214</v>
+      </c>
+      <c r="D211" t="s">
+        <v>26</v>
+      </c>
+      <c r="E211" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="C212" t="s">
+        <v>214</v>
+      </c>
+      <c r="D212" t="s">
+        <v>27</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="C213" t="s">
+        <v>214</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="C214" t="s">
+        <v>214</v>
+      </c>
+      <c r="D214" t="s">
+        <v>29</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="C215" t="s">
+        <v>218</v>
+      </c>
+      <c r="D215" t="s">
+        <v>26</v>
+      </c>
+      <c r="E215" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="C216" t="s">
+        <v>218</v>
+      </c>
+      <c r="D216" t="s">
+        <v>27</v>
+      </c>
+      <c r="E216" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="C217" t="s">
+        <v>218</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="C218" t="s">
+        <v>218</v>
+      </c>
+      <c r="D218" t="s">
+        <v>29</v>
+      </c>
+      <c r="E218" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="C219" t="s">
+        <v>218</v>
+      </c>
+      <c r="D219" t="s">
+        <v>30</v>
+      </c>
+      <c r="E219" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="C220" t="s">
+        <v>218</v>
+      </c>
+      <c r="D220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E220" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="C221" t="s">
+        <v>225</v>
+      </c>
+      <c r="D221" t="s">
+        <v>26</v>
+      </c>
+      <c r="E221" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="C222" t="s">
+        <v>225</v>
+      </c>
+      <c r="D222" t="s">
+        <v>27</v>
+      </c>
+      <c r="E222" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="C223" t="s">
+        <v>225</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="C224" t="s">
+        <v>225</v>
+      </c>
+      <c r="D224" t="s">
+        <v>29</v>
+      </c>
+      <c r="E224" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="C225" t="s">
+        <v>230</v>
+      </c>
+      <c r="D225" t="s">
+        <v>26</v>
+      </c>
+      <c r="E225" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="C226" t="s">
+        <v>230</v>
+      </c>
+      <c r="D226" t="s">
+        <v>27</v>
+      </c>
+      <c r="E226" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="C227" t="s">
+        <v>230</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="C228" t="s">
+        <v>230</v>
+      </c>
+      <c r="D228" t="s">
+        <v>29</v>
+      </c>
+      <c r="E228" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="C229" t="s">
+        <v>235</v>
+      </c>
+      <c r="D229" t="s">
+        <v>26</v>
+      </c>
+      <c r="E229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="C230" t="s">
+        <v>235</v>
+      </c>
+      <c r="D230" t="s">
+        <v>27</v>
+      </c>
+      <c r="E230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="C231" t="s">
+        <v>235</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="C232" t="s">
+        <v>235</v>
+      </c>
+      <c r="D232" t="s">
+        <v>29</v>
+      </c>
+      <c r="E232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="C233" t="s">
+        <v>236</v>
+      </c>
+      <c r="D233" t="s">
+        <v>26</v>
+      </c>
+      <c r="E233" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="C234" t="s">
+        <v>236</v>
+      </c>
+      <c r="D234" t="s">
+        <v>27</v>
+      </c>
+      <c r="E234" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="C235" t="s">
+        <v>236</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="C236" t="s">
+        <v>236</v>
+      </c>
+      <c r="D236" t="s">
+        <v>29</v>
+      </c>
+      <c r="E236" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="C237" t="s">
+        <v>236</v>
+      </c>
+      <c r="D237" t="s">
+        <v>30</v>
+      </c>
+      <c r="E237" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="C238" t="s">
+        <v>236</v>
+      </c>
+      <c r="D238" t="s">
+        <v>31</v>
+      </c>
+      <c r="E238" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="C239" t="s">
+        <v>236</v>
+      </c>
+      <c r="D239" t="s">
+        <v>125</v>
+      </c>
+      <c r="E239" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="C240" t="s">
+        <v>236</v>
+      </c>
+      <c r="D240" t="s">
+        <v>126</v>
+      </c>
+      <c r="E240" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="C241" t="s">
+        <v>236</v>
+      </c>
+      <c r="D241" t="s">
+        <v>127</v>
+      </c>
+      <c r="E241" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="C242" t="s">
+        <v>246</v>
+      </c>
+      <c r="D242" t="s">
+        <v>26</v>
+      </c>
+      <c r="E242" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="C243" t="s">
+        <v>246</v>
+      </c>
+      <c r="D243" t="s">
+        <v>27</v>
+      </c>
+      <c r="E243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="C244" t="s">
+        <v>246</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="C245" t="s">
+        <v>248</v>
+      </c>
+      <c r="D245" t="s">
+        <v>26</v>
+      </c>
+      <c r="E245" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="C246" t="s">
+        <v>248</v>
+      </c>
+      <c r="D246" t="s">
+        <v>27</v>
+      </c>
+      <c r="E246" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="C247" t="s">
+        <v>248</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="C248" t="s">
+        <v>248</v>
+      </c>
+      <c r="D248" t="s">
+        <v>29</v>
+      </c>
+      <c r="E248" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="C249" t="s">
+        <v>248</v>
+      </c>
+      <c r="D249" t="s">
+        <v>30</v>
+      </c>
+      <c r="E249" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="C250" t="s">
+        <v>254</v>
+      </c>
+      <c r="D250" t="s">
+        <v>26</v>
+      </c>
+      <c r="E250" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="C251" t="s">
+        <v>254</v>
+      </c>
+      <c r="D251" t="s">
+        <v>27</v>
+      </c>
+      <c r="E251" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="C252" t="s">
+        <v>254</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="C253" t="s">
+        <v>254</v>
+      </c>
+      <c r="D253" t="s">
+        <v>29</v>
+      </c>
+      <c r="E253" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="C254" t="s">
+        <v>254</v>
+      </c>
+      <c r="D254" t="s">
+        <v>30</v>
+      </c>
+      <c r="E254" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="C255" t="s">
+        <v>260</v>
+      </c>
+      <c r="D255" t="s">
+        <v>26</v>
+      </c>
+      <c r="E255" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="C256" t="s">
+        <v>260</v>
+      </c>
+      <c r="D256" t="s">
+        <v>27</v>
+      </c>
+      <c r="E256" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="C257" t="s">
+        <v>260</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="C258" t="s">
+        <v>260</v>
+      </c>
+      <c r="D258" t="s">
+        <v>29</v>
+      </c>
+      <c r="E258" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="C259" t="s">
+        <v>262</v>
+      </c>
+      <c r="D259" t="s">
+        <v>26</v>
+      </c>
+      <c r="E259" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="C260" t="s">
+        <v>262</v>
+      </c>
+      <c r="D260" t="s">
+        <v>27</v>
+      </c>
+      <c r="E260" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="C261" t="s">
+        <v>262</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="C262" t="s">
+        <v>262</v>
+      </c>
+      <c r="D262" t="s">
+        <v>29</v>
+      </c>
+      <c r="E262" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="C263" t="s">
+        <v>265</v>
+      </c>
+      <c r="D263" t="s">
+        <v>26</v>
+      </c>
+      <c r="E263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="C264" t="s">
+        <v>265</v>
+      </c>
+      <c r="D264" t="s">
+        <v>27</v>
+      </c>
+      <c r="E264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="C265" t="s">
+        <v>265</v>
+      </c>
+      <c r="D265" t="s">
+        <v>28</v>
+      </c>
+      <c r="E265" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="C266" t="s">
+        <v>265</v>
+      </c>
+      <c r="D266" t="s">
+        <v>29</v>
+      </c>
+      <c r="E266" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="C267" t="s">
+        <v>268</v>
+      </c>
+      <c r="D267" t="s">
+        <v>26</v>
+      </c>
+      <c r="E267" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="C268" t="s">
+        <v>268</v>
+      </c>
+      <c r="D268" t="s">
+        <v>27</v>
+      </c>
+      <c r="E268" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="C269" t="s">
+        <v>268</v>
+      </c>
+      <c r="D269" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="C270" t="s">
+        <v>268</v>
+      </c>
+      <c r="D270" t="s">
+        <v>29</v>
+      </c>
+      <c r="E270" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="C271" t="s">
+        <v>268</v>
+      </c>
+      <c r="D271" t="s">
+        <v>30</v>
+      </c>
+      <c r="E271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="C272" t="s">
+        <v>274</v>
+      </c>
+      <c r="D272" t="s">
+        <v>26</v>
+      </c>
+      <c r="E272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="C273" t="s">
+        <v>274</v>
+      </c>
+      <c r="D273" t="s">
+        <v>27</v>
+      </c>
+      <c r="E273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="C274" t="s">
+        <v>274</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="C275" t="s">
+        <v>274</v>
+      </c>
+      <c r="D275" t="s">
+        <v>29</v>
+      </c>
+      <c r="E275" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="C276" t="s">
+        <v>277</v>
+      </c>
+      <c r="D276" t="s">
+        <v>26</v>
+      </c>
+      <c r="E276" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="C277" t="s">
+        <v>277</v>
+      </c>
+      <c r="D277" t="s">
+        <v>27</v>
+      </c>
+      <c r="E277" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="C278" t="s">
+        <v>277</v>
+      </c>
+      <c r="D278" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="C279" t="s">
+        <v>277</v>
+      </c>
+      <c r="D279" t="s">
+        <v>29</v>
+      </c>
+      <c r="E279" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="C280" t="s">
+        <v>277</v>
+      </c>
+      <c r="D280" t="s">
+        <v>30</v>
+      </c>
+      <c r="E280" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="C281" t="s">
+        <v>283</v>
+      </c>
+      <c r="D281" t="s">
+        <v>26</v>
+      </c>
+      <c r="E281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="C282" t="s">
+        <v>283</v>
+      </c>
+      <c r="D282" t="s">
+        <v>27</v>
+      </c>
+      <c r="E282" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="C283" t="s">
+        <v>283</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="C284" t="s">
+        <v>283</v>
+      </c>
+      <c r="D284" t="s">
+        <v>29</v>
+      </c>
+      <c r="E284" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="C285" t="s">
+        <v>283</v>
+      </c>
+      <c r="D285" t="s">
+        <v>30</v>
+      </c>
+      <c r="E285" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="C286" t="s">
+        <v>288</v>
+      </c>
+      <c r="D286" t="s">
+        <v>26</v>
+      </c>
+      <c r="E286" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="C287" t="s">
+        <v>288</v>
+      </c>
+      <c r="D287" t="s">
+        <v>27</v>
+      </c>
+      <c r="E287" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="C288" t="s">
+        <v>288</v>
+      </c>
+      <c r="D288" t="s">
+        <v>28</v>
+      </c>
+      <c r="E288" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="C289" t="s">
+        <v>288</v>
+      </c>
+      <c r="D289" t="s">
+        <v>29</v>
+      </c>
+      <c r="E289" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="C290" t="s">
+        <v>289</v>
+      </c>
+      <c r="D290" t="s">
+        <v>26</v>
+      </c>
+      <c r="E290" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="C291" t="s">
+        <v>289</v>
+      </c>
+      <c r="D291" t="s">
+        <v>27</v>
+      </c>
+      <c r="E291" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="C292" t="s">
+        <v>289</v>
+      </c>
+      <c r="D292" t="s">
+        <v>28</v>
+      </c>
+      <c r="E292" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="C293" t="s">
+        <v>289</v>
+      </c>
+      <c r="D293" t="s">
+        <v>29</v>
+      </c>
+      <c r="E293" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="C294" t="s">
+        <v>289</v>
+      </c>
+      <c r="D294" t="s">
+        <v>30</v>
+      </c>
+      <c r="E294" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="C295" t="s">
+        <v>295</v>
+      </c>
+      <c r="D295" t="s">
+        <v>26</v>
+      </c>
+      <c r="E295" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="C296" t="s">
+        <v>295</v>
+      </c>
+      <c r="D296" t="s">
+        <v>27</v>
+      </c>
+      <c r="E296" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="C297" t="s">
+        <v>295</v>
+      </c>
+      <c r="D297" t="s">
+        <v>28</v>
+      </c>
+      <c r="E297" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="C298" t="s">
+        <v>295</v>
+      </c>
+      <c r="D298" t="s">
+        <v>29</v>
+      </c>
+      <c r="E298" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="C299" t="s">
+        <v>295</v>
+      </c>
+      <c r="D299" t="s">
+        <v>30</v>
+      </c>
+      <c r="E299" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="C300" t="s">
+        <v>300</v>
+      </c>
+      <c r="D300" t="s">
+        <v>26</v>
+      </c>
+      <c r="E300" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="C301" t="s">
+        <v>300</v>
+      </c>
+      <c r="D301" t="s">
+        <v>27</v>
+      </c>
+      <c r="E301" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="C302" t="s">
+        <v>300</v>
+      </c>
+      <c r="D302" t="s">
+        <v>28</v>
+      </c>
+      <c r="E302" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="C303" t="s">
+        <v>300</v>
+      </c>
+      <c r="D303" t="s">
+        <v>29</v>
+      </c>
+      <c r="E303" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="C304" t="s">
+        <v>300</v>
+      </c>
+      <c r="D304" t="s">
+        <v>30</v>
+      </c>
+      <c r="E304" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="C305" t="s">
+        <v>302</v>
+      </c>
+      <c r="D305" t="s">
+        <v>26</v>
+      </c>
+      <c r="E305" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="C306" t="s">
+        <v>302</v>
+      </c>
+      <c r="D306" t="s">
+        <v>27</v>
+      </c>
+      <c r="E306" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="C307" t="s">
+        <v>302</v>
+      </c>
+      <c r="D307" t="s">
+        <v>28</v>
+      </c>
+      <c r="E307" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="C308" t="s">
+        <v>302</v>
+      </c>
+      <c r="D308" t="s">
+        <v>29</v>
+      </c>
+      <c r="E308" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="C309" t="s">
+        <v>307</v>
+      </c>
+      <c r="D309" t="s">
+        <v>26</v>
+      </c>
+      <c r="E309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="C310" t="s">
+        <v>307</v>
+      </c>
+      <c r="D310" t="s">
+        <v>27</v>
+      </c>
+      <c r="E310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="C311" t="s">
+        <v>307</v>
+      </c>
+      <c r="D311" t="s">
+        <v>28</v>
+      </c>
+      <c r="E311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="C312" t="s">
+        <v>307</v>
+      </c>
+      <c r="D312" t="s">
+        <v>29</v>
+      </c>
+      <c r="E312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="C313" t="s">
+        <v>312</v>
+      </c>
+      <c r="D313" t="s">
+        <v>26</v>
+      </c>
+      <c r="E313" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="C314" t="s">
+        <v>312</v>
+      </c>
+      <c r="D314" t="s">
+        <v>27</v>
+      </c>
+      <c r="E314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="C315" t="s">
+        <v>312</v>
+      </c>
+      <c r="D315" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="C316" t="s">
+        <v>312</v>
+      </c>
+      <c r="D316" t="s">
+        <v>29</v>
+      </c>
+      <c r="E316" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="C317" t="s">
+        <v>312</v>
+      </c>
+      <c r="D317" t="s">
+        <v>30</v>
+      </c>
+      <c r="E317" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="C318" t="s">
+        <v>312</v>
+      </c>
+      <c r="D318" t="s">
+        <v>31</v>
+      </c>
+      <c r="E318" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="C319" t="s">
+        <v>312</v>
+      </c>
+      <c r="D319" t="s">
+        <v>125</v>
+      </c>
+      <c r="E319" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="C320" t="s">
+        <v>312</v>
+      </c>
+      <c r="D320" t="s">
+        <v>126</v>
+      </c>
+      <c r="E320" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="C321" t="s">
+        <v>312</v>
+      </c>
+      <c r="D321" t="s">
+        <v>127</v>
+      </c>
+      <c r="E321" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="C322" t="s">
+        <v>312</v>
+      </c>
+      <c r="D322" t="s">
+        <v>162</v>
+      </c>
+      <c r="E322" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="C323" t="s">
+        <v>321</v>
+      </c>
+      <c r="D323" t="s">
+        <v>26</v>
+      </c>
+      <c r="E323" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="C324" t="s">
+        <v>321</v>
+      </c>
+      <c r="D324" t="s">
+        <v>27</v>
+      </c>
+      <c r="E324" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="C325" t="s">
+        <v>321</v>
+      </c>
+      <c r="D325" t="s">
+        <v>28</v>
+      </c>
+      <c r="E325" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="C326" t="s">
+        <v>321</v>
+      </c>
+      <c r="D326" t="s">
+        <v>29</v>
+      </c>
+      <c r="E326" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="C327" t="s">
+        <v>323</v>
+      </c>
+      <c r="D327" t="s">
+        <v>26</v>
+      </c>
+      <c r="E327" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="C328" t="s">
+        <v>323</v>
+      </c>
+      <c r="D328" t="s">
+        <v>27</v>
+      </c>
+      <c r="E328" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="C329" t="s">
+        <v>323</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="C330" t="s">
+        <v>323</v>
+      </c>
+      <c r="D330" t="s">
+        <v>29</v>
+      </c>
+      <c r="E330" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="C331" t="s">
+        <v>323</v>
+      </c>
+      <c r="D331" t="s">
+        <v>30</v>
+      </c>
+      <c r="E331" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="C332" t="s">
+        <v>328</v>
+      </c>
+      <c r="D332" t="s">
+        <v>26</v>
+      </c>
+      <c r="E332" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="C333" t="s">
+        <v>328</v>
+      </c>
+      <c r="D333" t="s">
+        <v>27</v>
+      </c>
+      <c r="E333" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="C334" t="s">
+        <v>328</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="C335" t="s">
+        <v>328</v>
+      </c>
+      <c r="D335" t="s">
+        <v>29</v>
+      </c>
+      <c r="E335" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="C336" t="s">
+        <v>333</v>
+      </c>
+      <c r="D336" t="s">
+        <v>26</v>
+      </c>
+      <c r="E336" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="C337" t="s">
+        <v>333</v>
+      </c>
+      <c r="D337" t="s">
+        <v>27</v>
+      </c>
+      <c r="E337" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="C338" t="s">
+        <v>333</v>
+      </c>
+      <c r="D338" t="s">
+        <v>28</v>
+      </c>
+      <c r="E338" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="C339" t="s">
+        <v>333</v>
+      </c>
+      <c r="D339" t="s">
+        <v>29</v>
+      </c>
+      <c r="E339" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="C340" t="s">
+        <v>333</v>
+      </c>
+      <c r="D340" t="s">
+        <v>30</v>
+      </c>
+      <c r="E340" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="C341" t="s">
+        <v>339</v>
+      </c>
+      <c r="D341" t="s">
+        <v>26</v>
+      </c>
+      <c r="E341" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="C342" t="s">
+        <v>339</v>
+      </c>
+      <c r="D342" t="s">
+        <v>27</v>
+      </c>
+      <c r="E342" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="C343" t="s">
+        <v>339</v>
+      </c>
+      <c r="D343" t="s">
+        <v>28</v>
+      </c>
+      <c r="E343" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="C344" t="s">
+        <v>339</v>
+      </c>
+      <c r="D344" t="s">
+        <v>29</v>
+      </c>
+      <c r="E344" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="C345" t="s">
+        <v>343</v>
+      </c>
+      <c r="D345" t="s">
+        <v>26</v>
+      </c>
+      <c r="E345" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="C346" t="s">
+        <v>343</v>
+      </c>
+      <c r="D346" t="s">
+        <v>27</v>
+      </c>
+      <c r="E346" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="C347" t="s">
+        <v>343</v>
+      </c>
+      <c r="D347" t="s">
+        <v>28</v>
+      </c>
+      <c r="E347" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="C348" t="s">
+        <v>343</v>
+      </c>
+      <c r="D348" t="s">
+        <v>29</v>
+      </c>
+      <c r="E348" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="C349" t="s">
+        <v>343</v>
+      </c>
+      <c r="D349" t="s">
+        <v>30</v>
+      </c>
+      <c r="E349" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="C350" t="s">
+        <v>347</v>
+      </c>
+      <c r="D350" t="s">
+        <v>26</v>
+      </c>
+      <c r="E350" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="C351" t="s">
+        <v>347</v>
+      </c>
+      <c r="D351" t="s">
+        <v>27</v>
+      </c>
+      <c r="E351" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="C352" t="s">
+        <v>347</v>
+      </c>
+      <c r="D352" t="s">
+        <v>28</v>
+      </c>
+      <c r="E352" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="C353" t="s">
+        <v>349</v>
+      </c>
+      <c r="D353" t="s">
+        <v>26</v>
+      </c>
+      <c r="E353" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="C354" t="s">
+        <v>349</v>
+      </c>
+      <c r="D354" t="s">
+        <v>27</v>
+      </c>
+      <c r="E354" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="C355" t="s">
+        <v>349</v>
+      </c>
+      <c r="D355" t="s">
+        <v>28</v>
+      </c>
+      <c r="E355" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="C356" t="s">
+        <v>349</v>
+      </c>
+      <c r="D356" t="s">
+        <v>29</v>
+      </c>
+      <c r="E356" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="C357" t="s">
+        <v>349</v>
+      </c>
+      <c r="D357" t="s">
+        <v>30</v>
+      </c>
+      <c r="E357" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="C358" t="s">
+        <v>355</v>
+      </c>
+      <c r="D358" t="s">
+        <v>26</v>
+      </c>
+      <c r="E358" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="C359" t="s">
+        <v>355</v>
+      </c>
+      <c r="D359" t="s">
+        <v>27</v>
+      </c>
+      <c r="E359" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="C360" t="s">
+        <v>355</v>
+      </c>
+      <c r="D360" t="s">
+        <v>28</v>
+      </c>
+      <c r="E360" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="C361" t="s">
+        <v>359</v>
+      </c>
+      <c r="D361" t="s">
+        <v>26</v>
+      </c>
+      <c r="E361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="C362" t="s">
+        <v>359</v>
+      </c>
+      <c r="D362" t="s">
+        <v>27</v>
+      </c>
+      <c r="E362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="C363" t="s">
+        <v>359</v>
+      </c>
+      <c r="D363" t="s">
+        <v>28</v>
+      </c>
+      <c r="E363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="C364" t="s">
+        <v>359</v>
+      </c>
+      <c r="D364" t="s">
+        <v>29</v>
+      </c>
+      <c r="E364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="C365" t="s">
+        <v>359</v>
+      </c>
+      <c r="D365" t="s">
+        <v>30</v>
+      </c>
+      <c r="E365" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="C366" t="s">
+        <v>365</v>
+      </c>
+      <c r="D366" t="s">
+        <v>26</v>
+      </c>
+      <c r="E366" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="C367" t="s">
+        <v>365</v>
+      </c>
+      <c r="D367" t="s">
+        <v>27</v>
+      </c>
+      <c r="E367" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="C368" t="s">
+        <v>365</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="C369" t="s">
+        <v>365</v>
+      </c>
+      <c r="D369" t="s">
+        <v>29</v>
+      </c>
+      <c r="E369" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="C370" t="s">
+        <v>365</v>
+      </c>
+      <c r="D370" t="s">
+        <v>30</v>
+      </c>
+      <c r="E370" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="C371" t="s">
+        <v>371</v>
+      </c>
+      <c r="D371" t="s">
+        <v>26</v>
+      </c>
+      <c r="E371" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="C372" t="s">
+        <v>371</v>
+      </c>
+      <c r="D372" t="s">
+        <v>27</v>
+      </c>
+      <c r="E372" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="C373" t="s">
+        <v>371</v>
+      </c>
+      <c r="D373" t="s">
+        <v>28</v>
+      </c>
+      <c r="E373" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="C374" t="s">
+        <v>371</v>
+      </c>
+      <c r="D374" t="s">
+        <v>29</v>
+      </c>
+      <c r="E374" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="C375" t="s">
+        <v>376</v>
+      </c>
+      <c r="D375" t="s">
+        <v>26</v>
+      </c>
+      <c r="E375" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="C376" t="s">
+        <v>376</v>
+      </c>
+      <c r="D376" t="s">
+        <v>27</v>
+      </c>
+      <c r="E376" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="C377" t="s">
+        <v>376</v>
+      </c>
+      <c r="D377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="C378" t="s">
+        <v>376</v>
+      </c>
+      <c r="D378" t="s">
+        <v>29</v>
+      </c>
+      <c r="E378" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="C379" t="s">
+        <v>376</v>
+      </c>
+      <c r="D379" t="s">
+        <v>30</v>
+      </c>
+      <c r="E379" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="C380" t="s">
+        <v>382</v>
+      </c>
+      <c r="D380" t="s">
+        <v>26</v>
+      </c>
+      <c r="E380" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="C381" t="s">
+        <v>382</v>
+      </c>
+      <c r="D381" t="s">
+        <v>27</v>
+      </c>
+      <c r="E381" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="C382" t="s">
+        <v>382</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="C383" t="s">
+        <v>382</v>
+      </c>
+      <c r="D383" t="s">
+        <v>29</v>
+      </c>
+      <c r="E383" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="C384" t="s">
+        <v>382</v>
+      </c>
+      <c r="D384" t="s">
+        <v>30</v>
+      </c>
+      <c r="E384" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="C385" t="s">
+        <v>385</v>
+      </c>
+      <c r="D385" t="s">
+        <v>26</v>
+      </c>
+      <c r="E385" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="C386" t="s">
+        <v>385</v>
+      </c>
+      <c r="D386" t="s">
+        <v>27</v>
+      </c>
+      <c r="E386" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="C387" t="s">
+        <v>385</v>
+      </c>
+      <c r="D387" t="s">
+        <v>28</v>
+      </c>
+      <c r="E387" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="C388" t="s">
+        <v>385</v>
+      </c>
+      <c r="D388" t="s">
+        <v>29</v>
+      </c>
+      <c r="E388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="C389" t="s">
+        <v>388</v>
+      </c>
+      <c r="D389" t="s">
+        <v>26</v>
+      </c>
+      <c r="E389" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="C390" t="s">
+        <v>388</v>
+      </c>
+      <c r="D390" t="s">
+        <v>27</v>
+      </c>
+      <c r="E390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="C391" t="s">
+        <v>388</v>
+      </c>
+      <c r="D391" t="s">
+        <v>28</v>
+      </c>
+      <c r="E391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="C392" t="s">
+        <v>388</v>
+      </c>
+      <c r="D392" t="s">
+        <v>29</v>
+      </c>
+      <c r="E392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="C393" t="s">
+        <v>392</v>
+      </c>
+      <c r="D393" t="s">
+        <v>26</v>
+      </c>
+      <c r="E393" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="C394" t="s">
+        <v>392</v>
+      </c>
+      <c r="D394" t="s">
+        <v>27</v>
+      </c>
+      <c r="E394" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="C395" t="s">
+        <v>392</v>
+      </c>
+      <c r="D395" t="s">
+        <v>28</v>
+      </c>
+      <c r="E395" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="C396" t="s">
+        <v>392</v>
+      </c>
+      <c r="D396" t="s">
+        <v>29</v>
+      </c>
+      <c r="E396" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="C397" t="s">
+        <v>392</v>
+      </c>
+      <c r="D397" t="s">
+        <v>30</v>
+      </c>
+      <c r="E397" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="C398" t="s">
+        <v>396</v>
+      </c>
+      <c r="D398" t="s">
+        <v>26</v>
+      </c>
+      <c r="E398" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="C399" t="s">
+        <v>396</v>
+      </c>
+      <c r="D399" t="s">
+        <v>27</v>
+      </c>
+      <c r="E399" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="C400" t="s">
+        <v>396</v>
+      </c>
+      <c r="D400" t="s">
+        <v>28</v>
+      </c>
+      <c r="E400" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="C401" t="s">
+        <v>396</v>
+      </c>
+      <c r="D401" t="s">
+        <v>29</v>
+      </c>
+      <c r="E401" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="C402" t="s">
+        <v>399</v>
+      </c>
+      <c r="D402" t="s">
+        <v>26</v>
+      </c>
+      <c r="E402" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="C403" t="s">
+        <v>399</v>
+      </c>
+      <c r="D403" t="s">
+        <v>27</v>
+      </c>
+      <c r="E403" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="C404" t="s">
+        <v>399</v>
+      </c>
+      <c r="D404" t="s">
+        <v>28</v>
+      </c>
+      <c r="E404" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="C405" t="s">
+        <v>399</v>
+      </c>
+      <c r="D405" t="s">
+        <v>29</v>
+      </c>
+      <c r="E405" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="C406" t="s">
+        <v>399</v>
+      </c>
+      <c r="D406" t="s">
+        <v>30</v>
+      </c>
+      <c r="E406" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="C407" t="s">
+        <v>399</v>
+      </c>
+      <c r="D407" t="s">
+        <v>31</v>
+      </c>
+      <c r="E407" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="C408" t="s">
+        <v>399</v>
+      </c>
+      <c r="D408" t="s">
+        <v>125</v>
+      </c>
+      <c r="E408" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="C409" t="s">
+        <v>399</v>
+      </c>
+      <c r="D409" t="s">
+        <v>126</v>
+      </c>
+      <c r="E409" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="C410" t="s">
+        <v>399</v>
+      </c>
+      <c r="D410" t="s">
+        <v>127</v>
+      </c>
+      <c r="E410" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="C411" t="s">
+        <v>408</v>
+      </c>
+      <c r="D411" t="s">
+        <v>26</v>
+      </c>
+      <c r="E411" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="C412" t="s">
+        <v>408</v>
+      </c>
+      <c r="D412" t="s">
+        <v>27</v>
+      </c>
+      <c r="E412" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="C413" t="s">
+        <v>408</v>
+      </c>
+      <c r="D413" t="s">
+        <v>28</v>
+      </c>
+      <c r="E413" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="C414" t="s">
+        <v>408</v>
+      </c>
+      <c r="D414" t="s">
+        <v>29</v>
+      </c>
+      <c r="E414" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="C415" t="s">
+        <v>411</v>
+      </c>
+      <c r="D415" t="s">
+        <v>26</v>
+      </c>
+      <c r="E415" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="C416" t="s">
+        <v>411</v>
+      </c>
+      <c r="D416" t="s">
+        <v>27</v>
+      </c>
+      <c r="E416" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="C417" t="s">
+        <v>411</v>
+      </c>
+      <c r="D417" t="s">
+        <v>28</v>
+      </c>
+      <c r="E417" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="C418" t="s">
+        <v>411</v>
+      </c>
+      <c r="D418" t="s">
+        <v>29</v>
+      </c>
+      <c r="E418" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="C419" t="s">
+        <v>411</v>
+      </c>
+      <c r="D419" t="s">
+        <v>30</v>
+      </c>
+      <c r="E419" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="C420" t="s">
+        <v>417</v>
+      </c>
+      <c r="D420" t="s">
+        <v>26</v>
+      </c>
+      <c r="E420" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="C421" t="s">
+        <v>417</v>
+      </c>
+      <c r="D421" t="s">
+        <v>27</v>
+      </c>
+      <c r="E421" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="C422" t="s">
+        <v>417</v>
+      </c>
+      <c r="D422" t="s">
+        <v>28</v>
+      </c>
+      <c r="E422" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="C423" t="s">
+        <v>417</v>
+      </c>
+      <c r="D423" t="s">
+        <v>29</v>
+      </c>
+      <c r="E423" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="C424" t="s">
+        <v>417</v>
+      </c>
+      <c r="D424" t="s">
+        <v>30</v>
+      </c>
+      <c r="E424" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="C425" t="s">
+        <v>421</v>
+      </c>
+      <c r="D425" t="s">
+        <v>26</v>
+      </c>
+      <c r="E425" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="C426" t="s">
+        <v>421</v>
+      </c>
+      <c r="D426" t="s">
+        <v>27</v>
+      </c>
+      <c r="E426" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="C427" t="s">
+        <v>421</v>
+      </c>
+      <c r="D427" t="s">
+        <v>28</v>
+      </c>
+      <c r="E427" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="C428" t="s">
+        <v>421</v>
+      </c>
+      <c r="D428" t="s">
+        <v>29</v>
+      </c>
+      <c r="E428" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="C429" t="s">
+        <v>421</v>
+      </c>
+      <c r="D429" t="s">
+        <v>30</v>
+      </c>
+      <c r="E429" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="C430" t="s">
+        <v>423</v>
+      </c>
+      <c r="D430" t="s">
+        <v>26</v>
+      </c>
+      <c r="E430" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="C431" t="s">
+        <v>423</v>
+      </c>
+      <c r="D431" t="s">
+        <v>27</v>
+      </c>
+      <c r="E431" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="C432" t="s">
+        <v>423</v>
+      </c>
+      <c r="D432" t="s">
+        <v>28</v>
+      </c>
+      <c r="E432" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="C433" t="s">
+        <v>423</v>
+      </c>
+      <c r="D433" t="s">
+        <v>29</v>
+      </c>
+      <c r="E433" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="C434" t="s">
+        <v>423</v>
+      </c>
+      <c r="D434" t="s">
+        <v>30</v>
+      </c>
+      <c r="E434" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="C435" t="s">
+        <v>425</v>
+      </c>
+      <c r="D435" t="s">
+        <v>26</v>
+      </c>
+      <c r="E435" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="C436" t="s">
+        <v>425</v>
+      </c>
+      <c r="D436" t="s">
+        <v>27</v>
+      </c>
+      <c r="E436" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="C437" t="s">
+        <v>425</v>
+      </c>
+      <c r="D437" t="s">
+        <v>28</v>
+      </c>
+      <c r="E437" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="C438" t="s">
+        <v>425</v>
+      </c>
+      <c r="D438" t="s">
+        <v>29</v>
+      </c>
+      <c r="E438" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="C439" t="s">
+        <v>428</v>
+      </c>
+      <c r="D439" t="s">
+        <v>26</v>
+      </c>
+      <c r="E439" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="C440" t="s">
+        <v>428</v>
+      </c>
+      <c r="D440" t="s">
+        <v>27</v>
+      </c>
+      <c r="E440" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="C441" t="s">
+        <v>428</v>
+      </c>
+      <c r="D441" t="s">
+        <v>28</v>
+      </c>
+      <c r="E441" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="C442" t="s">
+        <v>428</v>
+      </c>
+      <c r="D442" t="s">
+        <v>29</v>
+      </c>
+      <c r="E442" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="C443" t="s">
+        <v>430</v>
+      </c>
+      <c r="D443" t="s">
+        <v>26</v>
+      </c>
+      <c r="E443" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="C444" t="s">
+        <v>430</v>
+      </c>
+      <c r="D444" t="s">
+        <v>27</v>
+      </c>
+      <c r="E444" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="C445" t="s">
+        <v>430</v>
+      </c>
+      <c r="D445" t="s">
+        <v>28</v>
+      </c>
+      <c r="E445" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="C446" t="s">
+        <v>430</v>
+      </c>
+      <c r="D446" t="s">
+        <v>29</v>
+      </c>
+      <c r="E446" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="C447" t="s">
+        <v>430</v>
+      </c>
+      <c r="D447" t="s">
+        <v>30</v>
+      </c>
+      <c r="E447" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="C448" t="s">
+        <v>436</v>
+      </c>
+      <c r="D448" t="s">
+        <v>26</v>
+      </c>
+      <c r="E448" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="C449" t="s">
+        <v>436</v>
+      </c>
+      <c r="D449" t="s">
+        <v>27</v>
+      </c>
+      <c r="E449" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="C450" t="s">
+        <v>436</v>
+      </c>
+      <c r="D450" t="s">
+        <v>28</v>
+      </c>
+      <c r="E450" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="C451" t="s">
+        <v>436</v>
+      </c>
+      <c r="D451" t="s">
+        <v>29</v>
+      </c>
+      <c r="E451" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="C452" t="s">
+        <v>441</v>
+      </c>
+      <c r="D452" t="s">
+        <v>26</v>
+      </c>
+      <c r="E452" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="C453" t="s">
+        <v>441</v>
+      </c>
+      <c r="D453" t="s">
+        <v>27</v>
+      </c>
+      <c r="E453" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="C454" t="s">
+        <v>441</v>
+      </c>
+      <c r="D454" t="s">
+        <v>28</v>
+      </c>
+      <c r="E454" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="C455" t="s">
+        <v>441</v>
+      </c>
+      <c r="D455" t="s">
+        <v>29</v>
+      </c>
+      <c r="E455" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="C456" t="s">
+        <v>441</v>
+      </c>
+      <c r="D456" t="s">
+        <v>30</v>
+      </c>
+      <c r="E456" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="C457" t="s">
+        <v>446</v>
+      </c>
+      <c r="D457" t="s">
+        <v>26</v>
+      </c>
+      <c r="E457" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="C458" t="s">
+        <v>446</v>
+      </c>
+      <c r="D458" t="s">
+        <v>27</v>
+      </c>
+      <c r="E458" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="C459" t="s">
+        <v>446</v>
+      </c>
+      <c r="D459" t="s">
+        <v>28</v>
+      </c>
+      <c r="E459" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="C460" t="s">
+        <v>446</v>
+      </c>
+      <c r="D460" t="s">
+        <v>29</v>
+      </c>
+      <c r="E460" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="C461" t="s">
+        <v>446</v>
+      </c>
+      <c r="D461" t="s">
+        <v>30</v>
+      </c>
+      <c r="E461" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/subjects.xlsx
+++ b/subjects.xlsx
@@ -384,988 +384,989 @@
     <t>subjectNum</t>
   </si>
   <si>
+    <t>certId</t>
+  </si>
+  <si>
+    <t>certName</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>7과목</t>
+  </si>
+  <si>
+    <t>8과목</t>
+  </si>
+  <si>
+    <t>9과목</t>
+  </si>
+  <si>
+    <t>기구학 및 CAD</t>
+  </si>
+  <si>
+    <t>도시계획기사</t>
+  </si>
+  <si>
+    <t>국토 및 지역계획</t>
+  </si>
+  <si>
+    <t>도시개발론</t>
+  </si>
+  <si>
+    <t>도시계획관계법규</t>
+  </si>
+  <si>
+    <t>도시계획론</t>
+  </si>
+  <si>
+    <t>도시설계 및 단지계획</t>
+  </si>
+  <si>
+    <t>무선설비기사</t>
+  </si>
+  <si>
+    <t>디지털 전자회로</t>
+  </si>
+  <si>
+    <t>무선통신 기기</t>
+  </si>
+  <si>
+    <t>무선통신 시스템</t>
+  </si>
+  <si>
+    <t>안테나 공학</t>
+  </si>
+  <si>
+    <t>전자계산기 일반 및 무선설비기준</t>
+  </si>
+  <si>
+    <t>무선설비산업기사</t>
+  </si>
+  <si>
+    <t>안테나 개론</t>
+  </si>
+  <si>
+    <t>바이오화학제품제조기사</t>
+  </si>
+  <si>
+    <t>미생물공학</t>
+  </si>
+  <si>
+    <t>배양공학</t>
+  </si>
+  <si>
+    <t>생물공학개론</t>
+  </si>
+  <si>
+    <t>생물반응공학</t>
+  </si>
+  <si>
+    <t>생물분리공학</t>
+  </si>
+  <si>
+    <t>방사선비파괴검사기사</t>
+  </si>
+  <si>
+    <t>방사선투과검사 규격</t>
+  </si>
+  <si>
+    <t>방사선투과검사 시험</t>
+  </si>
+  <si>
+    <t>방사선투과검사 원리</t>
+  </si>
+  <si>
+    <t>방송통신기사</t>
+  </si>
+  <si>
+    <t>방송미디어 공학</t>
+  </si>
+  <si>
+    <t>방송미디어공학</t>
+  </si>
+  <si>
+    <t>방송통신 기기</t>
+  </si>
+  <si>
+    <t>방송통신 시스템</t>
+  </si>
+  <si>
+    <t>방송통신기기</t>
+  </si>
+  <si>
+    <t>방송통신시스템</t>
+  </si>
+  <si>
+    <t>방송통신일반</t>
+  </si>
+  <si>
+    <t>전자계산기 일반 및 방송설비기준</t>
+  </si>
+  <si>
+    <t>10과목</t>
+  </si>
+  <si>
+    <t>컴퓨터일반 및 방송설비기준</t>
+  </si>
+  <si>
+    <t>방송통신산업기사</t>
+  </si>
+  <si>
+    <t>방송미디어 개론</t>
+  </si>
+  <si>
+    <t>방수산업기사</t>
+  </si>
+  <si>
+    <t>방수시공</t>
+  </si>
+  <si>
+    <t>방수유지관리</t>
+  </si>
+  <si>
+    <t>방수일반</t>
+  </si>
+  <si>
+    <t>방수재료</t>
+  </si>
+  <si>
+    <t>방재기사</t>
+  </si>
+  <si>
+    <t>방재사업</t>
+  </si>
+  <si>
+    <t>방재시설</t>
+  </si>
+  <si>
+    <t>재난관리</t>
+  </si>
+  <si>
+    <t>재해대책</t>
+  </si>
+  <si>
+    <t>재해분석</t>
+  </si>
+  <si>
+    <t>사무자동화산업기사</t>
+  </si>
+  <si>
+    <t>사무경영관리 개론</t>
+  </si>
+  <si>
+    <t>사무자동화 시스템</t>
+  </si>
+  <si>
+    <t>정보통신 개론</t>
+  </si>
+  <si>
+    <t>프로그래밍 일반</t>
+  </si>
+  <si>
+    <t>산림기사</t>
+  </si>
+  <si>
+    <t>사방공학</t>
+  </si>
+  <si>
+    <t>산림보호학</t>
+  </si>
+  <si>
+    <t>임도공학</t>
+  </si>
+  <si>
+    <t>임업경영학</t>
+  </si>
+  <si>
+    <t>조림학</t>
+  </si>
+  <si>
+    <t>산림산업기사</t>
+  </si>
+  <si>
+    <t>산림공학</t>
+  </si>
+  <si>
+    <t>산업안전기사</t>
+  </si>
+  <si>
+    <t>기계위험방지기술</t>
+  </si>
+  <si>
+    <t>안전관리론</t>
+  </si>
+  <si>
+    <t>전기위험방지기술</t>
+  </si>
+  <si>
+    <t>화학설비위험방지기술</t>
+  </si>
+  <si>
+    <t>산업안전산업기사</t>
+  </si>
+  <si>
+    <t>전기 및 화학설비위험방지기술</t>
+  </si>
+  <si>
+    <t>산업위생관리기사</t>
+  </si>
+  <si>
+    <t>물리적유해인자관리</t>
+  </si>
+  <si>
+    <t>산업독성학</t>
+  </si>
+  <si>
+    <t>산업위생학개론</t>
+  </si>
+  <si>
+    <t>작업위생측정 및 평가</t>
+  </si>
+  <si>
+    <t>작업환경관리대책</t>
+  </si>
+  <si>
+    <t>산업위생관리산업기사</t>
+  </si>
+  <si>
+    <t>산업위생학 개론</t>
+  </si>
+  <si>
+    <t>산업환기</t>
+  </si>
+  <si>
+    <t>작업환경관리</t>
+  </si>
+  <si>
+    <t>작업환경측정 및 평가</t>
+  </si>
+  <si>
+    <t>생물분류기사</t>
+  </si>
+  <si>
+    <t>계통분류학</t>
+  </si>
+  <si>
+    <t>보존 및 자원생물학</t>
+  </si>
+  <si>
+    <t>자연환경관계법규</t>
+  </si>
+  <si>
+    <t>형태학</t>
+  </si>
+  <si>
+    <t>환경생태학</t>
+  </si>
+  <si>
+    <t>생산자동화산업기사</t>
+  </si>
+  <si>
+    <t>기계제도 및 기초공학</t>
+  </si>
+  <si>
+    <t>메카트로닉스</t>
+  </si>
+  <si>
+    <t>자동제어</t>
+  </si>
+  <si>
+    <t>설비보전기사</t>
+  </si>
+  <si>
+    <t>공유압 및 자동화</t>
+  </si>
+  <si>
+    <t>기계일반 및 기계보전</t>
+  </si>
+  <si>
+    <t>설비 진단 및 계측</t>
+  </si>
+  <si>
+    <t>설비관리</t>
+  </si>
+  <si>
+    <t>설비진단 및 계측</t>
+  </si>
+  <si>
+    <t>윤활관리</t>
+  </si>
+  <si>
+    <t>설비보전산업기사</t>
+  </si>
+  <si>
+    <t>공업계측 및 전기전자제어</t>
+  </si>
+  <si>
+    <t>공유압 및 자동화시스템</t>
+  </si>
+  <si>
+    <t>기계정비 일반</t>
+  </si>
+  <si>
+    <t>설비진단관리 및 기계정비</t>
+  </si>
+  <si>
+    <t>소방설비기사</t>
+  </si>
+  <si>
+    <t>소방관계법규</t>
+  </si>
+  <si>
+    <t>소방기계시설의 구조 및 원리</t>
+  </si>
+  <si>
+    <t>소방원론</t>
+  </si>
+  <si>
+    <t>소방유체역학</t>
+  </si>
+  <si>
+    <t>소방설비산업기사</t>
+  </si>
+  <si>
+    <t>소음진동기사</t>
+  </si>
+  <si>
+    <t>소음 측정 및 분석</t>
+  </si>
+  <si>
+    <t>소음방지기술</t>
+  </si>
+  <si>
+    <t>소음진동 공정시험 기준</t>
+  </si>
+  <si>
+    <t>소음진동 관계 법규</t>
+  </si>
+  <si>
+    <t>소음진동 평가 및 대책</t>
+  </si>
+  <si>
+    <t>소음진동개론</t>
+  </si>
+  <si>
+    <t>소음진동계획</t>
+  </si>
+  <si>
+    <t>진동 측정 및 분석</t>
+  </si>
+  <si>
+    <t>진동방지기술</t>
+  </si>
+  <si>
+    <t>소음진동산업기사</t>
+  </si>
+  <si>
+    <t>소음진동방지기술</t>
+  </si>
+  <si>
+    <t>수산양식기사</t>
+  </si>
+  <si>
+    <t>무척추동물양식학</t>
+  </si>
+  <si>
+    <t>수산질병학</t>
+  </si>
+  <si>
+    <t>양식장환경</t>
+  </si>
+  <si>
+    <t>어류양식학</t>
+  </si>
+  <si>
+    <t>해조류양식학</t>
+  </si>
+  <si>
+    <t>수질환경기사</t>
+  </si>
+  <si>
+    <t>상하수도계획</t>
+  </si>
+  <si>
+    <t>수질오염개론</t>
+  </si>
+  <si>
+    <t>수질오염공정시험기준</t>
+  </si>
+  <si>
+    <t>수질오염방지기술</t>
+  </si>
+  <si>
+    <t>수질환경관계법규</t>
+  </si>
+  <si>
+    <t>수질환경산업기사</t>
+  </si>
+  <si>
+    <t>수질오염공정시험방법</t>
+  </si>
+  <si>
+    <t>승강기기사</t>
+  </si>
+  <si>
+    <t>승강기 개론</t>
+  </si>
+  <si>
+    <t>승강기 설계</t>
+  </si>
+  <si>
+    <t>승강기산업기사</t>
+  </si>
+  <si>
+    <t>승강기개론</t>
+  </si>
+  <si>
+    <t>승강기설계</t>
+  </si>
+  <si>
+    <t>시각디자인기사</t>
+  </si>
+  <si>
+    <t>광고학</t>
+  </si>
+  <si>
+    <t>사진 및 인쇄제판론</t>
+  </si>
+  <si>
+    <t>색채학</t>
+  </si>
+  <si>
+    <t>시각디자인론</t>
+  </si>
+  <si>
+    <t>조형심리학</t>
+  </si>
+  <si>
+    <t>시각디자인산업기사</t>
+  </si>
+  <si>
+    <t>시각디자인실무 이론</t>
+  </si>
+  <si>
+    <t>인쇄 및 사진기법</t>
+  </si>
+  <si>
+    <t>시설원예기사</t>
+  </si>
+  <si>
+    <t>수경재배학</t>
+  </si>
+  <si>
+    <t>시설원예학</t>
+  </si>
+  <si>
+    <t>원예학개론</t>
+  </si>
+  <si>
+    <t>작물생리학</t>
+  </si>
+  <si>
+    <t>재배학원론</t>
+  </si>
+  <si>
+    <t>식물보호기사</t>
+  </si>
+  <si>
+    <t>농림해충학</t>
+  </si>
+  <si>
+    <t>농약학</t>
+  </si>
+  <si>
+    <t>식물병리학</t>
+  </si>
+  <si>
+    <t>잡초방제학</t>
+  </si>
+  <si>
+    <t>식물보호산업기사</t>
+  </si>
+  <si>
+    <t>식육가공기사</t>
+  </si>
+  <si>
+    <t>식육가공학</t>
+  </si>
+  <si>
+    <t>식육과학</t>
+  </si>
+  <si>
+    <t>식품위생학</t>
+  </si>
+  <si>
+    <t>제품저장 및 유통학</t>
+  </si>
+  <si>
+    <t>축산식품 관련 규정</t>
+  </si>
+  <si>
+    <t>식품산업기사</t>
+  </si>
+  <si>
+    <t>식품가공학</t>
+  </si>
+  <si>
+    <t>식품미생물학</t>
+  </si>
+  <si>
+    <t>식품제조공정</t>
+  </si>
+  <si>
+    <t>식품화학</t>
+  </si>
+  <si>
+    <t>식품안전기사</t>
+  </si>
+  <si>
+    <t>생화학 및 발효학</t>
+  </si>
+  <si>
+    <t>신재생에너지발전설비기사</t>
+  </si>
+  <si>
+    <t>태양광발전 기획</t>
+  </si>
+  <si>
+    <t>태양광발전 설계</t>
+  </si>
+  <si>
+    <t>태양광발전 시공</t>
+  </si>
+  <si>
+    <t>태양광발전 운영</t>
+  </si>
+  <si>
+    <t>신재생에너지발전설비산업기사</t>
+  </si>
+  <si>
+    <t>신재생 에너지 관련 법규</t>
+  </si>
+  <si>
+    <t>태양광 발전 시스템 시공</t>
+  </si>
+  <si>
+    <t>태양광 발전 시스템 운영</t>
+  </si>
+  <si>
+    <t>태양광 발전 시스템 이론</t>
+  </si>
+  <si>
+    <t>실내건축기사</t>
+  </si>
+  <si>
+    <t>건축재료</t>
+  </si>
+  <si>
+    <t>건축환경</t>
+  </si>
+  <si>
+    <t>실내디자인 색채 및 사용자 행태분석</t>
+  </si>
+  <si>
+    <t>실내디자인 시공 및 재료</t>
+  </si>
+  <si>
+    <t>실내디자인계획</t>
+  </si>
+  <si>
+    <t>실내디자인론</t>
+  </si>
+  <si>
+    <t>실내디자인환경</t>
+  </si>
+  <si>
+    <t>인간공학</t>
+  </si>
+  <si>
+    <t>실내건축산업기사</t>
+  </si>
+  <si>
+    <t>색채 및 인간공학</t>
+  </si>
+  <si>
+    <t>에너지관리기사</t>
+  </si>
+  <si>
+    <t>계측방법</t>
+  </si>
+  <si>
+    <t>열설비설계</t>
+  </si>
+  <si>
+    <t>열설비재료 및 관계법규</t>
+  </si>
+  <si>
+    <t>열역학</t>
+  </si>
+  <si>
+    <t>에너지관리산업기사</t>
+  </si>
+  <si>
+    <t>계측 및 에너지진단</t>
+  </si>
+  <si>
+    <t>열설비구조 및 시공</t>
+  </si>
+  <si>
+    <t>열설비취급 및 안전관리</t>
+  </si>
+  <si>
+    <t>열역학 및 연소관리</t>
+  </si>
+  <si>
+    <t>온실가스관리기사</t>
+  </si>
+  <si>
+    <t>기후변화개론</t>
+  </si>
+  <si>
+    <t>온실가스 감축관리</t>
+  </si>
+  <si>
+    <t>온실가스 배출의 이해</t>
+  </si>
+  <si>
+    <t>온실가스 산정과 데이터 품질관리</t>
+  </si>
+  <si>
+    <t>온실가스관련 법규</t>
+  </si>
+  <si>
+    <t>와전류비파괴검사기사</t>
+  </si>
+  <si>
+    <t>와전류탐상검사 규격</t>
+  </si>
+  <si>
+    <t>와전류탐상검사 시험</t>
+  </si>
+  <si>
+    <t>와전류탐상검사 원리</t>
+  </si>
+  <si>
+    <t>용접기사</t>
+  </si>
+  <si>
+    <t>용접구조설계</t>
+  </si>
+  <si>
+    <t>용접야금</t>
+  </si>
+  <si>
+    <t>용접일반 및 안전관리</t>
+  </si>
+  <si>
+    <t>용접산업기사</t>
+  </si>
+  <si>
+    <t>용접야금 및 용접설비제도</t>
+  </si>
+  <si>
+    <t>원자력기사</t>
+  </si>
+  <si>
+    <t>발전로계통공학</t>
+  </si>
+  <si>
+    <t>방사선이용 및 보건물리</t>
+  </si>
+  <si>
+    <t>원자력기초</t>
+  </si>
+  <si>
+    <t>원자로 안전과 운전</t>
+  </si>
+  <si>
+    <t>핵재료공학 및 핵연료관리</t>
+  </si>
+  <si>
+    <t>위험물산업기사</t>
+  </si>
+  <si>
+    <t>위험물의 성질과 취급</t>
+  </si>
+  <si>
+    <t>일반화학</t>
+  </si>
+  <si>
+    <t>화재예방과 소화방법</t>
+  </si>
+  <si>
+    <t>유기농업기사</t>
+  </si>
+  <si>
+    <t>유기농업개론</t>
+  </si>
+  <si>
+    <t>유기농업관련 규정</t>
+  </si>
+  <si>
+    <t>유기식품 가공.유통론</t>
+  </si>
+  <si>
+    <t>재배원론</t>
+  </si>
+  <si>
+    <t>토양비옥도 및 관리</t>
+  </si>
+  <si>
+    <t>의공기사</t>
+  </si>
+  <si>
+    <t>기초의학 및 의공학</t>
+  </si>
+  <si>
+    <t>의료기기</t>
+  </si>
+  <si>
+    <t>의료안전·법규 및 정보</t>
+  </si>
+  <si>
+    <t>의용기계공학</t>
+  </si>
+  <si>
+    <t>의용전자공학</t>
+  </si>
+  <si>
+    <t>인간공학기사</t>
+  </si>
+  <si>
+    <t>근골격계질환 예방을 위한 작업관리</t>
+  </si>
+  <si>
+    <t>산업심리학 및 관계법규</t>
+  </si>
+  <si>
+    <t>인간공학개론</t>
+  </si>
+  <si>
+    <t>작업생리학</t>
+  </si>
+  <si>
+    <t>인쇄설계기사</t>
+  </si>
+  <si>
+    <t>인쇄공학</t>
+  </si>
+  <si>
+    <t>인쇄색채학</t>
+  </si>
+  <si>
+    <t>인쇄작업론 및 품질관리</t>
+  </si>
+  <si>
+    <t>인쇄재료학</t>
+  </si>
+  <si>
+    <t>특수인쇄학</t>
+  </si>
+  <si>
+    <t>일반기계기사</t>
+  </si>
+  <si>
+    <t>기계재료 및 유압기기</t>
+  </si>
+  <si>
+    <t>기계제작법 및 기계동력학</t>
+  </si>
+  <si>
+    <t>임업종묘기사</t>
+  </si>
+  <si>
+    <t>임목육종학</t>
+  </si>
+  <si>
+    <t>토양학 및 비료학</t>
+  </si>
+  <si>
+    <t>자기비파괴검사기사</t>
+  </si>
+  <si>
+    <t>자기탐상검사 규격</t>
+  </si>
+  <si>
+    <t>자기탐상검사 시험</t>
+  </si>
+  <si>
+    <t>자기탐상검사 원리</t>
+  </si>
+  <si>
+    <t>자동차정비기사</t>
+  </si>
+  <si>
+    <t>자동차기관</t>
+  </si>
+  <si>
+    <t>자동차새시</t>
+  </si>
+  <si>
+    <t>자동차전기</t>
+  </si>
+  <si>
+    <t>자동차정비산업기사</t>
+  </si>
+  <si>
+    <t>자동차섀시</t>
+  </si>
+  <si>
+    <t>자동차엔진</t>
+  </si>
+  <si>
+    <t>자연생태복원기사</t>
+  </si>
+  <si>
+    <t>경관생태학</t>
+  </si>
+  <si>
+    <t>생태복원 사후관리·평가</t>
+  </si>
+  <si>
+    <t>생태복원계획</t>
+  </si>
+  <si>
+    <t>생태복원공학</t>
+  </si>
+  <si>
+    <t>생태복원설계·시공</t>
+  </si>
+  <si>
+    <t>생태환경조사분석</t>
+  </si>
+  <si>
+    <t>환경계획학</t>
+  </si>
+  <si>
+    <t>환경생태학개론</t>
+  </si>
+  <si>
+    <t>자연생태복원산업기사</t>
+  </si>
+  <si>
+    <t>생태조사방법론</t>
+  </si>
+  <si>
+    <t>환경학개론</t>
+  </si>
+  <si>
+    <t>전기공사기사</t>
+  </si>
+  <si>
+    <t>전기기기</t>
+  </si>
+  <si>
+    <t>전기설비기술기준 및 판단기준</t>
+  </si>
+  <si>
+    <t>전기응용 및 공사재료</t>
+  </si>
+  <si>
+    <t>전력공학</t>
+  </si>
+  <si>
+    <t>회로이론 및 제어공학</t>
+  </si>
+  <si>
+    <t>전기공사산업기사</t>
+  </si>
+  <si>
+    <t>전기설비</t>
+  </si>
+  <si>
+    <t>전기응용</t>
+  </si>
+  <si>
+    <t>회로이론</t>
+  </si>
+  <si>
+    <t>전기기사</t>
+  </si>
+  <si>
+    <t>전기자기학</t>
+  </si>
+  <si>
+    <t>전기산업기사</t>
+  </si>
+  <si>
+    <t>전기설비기술기준 및 판단 기준</t>
+  </si>
+  <si>
+    <t>전기철도기사</t>
+  </si>
+  <si>
+    <t>전기철도 구조물공학</t>
+  </si>
+  <si>
+    <t>전기철도공학</t>
+  </si>
+  <si>
+    <t>전기철도산업기사</t>
+  </si>
+  <si>
+    <t>전기철도구조물공학</t>
+  </si>
+  <si>
+    <t>전자계산기기사</t>
+  </si>
+  <si>
+    <t>논리회로</t>
+  </si>
+  <si>
+    <t>데이터통신</t>
+  </si>
+  <si>
+    <t>마이크로전자계산기</t>
+  </si>
+  <si>
+    <t>시스템 프로그래밍</t>
+  </si>
+  <si>
+    <t>전자계산기구조</t>
+  </si>
+  <si>
+    <t>전자계산기제어산업기사</t>
+  </si>
+  <si>
+    <t>디지털공학</t>
+  </si>
+  <si>
+    <t>마이크로프로세서</t>
+  </si>
+  <si>
+    <t>전자회로</t>
+  </si>
+  <si>
+    <t>프로그래밍언어</t>
+  </si>
+  <si>
+    <t>전자계산기조직응용기사</t>
+  </si>
+  <si>
+    <t>마이크로 전자계산기</t>
+  </si>
+  <si>
+    <t>운영체제</t>
+  </si>
+  <si>
+    <t>자료구조 및 데이터통신</t>
+  </si>
+  <si>
+    <t>전자계산기 프로그래밍</t>
+  </si>
+  <si>
+    <t>전자기사</t>
+  </si>
+  <si>
+    <t>물리전자공학</t>
+  </si>
+  <si>
+    <t>전자계산기일반</t>
+  </si>
+  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>certId</t>
-  </si>
-  <si>
-    <t>certName</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>7과목</t>
-  </si>
-  <si>
-    <t>8과목</t>
-  </si>
-  <si>
-    <t>9과목</t>
-  </si>
-  <si>
-    <t>기구학 및 CAD</t>
-  </si>
-  <si>
-    <t>도시계획기사</t>
-  </si>
-  <si>
-    <t>국토 및 지역계획</t>
-  </si>
-  <si>
-    <t>도시개발론</t>
-  </si>
-  <si>
-    <t>도시계획관계법규</t>
-  </si>
-  <si>
-    <t>도시계획론</t>
-  </si>
-  <si>
-    <t>도시설계 및 단지계획</t>
-  </si>
-  <si>
-    <t>무선설비기사</t>
-  </si>
-  <si>
-    <t>디지털 전자회로</t>
-  </si>
-  <si>
-    <t>무선통신 기기</t>
-  </si>
-  <si>
-    <t>무선통신 시스템</t>
-  </si>
-  <si>
-    <t>안테나 공학</t>
-  </si>
-  <si>
-    <t>전자계산기 일반 및 무선설비기준</t>
-  </si>
-  <si>
-    <t>무선설비산업기사</t>
-  </si>
-  <si>
-    <t>안테나 개론</t>
-  </si>
-  <si>
-    <t>바이오화학제품제조기사</t>
-  </si>
-  <si>
-    <t>미생물공학</t>
-  </si>
-  <si>
-    <t>배양공학</t>
-  </si>
-  <si>
-    <t>생물공학개론</t>
-  </si>
-  <si>
-    <t>생물반응공학</t>
-  </si>
-  <si>
-    <t>생물분리공학</t>
-  </si>
-  <si>
-    <t>방사선비파괴검사기사</t>
-  </si>
-  <si>
-    <t>방사선투과검사 규격</t>
-  </si>
-  <si>
-    <t>방사선투과검사 시험</t>
-  </si>
-  <si>
-    <t>방사선투과검사 원리</t>
-  </si>
-  <si>
-    <t>방송통신기사</t>
-  </si>
-  <si>
-    <t>방송미디어 공학</t>
-  </si>
-  <si>
-    <t>방송미디어공학</t>
-  </si>
-  <si>
-    <t>방송통신 기기</t>
-  </si>
-  <si>
-    <t>방송통신 시스템</t>
-  </si>
-  <si>
-    <t>방송통신기기</t>
-  </si>
-  <si>
-    <t>방송통신시스템</t>
-  </si>
-  <si>
-    <t>방송통신일반</t>
-  </si>
-  <si>
-    <t>전자계산기 일반 및 방송설비기준</t>
-  </si>
-  <si>
-    <t>10과목</t>
-  </si>
-  <si>
-    <t>컴퓨터일반 및 방송설비기준</t>
-  </si>
-  <si>
-    <t>방송통신산업기사</t>
-  </si>
-  <si>
-    <t>방송미디어 개론</t>
-  </si>
-  <si>
-    <t>방수산업기사</t>
-  </si>
-  <si>
-    <t>방수시공</t>
-  </si>
-  <si>
-    <t>방수유지관리</t>
-  </si>
-  <si>
-    <t>방수일반</t>
-  </si>
-  <si>
-    <t>방수재료</t>
-  </si>
-  <si>
-    <t>방재기사</t>
-  </si>
-  <si>
-    <t>방재사업</t>
-  </si>
-  <si>
-    <t>방재시설</t>
-  </si>
-  <si>
-    <t>재난관리</t>
-  </si>
-  <si>
-    <t>재해대책</t>
-  </si>
-  <si>
-    <t>재해분석</t>
-  </si>
-  <si>
-    <t>사무자동화산업기사</t>
-  </si>
-  <si>
-    <t>사무경영관리 개론</t>
-  </si>
-  <si>
-    <t>사무자동화 시스템</t>
-  </si>
-  <si>
-    <t>정보통신 개론</t>
-  </si>
-  <si>
-    <t>프로그래밍 일반</t>
-  </si>
-  <si>
-    <t>산림기사</t>
-  </si>
-  <si>
-    <t>사방공학</t>
-  </si>
-  <si>
-    <t>산림보호학</t>
-  </si>
-  <si>
-    <t>임도공학</t>
-  </si>
-  <si>
-    <t>임업경영학</t>
-  </si>
-  <si>
-    <t>조림학</t>
-  </si>
-  <si>
-    <t>산림산업기사</t>
-  </si>
-  <si>
-    <t>산림공학</t>
-  </si>
-  <si>
-    <t>산업안전기사</t>
-  </si>
-  <si>
-    <t>기계위험방지기술</t>
-  </si>
-  <si>
-    <t>안전관리론</t>
-  </si>
-  <si>
-    <t>전기위험방지기술</t>
-  </si>
-  <si>
-    <t>화학설비위험방지기술</t>
-  </si>
-  <si>
-    <t>산업안전산업기사</t>
-  </si>
-  <si>
-    <t>전기 및 화학설비위험방지기술</t>
-  </si>
-  <si>
-    <t>산업위생관리기사</t>
-  </si>
-  <si>
-    <t>물리적유해인자관리</t>
-  </si>
-  <si>
-    <t>산업독성학</t>
-  </si>
-  <si>
-    <t>산업위생학개론</t>
-  </si>
-  <si>
-    <t>작업위생측정 및 평가</t>
-  </si>
-  <si>
-    <t>작업환경관리대책</t>
-  </si>
-  <si>
-    <t>산업위생관리산업기사</t>
-  </si>
-  <si>
-    <t>산업위생학 개론</t>
-  </si>
-  <si>
-    <t>산업환기</t>
-  </si>
-  <si>
-    <t>작업환경관리</t>
-  </si>
-  <si>
-    <t>작업환경측정 및 평가</t>
-  </si>
-  <si>
-    <t>생물분류기사</t>
-  </si>
-  <si>
-    <t>계통분류학</t>
-  </si>
-  <si>
-    <t>보존 및 자원생물학</t>
-  </si>
-  <si>
-    <t>자연환경관계법규</t>
-  </si>
-  <si>
-    <t>형태학</t>
-  </si>
-  <si>
-    <t>환경생태학</t>
-  </si>
-  <si>
-    <t>생산자동화산업기사</t>
-  </si>
-  <si>
-    <t>기계제도 및 기초공학</t>
-  </si>
-  <si>
-    <t>메카트로닉스</t>
-  </si>
-  <si>
-    <t>자동제어</t>
-  </si>
-  <si>
-    <t>설비보전기사</t>
-  </si>
-  <si>
-    <t>공유압 및 자동화</t>
-  </si>
-  <si>
-    <t>기계일반 및 기계보전</t>
-  </si>
-  <si>
-    <t>설비 진단 및 계측</t>
-  </si>
-  <si>
-    <t>설비관리</t>
-  </si>
-  <si>
-    <t>설비진단 및 계측</t>
-  </si>
-  <si>
-    <t>윤활관리</t>
-  </si>
-  <si>
-    <t>설비보전산업기사</t>
-  </si>
-  <si>
-    <t>공업계측 및 전기전자제어</t>
-  </si>
-  <si>
-    <t>공유압 및 자동화시스템</t>
-  </si>
-  <si>
-    <t>기계정비 일반</t>
-  </si>
-  <si>
-    <t>설비진단관리 및 기계정비</t>
-  </si>
-  <si>
-    <t>소방설비기사</t>
-  </si>
-  <si>
-    <t>소방관계법규</t>
-  </si>
-  <si>
-    <t>소방기계시설의 구조 및 원리</t>
-  </si>
-  <si>
-    <t>소방원론</t>
-  </si>
-  <si>
-    <t>소방유체역학</t>
-  </si>
-  <si>
-    <t>소방설비산업기사</t>
-  </si>
-  <si>
-    <t>소음진동기사</t>
-  </si>
-  <si>
-    <t>소음 측정 및 분석</t>
-  </si>
-  <si>
-    <t>소음방지기술</t>
-  </si>
-  <si>
-    <t>소음진동 공정시험 기준</t>
-  </si>
-  <si>
-    <t>소음진동 관계 법규</t>
-  </si>
-  <si>
-    <t>소음진동 평가 및 대책</t>
-  </si>
-  <si>
-    <t>소음진동개론</t>
-  </si>
-  <si>
-    <t>소음진동계획</t>
-  </si>
-  <si>
-    <t>진동 측정 및 분석</t>
-  </si>
-  <si>
-    <t>진동방지기술</t>
-  </si>
-  <si>
-    <t>소음진동산업기사</t>
-  </si>
-  <si>
-    <t>소음진동방지기술</t>
-  </si>
-  <si>
-    <t>수산양식기사</t>
-  </si>
-  <si>
-    <t>무척추동물양식학</t>
-  </si>
-  <si>
-    <t>수산질병학</t>
-  </si>
-  <si>
-    <t>양식장환경</t>
-  </si>
-  <si>
-    <t>어류양식학</t>
-  </si>
-  <si>
-    <t>해조류양식학</t>
-  </si>
-  <si>
-    <t>수질환경기사</t>
-  </si>
-  <si>
-    <t>상하수도계획</t>
-  </si>
-  <si>
-    <t>수질오염개론</t>
-  </si>
-  <si>
-    <t>수질오염공정시험기준</t>
-  </si>
-  <si>
-    <t>수질오염방지기술</t>
-  </si>
-  <si>
-    <t>수질환경관계법규</t>
-  </si>
-  <si>
-    <t>수질환경산업기사</t>
-  </si>
-  <si>
-    <t>수질오염공정시험방법</t>
-  </si>
-  <si>
-    <t>승강기기사</t>
-  </si>
-  <si>
-    <t>승강기 개론</t>
-  </si>
-  <si>
-    <t>승강기 설계</t>
-  </si>
-  <si>
-    <t>승강기산업기사</t>
-  </si>
-  <si>
-    <t>승강기개론</t>
-  </si>
-  <si>
-    <t>승강기설계</t>
-  </si>
-  <si>
-    <t>시각디자인기사</t>
-  </si>
-  <si>
-    <t>광고학</t>
-  </si>
-  <si>
-    <t>사진 및 인쇄제판론</t>
-  </si>
-  <si>
-    <t>색채학</t>
-  </si>
-  <si>
-    <t>시각디자인론</t>
-  </si>
-  <si>
-    <t>조형심리학</t>
-  </si>
-  <si>
-    <t>시각디자인산업기사</t>
-  </si>
-  <si>
-    <t>시각디자인실무 이론</t>
-  </si>
-  <si>
-    <t>인쇄 및 사진기법</t>
-  </si>
-  <si>
-    <t>시설원예기사</t>
-  </si>
-  <si>
-    <t>수경재배학</t>
-  </si>
-  <si>
-    <t>시설원예학</t>
-  </si>
-  <si>
-    <t>원예학개론</t>
-  </si>
-  <si>
-    <t>작물생리학</t>
-  </si>
-  <si>
-    <t>재배학원론</t>
-  </si>
-  <si>
-    <t>식물보호기사</t>
-  </si>
-  <si>
-    <t>농림해충학</t>
-  </si>
-  <si>
-    <t>농약학</t>
-  </si>
-  <si>
-    <t>식물병리학</t>
-  </si>
-  <si>
-    <t>잡초방제학</t>
-  </si>
-  <si>
-    <t>식물보호산업기사</t>
-  </si>
-  <si>
-    <t>식육가공기사</t>
-  </si>
-  <si>
-    <t>식육가공학</t>
-  </si>
-  <si>
-    <t>식육과학</t>
-  </si>
-  <si>
-    <t>식품위생학</t>
-  </si>
-  <si>
-    <t>제품저장 및 유통학</t>
-  </si>
-  <si>
-    <t>축산식품 관련 규정</t>
-  </si>
-  <si>
-    <t>식품산업기사</t>
-  </si>
-  <si>
-    <t>식품가공학</t>
-  </si>
-  <si>
-    <t>식품미생물학</t>
-  </si>
-  <si>
-    <t>식품제조공정</t>
-  </si>
-  <si>
-    <t>식품화학</t>
-  </si>
-  <si>
-    <t>식품안전기사</t>
-  </si>
-  <si>
-    <t>생화학 및 발효학</t>
-  </si>
-  <si>
-    <t>신재생에너지발전설비기사</t>
-  </si>
-  <si>
-    <t>태양광발전 기획</t>
-  </si>
-  <si>
-    <t>태양광발전 설계</t>
-  </si>
-  <si>
-    <t>태양광발전 시공</t>
-  </si>
-  <si>
-    <t>태양광발전 운영</t>
-  </si>
-  <si>
-    <t>신재생에너지발전설비산업기사</t>
-  </si>
-  <si>
-    <t>신재생 에너지 관련 법규</t>
-  </si>
-  <si>
-    <t>태양광 발전 시스템 시공</t>
-  </si>
-  <si>
-    <t>태양광 발전 시스템 운영</t>
-  </si>
-  <si>
-    <t>태양광 발전 시스템 이론</t>
-  </si>
-  <si>
-    <t>실내건축기사</t>
-  </si>
-  <si>
-    <t>건축재료</t>
-  </si>
-  <si>
-    <t>건축환경</t>
-  </si>
-  <si>
-    <t>실내디자인 색채 및 사용자 행태분석</t>
-  </si>
-  <si>
-    <t>실내디자인 시공 및 재료</t>
-  </si>
-  <si>
-    <t>실내디자인계획</t>
-  </si>
-  <si>
-    <t>실내디자인론</t>
-  </si>
-  <si>
-    <t>실내디자인환경</t>
-  </si>
-  <si>
-    <t>인간공학</t>
-  </si>
-  <si>
-    <t>실내건축산업기사</t>
-  </si>
-  <si>
-    <t>색채 및 인간공학</t>
-  </si>
-  <si>
-    <t>에너지관리기사</t>
-  </si>
-  <si>
-    <t>계측방법</t>
-  </si>
-  <si>
-    <t>열설비설계</t>
-  </si>
-  <si>
-    <t>열설비재료 및 관계법규</t>
-  </si>
-  <si>
-    <t>열역학</t>
-  </si>
-  <si>
-    <t>에너지관리산업기사</t>
-  </si>
-  <si>
-    <t>계측 및 에너지진단</t>
-  </si>
-  <si>
-    <t>열설비구조 및 시공</t>
-  </si>
-  <si>
-    <t>열설비취급 및 안전관리</t>
-  </si>
-  <si>
-    <t>열역학 및 연소관리</t>
-  </si>
-  <si>
-    <t>온실가스관리기사</t>
-  </si>
-  <si>
-    <t>기후변화개론</t>
-  </si>
-  <si>
-    <t>온실가스 감축관리</t>
-  </si>
-  <si>
-    <t>온실가스 배출의 이해</t>
-  </si>
-  <si>
-    <t>온실가스 산정과 데이터 품질관리</t>
-  </si>
-  <si>
-    <t>온실가스관련 법규</t>
-  </si>
-  <si>
-    <t>와전류비파괴검사기사</t>
-  </si>
-  <si>
-    <t>와전류탐상검사 규격</t>
-  </si>
-  <si>
-    <t>와전류탐상검사 시험</t>
-  </si>
-  <si>
-    <t>와전류탐상검사 원리</t>
-  </si>
-  <si>
-    <t>용접기사</t>
-  </si>
-  <si>
-    <t>용접구조설계</t>
-  </si>
-  <si>
-    <t>용접야금</t>
-  </si>
-  <si>
-    <t>용접일반 및 안전관리</t>
-  </si>
-  <si>
-    <t>용접산업기사</t>
-  </si>
-  <si>
-    <t>용접야금 및 용접설비제도</t>
-  </si>
-  <si>
-    <t>원자력기사</t>
-  </si>
-  <si>
-    <t>발전로계통공학</t>
-  </si>
-  <si>
-    <t>방사선이용 및 보건물리</t>
-  </si>
-  <si>
-    <t>원자력기초</t>
-  </si>
-  <si>
-    <t>원자로 안전과 운전</t>
-  </si>
-  <si>
-    <t>핵재료공학 및 핵연료관리</t>
-  </si>
-  <si>
-    <t>위험물산업기사</t>
-  </si>
-  <si>
-    <t>위험물의 성질과 취급</t>
-  </si>
-  <si>
-    <t>일반화학</t>
-  </si>
-  <si>
-    <t>화재예방과 소화방법</t>
-  </si>
-  <si>
-    <t>유기농업기사</t>
-  </si>
-  <si>
-    <t>유기농업개론</t>
-  </si>
-  <si>
-    <t>유기농업관련 규정</t>
-  </si>
-  <si>
-    <t>유기식품 가공.유통론</t>
-  </si>
-  <si>
-    <t>재배원론</t>
-  </si>
-  <si>
-    <t>토양비옥도 및 관리</t>
-  </si>
-  <si>
-    <t>의공기사</t>
-  </si>
-  <si>
-    <t>기초의학 및 의공학</t>
-  </si>
-  <si>
-    <t>의료기기</t>
-  </si>
-  <si>
-    <t>의료안전·법규 및 정보</t>
-  </si>
-  <si>
-    <t>의용기계공학</t>
-  </si>
-  <si>
-    <t>의용전자공학</t>
-  </si>
-  <si>
-    <t>인간공학기사</t>
-  </si>
-  <si>
-    <t>근골격계질환 예방을 위한 작업관리</t>
-  </si>
-  <si>
-    <t>산업심리학 및 관계법규</t>
-  </si>
-  <si>
-    <t>인간공학개론</t>
-  </si>
-  <si>
-    <t>작업생리학</t>
-  </si>
-  <si>
-    <t>인쇄설계기사</t>
-  </si>
-  <si>
-    <t>인쇄공학</t>
-  </si>
-  <si>
-    <t>인쇄색채학</t>
-  </si>
-  <si>
-    <t>인쇄작업론 및 품질관리</t>
-  </si>
-  <si>
-    <t>인쇄재료학</t>
-  </si>
-  <si>
-    <t>특수인쇄학</t>
-  </si>
-  <si>
-    <t>일반기계기사</t>
-  </si>
-  <si>
-    <t>기계재료 및 유압기기</t>
-  </si>
-  <si>
-    <t>기계제작법 및 기계동력학</t>
-  </si>
-  <si>
-    <t>임업종묘기사</t>
-  </si>
-  <si>
-    <t>임목육종학</t>
-  </si>
-  <si>
-    <t>토양학 및 비료학</t>
-  </si>
-  <si>
-    <t>자기비파괴검사기사</t>
-  </si>
-  <si>
-    <t>자기탐상검사 규격</t>
-  </si>
-  <si>
-    <t>자기탐상검사 시험</t>
-  </si>
-  <si>
-    <t>자기탐상검사 원리</t>
-  </si>
-  <si>
-    <t>자동차정비기사</t>
-  </si>
-  <si>
-    <t>자동차기관</t>
-  </si>
-  <si>
-    <t>자동차새시</t>
-  </si>
-  <si>
-    <t>자동차전기</t>
-  </si>
-  <si>
-    <t>자동차정비산업기사</t>
-  </si>
-  <si>
-    <t>자동차섀시</t>
-  </si>
-  <si>
-    <t>자동차엔진</t>
-  </si>
-  <si>
-    <t>자연생태복원기사</t>
-  </si>
-  <si>
-    <t>경관생태학</t>
-  </si>
-  <si>
-    <t>생태복원 사후관리·평가</t>
-  </si>
-  <si>
-    <t>생태복원계획</t>
-  </si>
-  <si>
-    <t>생태복원공학</t>
-  </si>
-  <si>
-    <t>생태복원설계·시공</t>
-  </si>
-  <si>
-    <t>생태환경조사분석</t>
-  </si>
-  <si>
-    <t>환경계획학</t>
-  </si>
-  <si>
-    <t>환경생태학개론</t>
-  </si>
-  <si>
-    <t>자연생태복원산업기사</t>
-  </si>
-  <si>
-    <t>생태조사방법론</t>
-  </si>
-  <si>
-    <t>환경학개론</t>
-  </si>
-  <si>
-    <t>전기공사기사</t>
-  </si>
-  <si>
-    <t>전기기기</t>
-  </si>
-  <si>
-    <t>전기설비기술기준 및 판단기준</t>
-  </si>
-  <si>
-    <t>전기응용 및 공사재료</t>
-  </si>
-  <si>
-    <t>전력공학</t>
-  </si>
-  <si>
-    <t>회로이론 및 제어공학</t>
-  </si>
-  <si>
-    <t>전기공사산업기사</t>
-  </si>
-  <si>
-    <t>전기설비</t>
-  </si>
-  <si>
-    <t>전기응용</t>
-  </si>
-  <si>
-    <t>회로이론</t>
-  </si>
-  <si>
-    <t>전기기사</t>
-  </si>
-  <si>
-    <t>전기자기학</t>
-  </si>
-  <si>
-    <t>전기산업기사</t>
-  </si>
-  <si>
-    <t>전기설비기술기준 및 판단 기준</t>
-  </si>
-  <si>
-    <t>전기철도기사</t>
-  </si>
-  <si>
-    <t>전기철도 구조물공학</t>
-  </si>
-  <si>
-    <t>전기철도공학</t>
-  </si>
-  <si>
-    <t>전기철도산업기사</t>
-  </si>
-  <si>
-    <t>전기철도구조물공학</t>
-  </si>
-  <si>
-    <t>전자계산기기사</t>
-  </si>
-  <si>
-    <t>논리회로</t>
-  </si>
-  <si>
-    <t>데이터통신</t>
-  </si>
-  <si>
-    <t>마이크로전자계산기</t>
-  </si>
-  <si>
-    <t>시스템 프로그래밍</t>
-  </si>
-  <si>
-    <t>전자계산기구조</t>
-  </si>
-  <si>
-    <t>전자계산기제어산업기사</t>
-  </si>
-  <si>
-    <t>디지털공학</t>
-  </si>
-  <si>
-    <t>마이크로프로세서</t>
-  </si>
-  <si>
-    <t>전자회로</t>
-  </si>
-  <si>
-    <t>프로그래밍언어</t>
-  </si>
-  <si>
-    <t>전자계산기조직응용기사</t>
-  </si>
-  <si>
-    <t>마이크로 전자계산기</t>
-  </si>
-  <si>
-    <t>운영체제</t>
-  </si>
-  <si>
-    <t>자료구조 및 데이터통신</t>
-  </si>
-  <si>
-    <t>전자계산기 프로그래밍</t>
-  </si>
-  <si>
-    <t>전자기사</t>
-  </si>
-  <si>
-    <t>물리전자공학</t>
-  </si>
-  <si>
-    <t>전자계산기일반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1742,9 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E461"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1753,19 +1752,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2700,7 +2699,7 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
         <v>75</v>
@@ -2714,7 +2713,7 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E69" t="s">
         <v>78</v>
@@ -2728,7 +2727,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E70" t="s">
         <v>73</v>
@@ -3039,7 +3038,7 @@
         <v>28</v>
       </c>
       <c r="E92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -3495,13 +3494,13 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" t="s">
         <v>129</v>
-      </c>
-      <c r="D125" t="s">
-        <v>26</v>
-      </c>
-      <c r="E125" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -3509,13 +3508,13 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D126" t="s">
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3523,13 +3522,13 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D127" t="s">
         <v>28</v>
       </c>
       <c r="E127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3537,13 +3536,13 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
       </c>
       <c r="E128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3551,13 +3550,13 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D129" t="s">
         <v>30</v>
       </c>
       <c r="E129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3565,13 +3564,13 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" t="s">
         <v>135</v>
-      </c>
-      <c r="D130" t="s">
-        <v>26</v>
-      </c>
-      <c r="E130" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3579,13 +3578,13 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D131" t="s">
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3593,13 +3592,13 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D132" t="s">
         <v>28</v>
       </c>
       <c r="E132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3607,13 +3606,13 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3621,13 +3620,13 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D134" t="s">
         <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -3635,13 +3634,13 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D135" t="s">
         <v>26</v>
       </c>
       <c r="E135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3649,13 +3648,13 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D136" t="s">
         <v>27</v>
       </c>
       <c r="E136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -3663,13 +3662,13 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" t="s">
         <v>141</v>
-      </c>
-      <c r="D137" t="s">
-        <v>28</v>
-      </c>
-      <c r="E137" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -3677,13 +3676,13 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D138" t="s">
         <v>29</v>
       </c>
       <c r="E138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -3691,13 +3690,13 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" t="s">
         <v>143</v>
-      </c>
-      <c r="D139" t="s">
-        <v>26</v>
-      </c>
-      <c r="E139" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -3705,13 +3704,13 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D140" t="s">
         <v>27</v>
       </c>
       <c r="E140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -3719,13 +3718,13 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D141" t="s">
         <v>28</v>
       </c>
       <c r="E141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -3733,13 +3732,13 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D142" t="s">
         <v>29</v>
       </c>
       <c r="E142" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -3747,13 +3746,13 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D143" t="s">
         <v>30</v>
       </c>
       <c r="E143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -3761,13 +3760,13 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
+        <v>148</v>
+      </c>
+      <c r="D144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" t="s">
         <v>149</v>
-      </c>
-      <c r="D144" t="s">
-        <v>26</v>
-      </c>
-      <c r="E144" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -3775,13 +3774,13 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D145" t="s">
         <v>27</v>
       </c>
       <c r="E145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -3789,13 +3788,13 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D146" t="s">
         <v>28</v>
       </c>
       <c r="E146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -3803,7 +3802,7 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D147" t="s">
         <v>29</v>
@@ -3817,13 +3816,13 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D148" t="s">
         <v>26</v>
       </c>
       <c r="E148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -3831,13 +3830,13 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" t="s">
         <v>153</v>
-      </c>
-      <c r="D149" t="s">
-        <v>27</v>
-      </c>
-      <c r="E149" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3845,13 +3844,13 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="E150" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -3859,13 +3858,13 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D151" t="s">
         <v>29</v>
       </c>
       <c r="E151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -3873,13 +3872,13 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D152" t="s">
         <v>30</v>
       </c>
       <c r="E152" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -3887,13 +3886,13 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D153" t="s">
         <v>31</v>
       </c>
       <c r="E153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3901,13 +3900,13 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D154" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3915,13 +3914,13 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D155" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E155" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -3929,13 +3928,13 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D156" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -3943,13 +3942,13 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D157" t="s">
+        <v>161</v>
+      </c>
+      <c r="E157" t="s">
         <v>162</v>
-      </c>
-      <c r="E157" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3957,13 +3956,13 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D158" t="s">
         <v>26</v>
       </c>
       <c r="E158" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3971,13 +3970,13 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
+        <v>163</v>
+      </c>
+      <c r="D159" t="s">
+        <v>27</v>
+      </c>
+      <c r="E159" t="s">
         <v>164</v>
-      </c>
-      <c r="D159" t="s">
-        <v>27</v>
-      </c>
-      <c r="E159" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3985,13 +3984,13 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D160" t="s">
         <v>28</v>
       </c>
       <c r="E160" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3999,13 +3998,13 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D161" t="s">
         <v>29</v>
       </c>
       <c r="E161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -4013,13 +4012,13 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D162" t="s">
         <v>30</v>
       </c>
       <c r="E162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -4027,13 +4026,13 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D163" t="s">
         <v>31</v>
       </c>
       <c r="E163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -4041,13 +4040,13 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
+        <v>165</v>
+      </c>
+      <c r="D164" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" t="s">
         <v>166</v>
-      </c>
-      <c r="D164" t="s">
-        <v>26</v>
-      </c>
-      <c r="E164" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -4055,13 +4054,13 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D165" t="s">
         <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -4069,13 +4068,13 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D166" t="s">
         <v>28</v>
       </c>
       <c r="E166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -4083,13 +4082,13 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D167" t="s">
         <v>29</v>
       </c>
       <c r="E167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -4097,13 +4096,13 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168" t="s">
+        <v>26</v>
+      </c>
+      <c r="E168" t="s">
         <v>171</v>
-      </c>
-      <c r="D168" t="s">
-        <v>26</v>
-      </c>
-      <c r="E168" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -4111,13 +4110,13 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D169" t="s">
         <v>27</v>
       </c>
       <c r="E169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -4125,13 +4124,13 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D170" t="s">
         <v>28</v>
       </c>
       <c r="E170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -4139,13 +4138,13 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D171" t="s">
         <v>29</v>
       </c>
       <c r="E171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -4153,13 +4152,13 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D172" t="s">
         <v>30</v>
       </c>
       <c r="E172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -4167,13 +4166,13 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
+        <v>176</v>
+      </c>
+      <c r="D173" t="s">
+        <v>26</v>
+      </c>
+      <c r="E173" t="s">
         <v>177</v>
-      </c>
-      <c r="D173" t="s">
-        <v>26</v>
-      </c>
-      <c r="E173" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -4181,13 +4180,13 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D174" t="s">
         <v>27</v>
       </c>
       <c r="E174" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -4195,13 +4194,13 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D175" t="s">
         <v>28</v>
       </c>
       <c r="E175" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -4209,13 +4208,13 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D176" t="s">
         <v>29</v>
       </c>
       <c r="E176" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -4223,13 +4222,13 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
+        <v>181</v>
+      </c>
+      <c r="D177" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177" t="s">
         <v>182</v>
-      </c>
-      <c r="D177" t="s">
-        <v>26</v>
-      </c>
-      <c r="E177" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -4237,13 +4236,13 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D178" t="s">
         <v>27</v>
       </c>
       <c r="E178" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -4251,13 +4250,13 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D179" t="s">
         <v>28</v>
       </c>
       <c r="E179" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -4265,13 +4264,13 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D180" t="s">
         <v>29</v>
       </c>
       <c r="E180" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -4279,13 +4278,13 @@
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D181" t="s">
         <v>30</v>
       </c>
       <c r="E181" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -4293,13 +4292,13 @@
         <v>181</v>
       </c>
       <c r="C182" t="s">
+        <v>187</v>
+      </c>
+      <c r="D182" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" t="s">
         <v>188</v>
-      </c>
-      <c r="D182" t="s">
-        <v>26</v>
-      </c>
-      <c r="E182" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -4307,13 +4306,13 @@
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D183" t="s">
         <v>27</v>
       </c>
       <c r="E183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -4321,13 +4320,13 @@
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D184" t="s">
         <v>28</v>
       </c>
       <c r="E184" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -4335,13 +4334,13 @@
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
       </c>
       <c r="E185" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -4349,7 +4348,7 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D186" t="s">
         <v>26</v>
@@ -4363,13 +4362,13 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
+        <v>189</v>
+      </c>
+      <c r="D187" t="s">
+        <v>27</v>
+      </c>
+      <c r="E187" t="s">
         <v>190</v>
-      </c>
-      <c r="D187" t="s">
-        <v>27</v>
-      </c>
-      <c r="E187" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -4377,13 +4376,13 @@
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D188" t="s">
         <v>28</v>
       </c>
       <c r="E188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -4391,7 +4390,7 @@
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D189" t="s">
         <v>29</v>
@@ -4405,13 +4404,13 @@
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D190" t="s">
         <v>30</v>
       </c>
       <c r="E190" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -4419,13 +4418,13 @@
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D191" t="s">
         <v>31</v>
       </c>
       <c r="E191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -4433,7 +4432,7 @@
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D192" t="s">
         <v>26</v>
@@ -4447,13 +4446,13 @@
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D193" t="s">
         <v>27</v>
       </c>
       <c r="E193" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -4461,7 +4460,7 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D194" t="s">
         <v>28</v>
@@ -4475,7 +4474,7 @@
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D195" t="s">
         <v>29</v>
@@ -4489,13 +4488,13 @@
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D196" t="s">
         <v>30</v>
       </c>
       <c r="E196" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -4503,13 +4502,13 @@
         <v>196</v>
       </c>
       <c r="C197" t="s">
+        <v>196</v>
+      </c>
+      <c r="D197" t="s">
+        <v>26</v>
+      </c>
+      <c r="E197" t="s">
         <v>197</v>
-      </c>
-      <c r="D197" t="s">
-        <v>26</v>
-      </c>
-      <c r="E197" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -4517,13 +4516,13 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D198" t="s">
         <v>27</v>
       </c>
       <c r="E198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -4531,13 +4530,13 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D199" t="s">
         <v>28</v>
       </c>
       <c r="E199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -4545,13 +4544,13 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D200" t="s">
         <v>29</v>
       </c>
       <c r="E200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -4559,13 +4558,13 @@
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D201" t="s">
         <v>30</v>
       </c>
       <c r="E201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -4573,13 +4572,13 @@
         <v>201</v>
       </c>
       <c r="C202" t="s">
+        <v>202</v>
+      </c>
+      <c r="D202" t="s">
+        <v>26</v>
+      </c>
+      <c r="E202" t="s">
         <v>203</v>
-      </c>
-      <c r="D202" t="s">
-        <v>26</v>
-      </c>
-      <c r="E202" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -4587,13 +4586,13 @@
         <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D203" t="s">
         <v>27</v>
       </c>
       <c r="E203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -4601,13 +4600,13 @@
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D204" t="s">
         <v>28</v>
       </c>
       <c r="E204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -4615,13 +4614,13 @@
         <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D205" t="s">
         <v>29</v>
       </c>
       <c r="E205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -4629,13 +4628,13 @@
         <v>205</v>
       </c>
       <c r="C206" t="s">
+        <v>207</v>
+      </c>
+      <c r="D206" t="s">
+        <v>26</v>
+      </c>
+      <c r="E206" t="s">
         <v>208</v>
-      </c>
-      <c r="D206" t="s">
-        <v>26</v>
-      </c>
-      <c r="E206" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -4643,13 +4642,13 @@
         <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D207" t="s">
         <v>27</v>
       </c>
       <c r="E207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -4657,13 +4656,13 @@
         <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D208" t="s">
         <v>28</v>
       </c>
       <c r="E208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -4671,13 +4670,13 @@
         <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D209" t="s">
         <v>29</v>
       </c>
       <c r="E209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -4685,13 +4684,13 @@
         <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D210" t="s">
         <v>30</v>
       </c>
       <c r="E210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -4699,7 +4698,7 @@
         <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D211" t="s">
         <v>26</v>
@@ -4713,13 +4712,13 @@
         <v>211</v>
       </c>
       <c r="C212" t="s">
+        <v>213</v>
+      </c>
+      <c r="D212" t="s">
+        <v>27</v>
+      </c>
+      <c r="E212" t="s">
         <v>214</v>
-      </c>
-      <c r="D212" t="s">
-        <v>27</v>
-      </c>
-      <c r="E212" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -4727,13 +4726,13 @@
         <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D213" t="s">
         <v>28</v>
       </c>
       <c r="E213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -4741,13 +4740,13 @@
         <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D214" t="s">
         <v>29</v>
       </c>
       <c r="E214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -4755,13 +4754,13 @@
         <v>214</v>
       </c>
       <c r="C215" t="s">
+        <v>217</v>
+      </c>
+      <c r="D215" t="s">
+        <v>26</v>
+      </c>
+      <c r="E215" t="s">
         <v>218</v>
-      </c>
-      <c r="D215" t="s">
-        <v>26</v>
-      </c>
-      <c r="E215" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -4769,13 +4768,13 @@
         <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D216" t="s">
         <v>27</v>
       </c>
       <c r="E216" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -4783,13 +4782,13 @@
         <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D217" t="s">
         <v>28</v>
       </c>
       <c r="E217" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -4797,13 +4796,13 @@
         <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D218" t="s">
         <v>29</v>
       </c>
       <c r="E218" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -4811,13 +4810,13 @@
         <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D219" t="s">
         <v>30</v>
       </c>
       <c r="E219" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -4825,13 +4824,13 @@
         <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D220" t="s">
         <v>31</v>
       </c>
       <c r="E220" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -4839,13 +4838,13 @@
         <v>220</v>
       </c>
       <c r="C221" t="s">
+        <v>224</v>
+      </c>
+      <c r="D221" t="s">
+        <v>26</v>
+      </c>
+      <c r="E221" t="s">
         <v>225</v>
-      </c>
-      <c r="D221" t="s">
-        <v>26</v>
-      </c>
-      <c r="E221" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -4853,13 +4852,13 @@
         <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D222" t="s">
         <v>27</v>
       </c>
       <c r="E222" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -4867,13 +4866,13 @@
         <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D223" t="s">
         <v>28</v>
       </c>
       <c r="E223" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -4881,13 +4880,13 @@
         <v>223</v>
       </c>
       <c r="C224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D224" t="s">
         <v>29</v>
       </c>
       <c r="E224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -4895,13 +4894,13 @@
         <v>224</v>
       </c>
       <c r="C225" t="s">
+        <v>229</v>
+      </c>
+      <c r="D225" t="s">
+        <v>26</v>
+      </c>
+      <c r="E225" t="s">
         <v>230</v>
-      </c>
-      <c r="D225" t="s">
-        <v>26</v>
-      </c>
-      <c r="E225" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -4909,13 +4908,13 @@
         <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D226" t="s">
         <v>27</v>
       </c>
       <c r="E226" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -4923,13 +4922,13 @@
         <v>226</v>
       </c>
       <c r="C227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D227" t="s">
         <v>28</v>
       </c>
       <c r="E227" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -4937,13 +4936,13 @@
         <v>227</v>
       </c>
       <c r="C228" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D228" t="s">
         <v>29</v>
       </c>
       <c r="E228" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -4951,13 +4950,13 @@
         <v>228</v>
       </c>
       <c r="C229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D229" t="s">
         <v>26</v>
       </c>
       <c r="E229" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -4965,13 +4964,13 @@
         <v>229</v>
       </c>
       <c r="C230" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D230" t="s">
         <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -4979,13 +4978,13 @@
         <v>230</v>
       </c>
       <c r="C231" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D231" t="s">
         <v>28</v>
       </c>
       <c r="E231" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -4993,13 +4992,13 @@
         <v>231</v>
       </c>
       <c r="C232" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D232" t="s">
         <v>29</v>
       </c>
       <c r="E232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -5007,13 +5006,13 @@
         <v>232</v>
       </c>
       <c r="C233" t="s">
+        <v>235</v>
+      </c>
+      <c r="D233" t="s">
+        <v>26</v>
+      </c>
+      <c r="E233" t="s">
         <v>236</v>
-      </c>
-      <c r="D233" t="s">
-        <v>26</v>
-      </c>
-      <c r="E233" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -5021,13 +5020,13 @@
         <v>233</v>
       </c>
       <c r="C234" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D234" t="s">
         <v>27</v>
       </c>
       <c r="E234" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -5035,13 +5034,13 @@
         <v>234</v>
       </c>
       <c r="C235" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D235" t="s">
         <v>28</v>
       </c>
       <c r="E235" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -5049,13 +5048,13 @@
         <v>235</v>
       </c>
       <c r="C236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D236" t="s">
         <v>29</v>
       </c>
       <c r="E236" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -5063,13 +5062,13 @@
         <v>236</v>
       </c>
       <c r="C237" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D237" t="s">
         <v>30</v>
       </c>
       <c r="E237" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -5077,13 +5076,13 @@
         <v>237</v>
       </c>
       <c r="C238" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D238" t="s">
         <v>31</v>
       </c>
       <c r="E238" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -5091,13 +5090,13 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D239" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E239" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -5105,13 +5104,13 @@
         <v>239</v>
       </c>
       <c r="C240" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D240" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E240" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -5119,13 +5118,13 @@
         <v>240</v>
       </c>
       <c r="C241" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D241" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E241" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -5133,13 +5132,13 @@
         <v>241</v>
       </c>
       <c r="C242" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D242" t="s">
         <v>26</v>
       </c>
       <c r="E242" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -5147,13 +5146,13 @@
         <v>242</v>
       </c>
       <c r="C243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D243" t="s">
         <v>27</v>
       </c>
       <c r="E243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -5161,13 +5160,13 @@
         <v>243</v>
       </c>
       <c r="C244" t="s">
+        <v>245</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" t="s">
         <v>246</v>
-      </c>
-      <c r="D244" t="s">
-        <v>28</v>
-      </c>
-      <c r="E244" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -5175,13 +5174,13 @@
         <v>244</v>
       </c>
       <c r="C245" t="s">
+        <v>247</v>
+      </c>
+      <c r="D245" t="s">
+        <v>26</v>
+      </c>
+      <c r="E245" t="s">
         <v>248</v>
-      </c>
-      <c r="D245" t="s">
-        <v>26</v>
-      </c>
-      <c r="E245" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -5189,13 +5188,13 @@
         <v>245</v>
       </c>
       <c r="C246" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D246" t="s">
         <v>27</v>
       </c>
       <c r="E246" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -5203,13 +5202,13 @@
         <v>246</v>
       </c>
       <c r="C247" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D247" t="s">
         <v>28</v>
       </c>
       <c r="E247" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -5217,13 +5216,13 @@
         <v>247</v>
       </c>
       <c r="C248" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D248" t="s">
         <v>29</v>
       </c>
       <c r="E248" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -5231,13 +5230,13 @@
         <v>248</v>
       </c>
       <c r="C249" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D249" t="s">
         <v>30</v>
       </c>
       <c r="E249" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -5245,13 +5244,13 @@
         <v>249</v>
       </c>
       <c r="C250" t="s">
+        <v>253</v>
+      </c>
+      <c r="D250" t="s">
+        <v>26</v>
+      </c>
+      <c r="E250" t="s">
         <v>254</v>
-      </c>
-      <c r="D250" t="s">
-        <v>26</v>
-      </c>
-      <c r="E250" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -5259,13 +5258,13 @@
         <v>250</v>
       </c>
       <c r="C251" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D251" t="s">
         <v>27</v>
       </c>
       <c r="E251" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -5273,13 +5272,13 @@
         <v>251</v>
       </c>
       <c r="C252" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D252" t="s">
         <v>28</v>
       </c>
       <c r="E252" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -5287,13 +5286,13 @@
         <v>252</v>
       </c>
       <c r="C253" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D253" t="s">
         <v>29</v>
       </c>
       <c r="E253" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -5301,13 +5300,13 @@
         <v>253</v>
       </c>
       <c r="C254" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D254" t="s">
         <v>30</v>
       </c>
       <c r="E254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -5315,13 +5314,13 @@
         <v>254</v>
       </c>
       <c r="C255" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D255" t="s">
         <v>26</v>
       </c>
       <c r="E255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -5329,13 +5328,13 @@
         <v>255</v>
       </c>
       <c r="C256" t="s">
+        <v>259</v>
+      </c>
+      <c r="D256" t="s">
+        <v>27</v>
+      </c>
+      <c r="E256" t="s">
         <v>260</v>
-      </c>
-      <c r="D256" t="s">
-        <v>27</v>
-      </c>
-      <c r="E256" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -5343,13 +5342,13 @@
         <v>256</v>
       </c>
       <c r="C257" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D257" t="s">
         <v>28</v>
       </c>
       <c r="E257" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -5357,13 +5356,13 @@
         <v>257</v>
       </c>
       <c r="C258" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D258" t="s">
         <v>29</v>
       </c>
       <c r="E258" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -5371,13 +5370,13 @@
         <v>258</v>
       </c>
       <c r="C259" t="s">
+        <v>261</v>
+      </c>
+      <c r="D259" t="s">
+        <v>26</v>
+      </c>
+      <c r="E259" t="s">
         <v>262</v>
-      </c>
-      <c r="D259" t="s">
-        <v>26</v>
-      </c>
-      <c r="E259" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -5385,13 +5384,13 @@
         <v>259</v>
       </c>
       <c r="C260" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D260" t="s">
         <v>27</v>
       </c>
       <c r="E260" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -5399,7 +5398,7 @@
         <v>260</v>
       </c>
       <c r="C261" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D261" t="s">
         <v>28</v>
@@ -5413,7 +5412,7 @@
         <v>261</v>
       </c>
       <c r="C262" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D262" t="s">
         <v>29</v>
@@ -5427,13 +5426,13 @@
         <v>262</v>
       </c>
       <c r="C263" t="s">
+        <v>264</v>
+      </c>
+      <c r="D263" t="s">
+        <v>26</v>
+      </c>
+      <c r="E263" t="s">
         <v>265</v>
-      </c>
-      <c r="D263" t="s">
-        <v>26</v>
-      </c>
-      <c r="E263" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -5441,13 +5440,13 @@
         <v>263</v>
       </c>
       <c r="C264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D264" t="s">
         <v>27</v>
       </c>
       <c r="E264" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -5455,7 +5454,7 @@
         <v>264</v>
       </c>
       <c r="C265" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D265" t="s">
         <v>28</v>
@@ -5469,7 +5468,7 @@
         <v>265</v>
       </c>
       <c r="C266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D266" t="s">
         <v>29</v>
@@ -5483,13 +5482,13 @@
         <v>266</v>
       </c>
       <c r="C267" t="s">
+        <v>267</v>
+      </c>
+      <c r="D267" t="s">
+        <v>26</v>
+      </c>
+      <c r="E267" t="s">
         <v>268</v>
-      </c>
-      <c r="D267" t="s">
-        <v>26</v>
-      </c>
-      <c r="E267" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -5497,13 +5496,13 @@
         <v>267</v>
       </c>
       <c r="C268" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D268" t="s">
         <v>27</v>
       </c>
       <c r="E268" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -5511,13 +5510,13 @@
         <v>268</v>
       </c>
       <c r="C269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D269" t="s">
         <v>28</v>
       </c>
       <c r="E269" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -5525,13 +5524,13 @@
         <v>269</v>
       </c>
       <c r="C270" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D270" t="s">
         <v>29</v>
       </c>
       <c r="E270" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -5539,13 +5538,13 @@
         <v>270</v>
       </c>
       <c r="C271" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D271" t="s">
         <v>30</v>
       </c>
       <c r="E271" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -5553,13 +5552,13 @@
         <v>271</v>
       </c>
       <c r="C272" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D272" t="s">
         <v>26</v>
       </c>
       <c r="E272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -5567,13 +5566,13 @@
         <v>272</v>
       </c>
       <c r="C273" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D273" t="s">
         <v>27</v>
       </c>
       <c r="E273" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -5581,13 +5580,13 @@
         <v>273</v>
       </c>
       <c r="C274" t="s">
+        <v>273</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" t="s">
         <v>274</v>
-      </c>
-      <c r="D274" t="s">
-        <v>28</v>
-      </c>
-      <c r="E274" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -5595,13 +5594,13 @@
         <v>274</v>
       </c>
       <c r="C275" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D275" t="s">
         <v>29</v>
       </c>
       <c r="E275" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -5609,13 +5608,13 @@
         <v>275</v>
       </c>
       <c r="C276" t="s">
+        <v>276</v>
+      </c>
+      <c r="D276" t="s">
+        <v>26</v>
+      </c>
+      <c r="E276" t="s">
         <v>277</v>
-      </c>
-      <c r="D276" t="s">
-        <v>26</v>
-      </c>
-      <c r="E276" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -5623,13 +5622,13 @@
         <v>276</v>
       </c>
       <c r="C277" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D277" t="s">
         <v>27</v>
       </c>
       <c r="E277" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -5637,13 +5636,13 @@
         <v>277</v>
       </c>
       <c r="C278" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D278" t="s">
         <v>28</v>
       </c>
       <c r="E278" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -5651,13 +5650,13 @@
         <v>278</v>
       </c>
       <c r="C279" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D279" t="s">
         <v>29</v>
       </c>
       <c r="E279" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -5665,13 +5664,13 @@
         <v>279</v>
       </c>
       <c r="C280" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D280" t="s">
         <v>30</v>
       </c>
       <c r="E280" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -5679,13 +5678,13 @@
         <v>280</v>
       </c>
       <c r="C281" t="s">
+        <v>282</v>
+      </c>
+      <c r="D281" t="s">
+        <v>26</v>
+      </c>
+      <c r="E281" t="s">
         <v>283</v>
-      </c>
-      <c r="D281" t="s">
-        <v>26</v>
-      </c>
-      <c r="E281" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -5693,13 +5692,13 @@
         <v>281</v>
       </c>
       <c r="C282" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D282" t="s">
         <v>27</v>
       </c>
       <c r="E282" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -5707,13 +5706,13 @@
         <v>282</v>
       </c>
       <c r="C283" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D283" t="s">
         <v>28</v>
       </c>
       <c r="E283" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -5721,13 +5720,13 @@
         <v>283</v>
       </c>
       <c r="C284" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D284" t="s">
         <v>29</v>
       </c>
       <c r="E284" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -5735,13 +5734,13 @@
         <v>284</v>
       </c>
       <c r="C285" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D285" t="s">
         <v>30</v>
       </c>
       <c r="E285" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -5749,13 +5748,13 @@
         <v>285</v>
       </c>
       <c r="C286" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D286" t="s">
         <v>26</v>
       </c>
       <c r="E286" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -5763,13 +5762,13 @@
         <v>286</v>
       </c>
       <c r="C287" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D287" t="s">
         <v>27</v>
       </c>
       <c r="E287" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -5777,13 +5776,13 @@
         <v>287</v>
       </c>
       <c r="C288" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D288" t="s">
         <v>28</v>
       </c>
       <c r="E288" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -5791,13 +5790,13 @@
         <v>288</v>
       </c>
       <c r="C289" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D289" t="s">
         <v>29</v>
       </c>
       <c r="E289" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -5805,13 +5804,13 @@
         <v>289</v>
       </c>
       <c r="C290" t="s">
+        <v>288</v>
+      </c>
+      <c r="D290" t="s">
+        <v>26</v>
+      </c>
+      <c r="E290" t="s">
         <v>289</v>
-      </c>
-      <c r="D290" t="s">
-        <v>26</v>
-      </c>
-      <c r="E290" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -5819,13 +5818,13 @@
         <v>290</v>
       </c>
       <c r="C291" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D291" t="s">
         <v>27</v>
       </c>
       <c r="E291" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -5833,13 +5832,13 @@
         <v>291</v>
       </c>
       <c r="C292" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D292" t="s">
         <v>28</v>
       </c>
       <c r="E292" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -5847,13 +5846,13 @@
         <v>292</v>
       </c>
       <c r="C293" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D293" t="s">
         <v>29</v>
       </c>
       <c r="E293" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -5861,13 +5860,13 @@
         <v>293</v>
       </c>
       <c r="C294" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D294" t="s">
         <v>30</v>
       </c>
       <c r="E294" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -5875,13 +5874,13 @@
         <v>294</v>
       </c>
       <c r="C295" t="s">
+        <v>294</v>
+      </c>
+      <c r="D295" t="s">
+        <v>26</v>
+      </c>
+      <c r="E295" t="s">
         <v>295</v>
-      </c>
-      <c r="D295" t="s">
-        <v>26</v>
-      </c>
-      <c r="E295" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -5889,13 +5888,13 @@
         <v>295</v>
       </c>
       <c r="C296" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D296" t="s">
         <v>27</v>
       </c>
       <c r="E296" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -5903,13 +5902,13 @@
         <v>296</v>
       </c>
       <c r="C297" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D297" t="s">
         <v>28</v>
       </c>
       <c r="E297" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -5917,13 +5916,13 @@
         <v>297</v>
       </c>
       <c r="C298" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D298" t="s">
         <v>29</v>
       </c>
       <c r="E298" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -5931,13 +5930,13 @@
         <v>298</v>
       </c>
       <c r="C299" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D299" t="s">
         <v>30</v>
       </c>
       <c r="E299" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -5945,13 +5944,13 @@
         <v>299</v>
       </c>
       <c r="C300" t="s">
+        <v>299</v>
+      </c>
+      <c r="D300" t="s">
+        <v>26</v>
+      </c>
+      <c r="E300" t="s">
         <v>300</v>
-      </c>
-      <c r="D300" t="s">
-        <v>26</v>
-      </c>
-      <c r="E300" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -5959,13 +5958,13 @@
         <v>300</v>
       </c>
       <c r="C301" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D301" t="s">
         <v>27</v>
       </c>
       <c r="E301" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -5973,13 +5972,13 @@
         <v>301</v>
       </c>
       <c r="C302" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D302" t="s">
         <v>28</v>
       </c>
       <c r="E302" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -5987,13 +5986,13 @@
         <v>302</v>
       </c>
       <c r="C303" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D303" t="s">
         <v>29</v>
       </c>
       <c r="E303" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -6001,13 +6000,13 @@
         <v>303</v>
       </c>
       <c r="C304" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D304" t="s">
         <v>30</v>
       </c>
       <c r="E304" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -6015,13 +6014,13 @@
         <v>304</v>
       </c>
       <c r="C305" t="s">
+        <v>301</v>
+      </c>
+      <c r="D305" t="s">
+        <v>26</v>
+      </c>
+      <c r="E305" t="s">
         <v>302</v>
-      </c>
-      <c r="D305" t="s">
-        <v>26</v>
-      </c>
-      <c r="E305" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -6029,13 +6028,13 @@
         <v>305</v>
       </c>
       <c r="C306" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D306" t="s">
         <v>27</v>
       </c>
       <c r="E306" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -6043,13 +6042,13 @@
         <v>306</v>
       </c>
       <c r="C307" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D307" t="s">
         <v>28</v>
       </c>
       <c r="E307" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -6057,13 +6056,13 @@
         <v>307</v>
       </c>
       <c r="C308" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D308" t="s">
         <v>29</v>
       </c>
       <c r="E308" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -6071,13 +6070,13 @@
         <v>308</v>
       </c>
       <c r="C309" t="s">
+        <v>306</v>
+      </c>
+      <c r="D309" t="s">
+        <v>26</v>
+      </c>
+      <c r="E309" t="s">
         <v>307</v>
-      </c>
-      <c r="D309" t="s">
-        <v>26</v>
-      </c>
-      <c r="E309" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -6085,13 +6084,13 @@
         <v>309</v>
       </c>
       <c r="C310" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D310" t="s">
         <v>27</v>
       </c>
       <c r="E310" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -6099,13 +6098,13 @@
         <v>310</v>
       </c>
       <c r="C311" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D311" t="s">
         <v>28</v>
       </c>
       <c r="E311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -6113,13 +6112,13 @@
         <v>311</v>
       </c>
       <c r="C312" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D312" t="s">
         <v>29</v>
       </c>
       <c r="E312" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -6127,7 +6126,7 @@
         <v>312</v>
       </c>
       <c r="C313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D313" t="s">
         <v>26</v>
@@ -6141,13 +6140,13 @@
         <v>313</v>
       </c>
       <c r="C314" t="s">
+        <v>311</v>
+      </c>
+      <c r="D314" t="s">
+        <v>27</v>
+      </c>
+      <c r="E314" t="s">
         <v>312</v>
-      </c>
-      <c r="D314" t="s">
-        <v>27</v>
-      </c>
-      <c r="E314" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -6155,13 +6154,13 @@
         <v>314</v>
       </c>
       <c r="C315" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D315" t="s">
         <v>28</v>
       </c>
       <c r="E315" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -6169,13 +6168,13 @@
         <v>315</v>
       </c>
       <c r="C316" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D316" t="s">
         <v>29</v>
       </c>
       <c r="E316" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -6183,13 +6182,13 @@
         <v>316</v>
       </c>
       <c r="C317" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D317" t="s">
         <v>30</v>
       </c>
       <c r="E317" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -6197,13 +6196,13 @@
         <v>317</v>
       </c>
       <c r="C318" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D318" t="s">
         <v>31</v>
       </c>
       <c r="E318" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -6211,13 +6210,13 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D319" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E319" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -6225,13 +6224,13 @@
         <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D320" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E320" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -6239,13 +6238,13 @@
         <v>320</v>
       </c>
       <c r="C321" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D321" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E321" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -6253,13 +6252,13 @@
         <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D322" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E322" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -6267,7 +6266,7 @@
         <v>322</v>
       </c>
       <c r="C323" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D323" t="s">
         <v>26</v>
@@ -6281,13 +6280,13 @@
         <v>323</v>
       </c>
       <c r="C324" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D324" t="s">
         <v>27</v>
       </c>
       <c r="E324" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -6295,13 +6294,13 @@
         <v>324</v>
       </c>
       <c r="C325" t="s">
+        <v>320</v>
+      </c>
+      <c r="D325" t="s">
+        <v>28</v>
+      </c>
+      <c r="E325" t="s">
         <v>321</v>
-      </c>
-      <c r="D325" t="s">
-        <v>28</v>
-      </c>
-      <c r="E325" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -6309,13 +6308,13 @@
         <v>325</v>
       </c>
       <c r="C326" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D326" t="s">
         <v>29</v>
       </c>
       <c r="E326" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -6323,13 +6322,13 @@
         <v>326</v>
       </c>
       <c r="C327" t="s">
+        <v>322</v>
+      </c>
+      <c r="D327" t="s">
+        <v>26</v>
+      </c>
+      <c r="E327" t="s">
         <v>323</v>
-      </c>
-      <c r="D327" t="s">
-        <v>26</v>
-      </c>
-      <c r="E327" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -6337,7 +6336,7 @@
         <v>327</v>
       </c>
       <c r="C328" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D328" t="s">
         <v>27</v>
@@ -6351,13 +6350,13 @@
         <v>328</v>
       </c>
       <c r="C329" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D329" t="s">
         <v>28</v>
       </c>
       <c r="E329" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -6365,13 +6364,13 @@
         <v>329</v>
       </c>
       <c r="C330" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D330" t="s">
         <v>29</v>
       </c>
       <c r="E330" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -6379,13 +6378,13 @@
         <v>330</v>
       </c>
       <c r="C331" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D331" t="s">
         <v>30</v>
       </c>
       <c r="E331" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -6393,13 +6392,13 @@
         <v>331</v>
       </c>
       <c r="C332" t="s">
+        <v>327</v>
+      </c>
+      <c r="D332" t="s">
+        <v>26</v>
+      </c>
+      <c r="E332" t="s">
         <v>328</v>
-      </c>
-      <c r="D332" t="s">
-        <v>26</v>
-      </c>
-      <c r="E332" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -6407,13 +6406,13 @@
         <v>332</v>
       </c>
       <c r="C333" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D333" t="s">
         <v>27</v>
       </c>
       <c r="E333" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -6421,13 +6420,13 @@
         <v>333</v>
       </c>
       <c r="C334" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D334" t="s">
         <v>28</v>
       </c>
       <c r="E334" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -6435,13 +6434,13 @@
         <v>334</v>
       </c>
       <c r="C335" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D335" t="s">
         <v>29</v>
       </c>
       <c r="E335" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -6449,13 +6448,13 @@
         <v>335</v>
       </c>
       <c r="C336" t="s">
+        <v>332</v>
+      </c>
+      <c r="D336" t="s">
+        <v>26</v>
+      </c>
+      <c r="E336" t="s">
         <v>333</v>
-      </c>
-      <c r="D336" t="s">
-        <v>26</v>
-      </c>
-      <c r="E336" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -6463,13 +6462,13 @@
         <v>336</v>
       </c>
       <c r="C337" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D337" t="s">
         <v>27</v>
       </c>
       <c r="E337" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -6477,13 +6476,13 @@
         <v>337</v>
       </c>
       <c r="C338" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D338" t="s">
         <v>28</v>
       </c>
       <c r="E338" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -6491,13 +6490,13 @@
         <v>338</v>
       </c>
       <c r="C339" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D339" t="s">
         <v>29</v>
       </c>
       <c r="E339" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -6505,13 +6504,13 @@
         <v>339</v>
       </c>
       <c r="C340" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D340" t="s">
         <v>30</v>
       </c>
       <c r="E340" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -6519,7 +6518,7 @@
         <v>340</v>
       </c>
       <c r="C341" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D341" t="s">
         <v>26</v>
@@ -6533,13 +6532,13 @@
         <v>341</v>
       </c>
       <c r="C342" t="s">
+        <v>338</v>
+      </c>
+      <c r="D342" t="s">
+        <v>27</v>
+      </c>
+      <c r="E342" t="s">
         <v>339</v>
-      </c>
-      <c r="D342" t="s">
-        <v>27</v>
-      </c>
-      <c r="E342" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -6547,13 +6546,13 @@
         <v>342</v>
       </c>
       <c r="C343" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D343" t="s">
         <v>28</v>
       </c>
       <c r="E343" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -6561,13 +6560,13 @@
         <v>343</v>
       </c>
       <c r="C344" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D344" t="s">
         <v>29</v>
       </c>
       <c r="E344" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -6575,7 +6574,7 @@
         <v>344</v>
       </c>
       <c r="C345" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D345" t="s">
         <v>26</v>
@@ -6589,13 +6588,13 @@
         <v>345</v>
       </c>
       <c r="C346" t="s">
+        <v>342</v>
+      </c>
+      <c r="D346" t="s">
+        <v>27</v>
+      </c>
+      <c r="E346" t="s">
         <v>343</v>
-      </c>
-      <c r="D346" t="s">
-        <v>27</v>
-      </c>
-      <c r="E346" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -6603,13 +6602,13 @@
         <v>346</v>
       </c>
       <c r="C347" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D347" t="s">
         <v>28</v>
       </c>
       <c r="E347" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -6617,13 +6616,13 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D348" t="s">
         <v>29</v>
       </c>
       <c r="E348" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -6631,7 +6630,7 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D349" t="s">
         <v>30</v>
@@ -6645,13 +6644,13 @@
         <v>349</v>
       </c>
       <c r="C350" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D350" t="s">
         <v>26</v>
       </c>
       <c r="E350" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -6659,13 +6658,13 @@
         <v>350</v>
       </c>
       <c r="C351" t="s">
+        <v>346</v>
+      </c>
+      <c r="D351" t="s">
+        <v>27</v>
+      </c>
+      <c r="E351" t="s">
         <v>347</v>
-      </c>
-      <c r="D351" t="s">
-        <v>27</v>
-      </c>
-      <c r="E351" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -6673,13 +6672,13 @@
         <v>351</v>
       </c>
       <c r="C352" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D352" t="s">
         <v>28</v>
       </c>
       <c r="E352" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -6687,13 +6686,13 @@
         <v>352</v>
       </c>
       <c r="C353" t="s">
+        <v>348</v>
+      </c>
+      <c r="D353" t="s">
+        <v>26</v>
+      </c>
+      <c r="E353" t="s">
         <v>349</v>
-      </c>
-      <c r="D353" t="s">
-        <v>26</v>
-      </c>
-      <c r="E353" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -6701,13 +6700,13 @@
         <v>353</v>
       </c>
       <c r="C354" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D354" t="s">
         <v>27</v>
       </c>
       <c r="E354" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -6715,13 +6714,13 @@
         <v>354</v>
       </c>
       <c r="C355" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D355" t="s">
         <v>28</v>
       </c>
       <c r="E355" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -6729,13 +6728,13 @@
         <v>355</v>
       </c>
       <c r="C356" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D356" t="s">
         <v>29</v>
       </c>
       <c r="E356" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -6743,13 +6742,13 @@
         <v>356</v>
       </c>
       <c r="C357" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D357" t="s">
         <v>30</v>
       </c>
       <c r="E357" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -6757,13 +6756,13 @@
         <v>357</v>
       </c>
       <c r="C358" t="s">
+        <v>354</v>
+      </c>
+      <c r="D358" t="s">
+        <v>26</v>
+      </c>
+      <c r="E358" t="s">
         <v>355</v>
-      </c>
-      <c r="D358" t="s">
-        <v>26</v>
-      </c>
-      <c r="E358" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -6771,13 +6770,13 @@
         <v>358</v>
       </c>
       <c r="C359" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D359" t="s">
         <v>27</v>
       </c>
       <c r="E359" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -6785,13 +6784,13 @@
         <v>359</v>
       </c>
       <c r="C360" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D360" t="s">
         <v>28</v>
       </c>
       <c r="E360" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -6799,13 +6798,13 @@
         <v>360</v>
       </c>
       <c r="C361" t="s">
+        <v>358</v>
+      </c>
+      <c r="D361" t="s">
+        <v>26</v>
+      </c>
+      <c r="E361" t="s">
         <v>359</v>
-      </c>
-      <c r="D361" t="s">
-        <v>26</v>
-      </c>
-      <c r="E361" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -6813,13 +6812,13 @@
         <v>361</v>
       </c>
       <c r="C362" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D362" t="s">
         <v>27</v>
       </c>
       <c r="E362" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -6827,13 +6826,13 @@
         <v>362</v>
       </c>
       <c r="C363" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D363" t="s">
         <v>28</v>
       </c>
       <c r="E363" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -6841,13 +6840,13 @@
         <v>363</v>
       </c>
       <c r="C364" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D364" t="s">
         <v>29</v>
       </c>
       <c r="E364" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -6855,13 +6854,13 @@
         <v>364</v>
       </c>
       <c r="C365" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D365" t="s">
         <v>30</v>
       </c>
       <c r="E365" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -6869,13 +6868,13 @@
         <v>365</v>
       </c>
       <c r="C366" t="s">
+        <v>364</v>
+      </c>
+      <c r="D366" t="s">
+        <v>26</v>
+      </c>
+      <c r="E366" t="s">
         <v>365</v>
-      </c>
-      <c r="D366" t="s">
-        <v>26</v>
-      </c>
-      <c r="E366" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -6883,13 +6882,13 @@
         <v>366</v>
       </c>
       <c r="C367" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D367" t="s">
         <v>27</v>
       </c>
       <c r="E367" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -6897,13 +6896,13 @@
         <v>367</v>
       </c>
       <c r="C368" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D368" t="s">
         <v>28</v>
       </c>
       <c r="E368" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -6911,13 +6910,13 @@
         <v>368</v>
       </c>
       <c r="C369" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D369" t="s">
         <v>29</v>
       </c>
       <c r="E369" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -6925,13 +6924,13 @@
         <v>369</v>
       </c>
       <c r="C370" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D370" t="s">
         <v>30</v>
       </c>
       <c r="E370" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -6939,13 +6938,13 @@
         <v>370</v>
       </c>
       <c r="C371" t="s">
+        <v>370</v>
+      </c>
+      <c r="D371" t="s">
+        <v>26</v>
+      </c>
+      <c r="E371" t="s">
         <v>371</v>
-      </c>
-      <c r="D371" t="s">
-        <v>26</v>
-      </c>
-      <c r="E371" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -6953,13 +6952,13 @@
         <v>371</v>
       </c>
       <c r="C372" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D372" t="s">
         <v>27</v>
       </c>
       <c r="E372" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -6967,13 +6966,13 @@
         <v>372</v>
       </c>
       <c r="C373" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D373" t="s">
         <v>28</v>
       </c>
       <c r="E373" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -6981,13 +6980,13 @@
         <v>373</v>
       </c>
       <c r="C374" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D374" t="s">
         <v>29</v>
       </c>
       <c r="E374" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
@@ -6995,13 +6994,13 @@
         <v>374</v>
       </c>
       <c r="C375" t="s">
+        <v>375</v>
+      </c>
+      <c r="D375" t="s">
+        <v>26</v>
+      </c>
+      <c r="E375" t="s">
         <v>376</v>
-      </c>
-      <c r="D375" t="s">
-        <v>26</v>
-      </c>
-      <c r="E375" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
@@ -7009,13 +7008,13 @@
         <v>375</v>
       </c>
       <c r="C376" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D376" t="s">
         <v>27</v>
       </c>
       <c r="E376" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
@@ -7023,13 +7022,13 @@
         <v>376</v>
       </c>
       <c r="C377" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D377" t="s">
         <v>28</v>
       </c>
       <c r="E377" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
@@ -7037,13 +7036,13 @@
         <v>377</v>
       </c>
       <c r="C378" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D378" t="s">
         <v>29</v>
       </c>
       <c r="E378" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
@@ -7051,13 +7050,13 @@
         <v>378</v>
       </c>
       <c r="C379" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D379" t="s">
         <v>30</v>
       </c>
       <c r="E379" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
@@ -7065,7 +7064,7 @@
         <v>379</v>
       </c>
       <c r="C380" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D380" t="s">
         <v>26</v>
@@ -7079,7 +7078,7 @@
         <v>380</v>
       </c>
       <c r="C381" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D381" t="s">
         <v>27</v>
@@ -7093,13 +7092,13 @@
         <v>381</v>
       </c>
       <c r="C382" t="s">
+        <v>381</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" t="s">
         <v>382</v>
-      </c>
-      <c r="D382" t="s">
-        <v>28</v>
-      </c>
-      <c r="E382" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -7107,13 +7106,13 @@
         <v>382</v>
       </c>
       <c r="C383" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D383" t="s">
         <v>29</v>
       </c>
       <c r="E383" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -7121,7 +7120,7 @@
         <v>383</v>
       </c>
       <c r="C384" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D384" t="s">
         <v>30</v>
@@ -7135,13 +7134,13 @@
         <v>384</v>
       </c>
       <c r="C385" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D385" t="s">
         <v>26</v>
       </c>
       <c r="E385" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -7149,13 +7148,13 @@
         <v>385</v>
       </c>
       <c r="C386" t="s">
+        <v>384</v>
+      </c>
+      <c r="D386" t="s">
+        <v>27</v>
+      </c>
+      <c r="E386" t="s">
         <v>385</v>
-      </c>
-      <c r="D386" t="s">
-        <v>27</v>
-      </c>
-      <c r="E386" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
@@ -7163,13 +7162,13 @@
         <v>386</v>
       </c>
       <c r="C387" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D387" t="s">
         <v>28</v>
       </c>
       <c r="E387" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
@@ -7177,13 +7176,13 @@
         <v>387</v>
       </c>
       <c r="C388" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D388" t="s">
         <v>29</v>
       </c>
       <c r="E388" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
@@ -7191,7 +7190,7 @@
         <v>388</v>
       </c>
       <c r="C389" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D389" t="s">
         <v>26</v>
@@ -7205,13 +7204,13 @@
         <v>389</v>
       </c>
       <c r="C390" t="s">
+        <v>387</v>
+      </c>
+      <c r="D390" t="s">
+        <v>27</v>
+      </c>
+      <c r="E390" t="s">
         <v>388</v>
-      </c>
-      <c r="D390" t="s">
-        <v>27</v>
-      </c>
-      <c r="E390" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
@@ -7219,13 +7218,13 @@
         <v>390</v>
       </c>
       <c r="C391" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D391" t="s">
         <v>28</v>
       </c>
       <c r="E391" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -7233,13 +7232,13 @@
         <v>391</v>
       </c>
       <c r="C392" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D392" t="s">
         <v>29</v>
       </c>
       <c r="E392" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -7247,7 +7246,7 @@
         <v>392</v>
       </c>
       <c r="C393" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D393" t="s">
         <v>26</v>
@@ -7261,7 +7260,7 @@
         <v>393</v>
       </c>
       <c r="C394" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7275,13 +7274,13 @@
         <v>394</v>
       </c>
       <c r="C395" t="s">
+        <v>391</v>
+      </c>
+      <c r="D395" t="s">
+        <v>28</v>
+      </c>
+      <c r="E395" t="s">
         <v>392</v>
-      </c>
-      <c r="D395" t="s">
-        <v>28</v>
-      </c>
-      <c r="E395" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
@@ -7289,13 +7288,13 @@
         <v>395</v>
       </c>
       <c r="C396" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D396" t="s">
         <v>29</v>
       </c>
       <c r="E396" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
@@ -7303,13 +7302,13 @@
         <v>396</v>
       </c>
       <c r="C397" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D397" t="s">
         <v>30</v>
       </c>
       <c r="E397" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
@@ -7317,7 +7316,7 @@
         <v>397</v>
       </c>
       <c r="C398" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D398" t="s">
         <v>26</v>
@@ -7331,13 +7330,13 @@
         <v>398</v>
       </c>
       <c r="C399" t="s">
+        <v>395</v>
+      </c>
+      <c r="D399" t="s">
+        <v>27</v>
+      </c>
+      <c r="E399" t="s">
         <v>396</v>
-      </c>
-      <c r="D399" t="s">
-        <v>27</v>
-      </c>
-      <c r="E399" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
@@ -7345,13 +7344,13 @@
         <v>399</v>
       </c>
       <c r="C400" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D400" t="s">
         <v>28</v>
       </c>
       <c r="E400" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -7359,13 +7358,13 @@
         <v>400</v>
       </c>
       <c r="C401" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D401" t="s">
         <v>29</v>
       </c>
       <c r="E401" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -7373,13 +7372,13 @@
         <v>401</v>
       </c>
       <c r="C402" t="s">
+        <v>398</v>
+      </c>
+      <c r="D402" t="s">
+        <v>26</v>
+      </c>
+      <c r="E402" t="s">
         <v>399</v>
-      </c>
-      <c r="D402" t="s">
-        <v>26</v>
-      </c>
-      <c r="E402" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
@@ -7387,13 +7386,13 @@
         <v>402</v>
       </c>
       <c r="C403" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
       </c>
       <c r="E403" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -7401,13 +7400,13 @@
         <v>403</v>
       </c>
       <c r="C404" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D404" t="s">
         <v>28</v>
       </c>
       <c r="E404" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
@@ -7415,13 +7414,13 @@
         <v>404</v>
       </c>
       <c r="C405" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D405" t="s">
         <v>29</v>
       </c>
       <c r="E405" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
@@ -7429,13 +7428,13 @@
         <v>405</v>
       </c>
       <c r="C406" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D406" t="s">
         <v>30</v>
       </c>
       <c r="E406" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
@@ -7443,13 +7442,13 @@
         <v>406</v>
       </c>
       <c r="C407" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D407" t="s">
         <v>31</v>
       </c>
       <c r="E407" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
@@ -7457,13 +7456,13 @@
         <v>407</v>
       </c>
       <c r="C408" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D408" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E408" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
@@ -7471,13 +7470,13 @@
         <v>408</v>
       </c>
       <c r="C409" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D409" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E409" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
@@ -7485,13 +7484,13 @@
         <v>409</v>
       </c>
       <c r="C410" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D410" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E410" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -7499,13 +7498,13 @@
         <v>410</v>
       </c>
       <c r="C411" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D411" t="s">
         <v>26</v>
       </c>
       <c r="E411" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -7513,13 +7512,13 @@
         <v>411</v>
       </c>
       <c r="C412" t="s">
+        <v>407</v>
+      </c>
+      <c r="D412" t="s">
+        <v>27</v>
+      </c>
+      <c r="E412" t="s">
         <v>408</v>
-      </c>
-      <c r="D412" t="s">
-        <v>27</v>
-      </c>
-      <c r="E412" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -7527,13 +7526,13 @@
         <v>412</v>
       </c>
       <c r="C413" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D413" t="s">
         <v>28</v>
       </c>
       <c r="E413" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
@@ -7541,13 +7540,13 @@
         <v>413</v>
       </c>
       <c r="C414" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D414" t="s">
         <v>29</v>
       </c>
       <c r="E414" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -7555,13 +7554,13 @@
         <v>414</v>
       </c>
       <c r="C415" t="s">
+        <v>410</v>
+      </c>
+      <c r="D415" t="s">
+        <v>26</v>
+      </c>
+      <c r="E415" t="s">
         <v>411</v>
-      </c>
-      <c r="D415" t="s">
-        <v>26</v>
-      </c>
-      <c r="E415" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
@@ -7569,13 +7568,13 @@
         <v>415</v>
       </c>
       <c r="C416" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D416" t="s">
         <v>27</v>
       </c>
       <c r="E416" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
@@ -7583,13 +7582,13 @@
         <v>416</v>
       </c>
       <c r="C417" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D417" t="s">
         <v>28</v>
       </c>
       <c r="E417" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
@@ -7597,13 +7596,13 @@
         <v>417</v>
       </c>
       <c r="C418" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D418" t="s">
         <v>29</v>
       </c>
       <c r="E418" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
@@ -7611,13 +7610,13 @@
         <v>418</v>
       </c>
       <c r="C419" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D419" t="s">
         <v>30</v>
       </c>
       <c r="E419" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
@@ -7625,13 +7624,13 @@
         <v>419</v>
       </c>
       <c r="C420" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D420" t="s">
         <v>26</v>
       </c>
       <c r="E420" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
@@ -7639,13 +7638,13 @@
         <v>420</v>
       </c>
       <c r="C421" t="s">
+        <v>416</v>
+      </c>
+      <c r="D421" t="s">
+        <v>27</v>
+      </c>
+      <c r="E421" t="s">
         <v>417</v>
-      </c>
-      <c r="D421" t="s">
-        <v>27</v>
-      </c>
-      <c r="E421" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -7653,13 +7652,13 @@
         <v>421</v>
       </c>
       <c r="C422" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D422" t="s">
         <v>28</v>
       </c>
       <c r="E422" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -7667,13 +7666,13 @@
         <v>422</v>
       </c>
       <c r="C423" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D423" t="s">
         <v>29</v>
       </c>
       <c r="E423" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -7681,13 +7680,13 @@
         <v>423</v>
       </c>
       <c r="C424" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D424" t="s">
         <v>30</v>
       </c>
       <c r="E424" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -7695,13 +7694,13 @@
         <v>424</v>
       </c>
       <c r="C425" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D425" t="s">
         <v>26</v>
       </c>
       <c r="E425" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -7709,13 +7708,13 @@
         <v>425</v>
       </c>
       <c r="C426" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D426" t="s">
         <v>27</v>
       </c>
       <c r="E426" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -7723,13 +7722,13 @@
         <v>426</v>
       </c>
       <c r="C427" t="s">
+        <v>420</v>
+      </c>
+      <c r="D427" t="s">
+        <v>28</v>
+      </c>
+      <c r="E427" t="s">
         <v>421</v>
-      </c>
-      <c r="D427" t="s">
-        <v>28</v>
-      </c>
-      <c r="E427" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -7737,13 +7736,13 @@
         <v>427</v>
       </c>
       <c r="C428" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D428" t="s">
         <v>29</v>
       </c>
       <c r="E428" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
@@ -7751,13 +7750,13 @@
         <v>428</v>
       </c>
       <c r="C429" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D429" t="s">
         <v>30</v>
       </c>
       <c r="E429" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -7765,13 +7764,13 @@
         <v>429</v>
       </c>
       <c r="C430" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D430" t="s">
         <v>26</v>
       </c>
       <c r="E430" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -7779,13 +7778,13 @@
         <v>430</v>
       </c>
       <c r="C431" t="s">
+        <v>422</v>
+      </c>
+      <c r="D431" t="s">
+        <v>27</v>
+      </c>
+      <c r="E431" t="s">
         <v>423</v>
-      </c>
-      <c r="D431" t="s">
-        <v>27</v>
-      </c>
-      <c r="E431" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -7793,13 +7792,13 @@
         <v>431</v>
       </c>
       <c r="C432" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D432" t="s">
         <v>28</v>
       </c>
       <c r="E432" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -7807,13 +7806,13 @@
         <v>432</v>
       </c>
       <c r="C433" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D433" t="s">
         <v>29</v>
       </c>
       <c r="E433" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -7821,13 +7820,13 @@
         <v>433</v>
       </c>
       <c r="C434" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D434" t="s">
         <v>30</v>
       </c>
       <c r="E434" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -7835,13 +7834,13 @@
         <v>434</v>
       </c>
       <c r="C435" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D435" t="s">
         <v>26</v>
       </c>
       <c r="E435" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -7849,13 +7848,13 @@
         <v>435</v>
       </c>
       <c r="C436" t="s">
+        <v>424</v>
+      </c>
+      <c r="D436" t="s">
+        <v>27</v>
+      </c>
+      <c r="E436" t="s">
         <v>425</v>
-      </c>
-      <c r="D436" t="s">
-        <v>27</v>
-      </c>
-      <c r="E436" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -7863,13 +7862,13 @@
         <v>436</v>
       </c>
       <c r="C437" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D437" t="s">
         <v>28</v>
       </c>
       <c r="E437" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -7877,13 +7876,13 @@
         <v>437</v>
       </c>
       <c r="C438" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D438" t="s">
         <v>29</v>
       </c>
       <c r="E438" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -7891,13 +7890,13 @@
         <v>438</v>
       </c>
       <c r="C439" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D439" t="s">
         <v>26</v>
       </c>
       <c r="E439" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
@@ -7905,13 +7904,13 @@
         <v>439</v>
       </c>
       <c r="C440" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D440" t="s">
         <v>27</v>
       </c>
       <c r="E440" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -7919,13 +7918,13 @@
         <v>440</v>
       </c>
       <c r="C441" t="s">
+        <v>427</v>
+      </c>
+      <c r="D441" t="s">
+        <v>28</v>
+      </c>
+      <c r="E441" t="s">
         <v>428</v>
-      </c>
-      <c r="D441" t="s">
-        <v>28</v>
-      </c>
-      <c r="E441" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -7933,13 +7932,13 @@
         <v>441</v>
       </c>
       <c r="C442" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D442" t="s">
         <v>29</v>
       </c>
       <c r="E442" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -7947,13 +7946,13 @@
         <v>442</v>
       </c>
       <c r="C443" t="s">
+        <v>429</v>
+      </c>
+      <c r="D443" t="s">
+        <v>26</v>
+      </c>
+      <c r="E443" t="s">
         <v>430</v>
-      </c>
-      <c r="D443" t="s">
-        <v>26</v>
-      </c>
-      <c r="E443" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
@@ -7961,13 +7960,13 @@
         <v>443</v>
       </c>
       <c r="C444" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D444" t="s">
         <v>27</v>
       </c>
       <c r="E444" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
@@ -7975,13 +7974,13 @@
         <v>444</v>
       </c>
       <c r="C445" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D445" t="s">
         <v>28</v>
       </c>
       <c r="E445" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
@@ -7989,13 +7988,13 @@
         <v>445</v>
       </c>
       <c r="C446" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D446" t="s">
         <v>29</v>
       </c>
       <c r="E446" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
@@ -8003,13 +8002,13 @@
         <v>446</v>
       </c>
       <c r="C447" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D447" t="s">
         <v>30</v>
       </c>
       <c r="E447" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
@@ -8017,13 +8016,13 @@
         <v>447</v>
       </c>
       <c r="C448" t="s">
+        <v>435</v>
+      </c>
+      <c r="D448" t="s">
+        <v>26</v>
+      </c>
+      <c r="E448" t="s">
         <v>436</v>
-      </c>
-      <c r="D448" t="s">
-        <v>26</v>
-      </c>
-      <c r="E448" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
@@ -8031,13 +8030,13 @@
         <v>448</v>
       </c>
       <c r="C449" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D449" t="s">
         <v>27</v>
       </c>
       <c r="E449" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
@@ -8045,13 +8044,13 @@
         <v>449</v>
       </c>
       <c r="C450" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D450" t="s">
         <v>28</v>
       </c>
       <c r="E450" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
@@ -8059,13 +8058,13 @@
         <v>450</v>
       </c>
       <c r="C451" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D451" t="s">
         <v>29</v>
       </c>
       <c r="E451" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
@@ -8073,13 +8072,13 @@
         <v>451</v>
       </c>
       <c r="C452" t="s">
+        <v>440</v>
+      </c>
+      <c r="D452" t="s">
+        <v>26</v>
+      </c>
+      <c r="E452" t="s">
         <v>441</v>
-      </c>
-      <c r="D452" t="s">
-        <v>26</v>
-      </c>
-      <c r="E452" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
@@ -8087,13 +8086,13 @@
         <v>452</v>
       </c>
       <c r="C453" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D453" t="s">
         <v>27</v>
       </c>
       <c r="E453" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
@@ -8101,13 +8100,13 @@
         <v>453</v>
       </c>
       <c r="C454" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D454" t="s">
         <v>28</v>
       </c>
       <c r="E454" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
@@ -8115,13 +8114,13 @@
         <v>454</v>
       </c>
       <c r="C455" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D455" t="s">
         <v>29</v>
       </c>
       <c r="E455" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
@@ -8129,13 +8128,13 @@
         <v>455</v>
       </c>
       <c r="C456" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D456" t="s">
         <v>30</v>
       </c>
       <c r="E456" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
@@ -8143,13 +8142,13 @@
         <v>456</v>
       </c>
       <c r="C457" t="s">
+        <v>445</v>
+      </c>
+      <c r="D457" t="s">
+        <v>26</v>
+      </c>
+      <c r="E457" t="s">
         <v>446</v>
-      </c>
-      <c r="D457" t="s">
-        <v>26</v>
-      </c>
-      <c r="E457" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
@@ -8157,13 +8156,13 @@
         <v>457</v>
       </c>
       <c r="C458" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D458" t="s">
         <v>27</v>
       </c>
       <c r="E458" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
@@ -8171,13 +8170,13 @@
         <v>458</v>
       </c>
       <c r="C459" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D459" t="s">
         <v>28</v>
       </c>
       <c r="E459" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
@@ -8185,13 +8184,13 @@
         <v>459</v>
       </c>
       <c r="C460" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D460" t="s">
         <v>29</v>
       </c>
       <c r="E460" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
@@ -8199,13 +8198,13 @@
         <v>460</v>
       </c>
       <c r="C461" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D461" t="s">
         <v>30</v>
       </c>
       <c r="E461" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/subjects.xlsx
+++ b/subjects.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="438">
   <si>
     <t>가스기사</t>
   </si>
@@ -99,24 +99,6 @@
     <t>대기환경산업기사</t>
   </si>
   <si>
-    <t>1과목</t>
-  </si>
-  <si>
-    <t>2과목</t>
-  </si>
-  <si>
-    <t>3과목</t>
-  </si>
-  <si>
-    <t>4과목</t>
-  </si>
-  <si>
-    <t>5과목</t>
-  </si>
-  <si>
-    <t>6과목</t>
-  </si>
-  <si>
     <t>가스유체역학</t>
   </si>
   <si>
@@ -393,15 +375,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>7과목</t>
-  </si>
-  <si>
-    <t>8과목</t>
-  </si>
-  <si>
-    <t>9과목</t>
-  </si>
-  <si>
     <t>기구학 및 CAD</t>
   </si>
   <si>
@@ -504,9 +477,6 @@
     <t>전자계산기 일반 및 방송설비기준</t>
   </si>
   <si>
-    <t>10과목</t>
-  </si>
-  <si>
     <t>컴퓨터일반 및 방송설비기준</t>
   </si>
   <si>
@@ -685,9 +655,6 @@
   </si>
   <si>
     <t>설비관리</t>
-  </si>
-  <si>
-    <t>설비진단 및 계측</t>
   </si>
   <si>
     <t>윤활관리</t>
@@ -1741,30 +1708,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E461"/>
+  <dimension ref="A1:E460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="A461" sqref="A461"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1774,11 +1743,11 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1788,11 +1757,11 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1802,11 +1771,11 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1816,11 +1785,11 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1830,11 +1799,11 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1844,11 +1813,11 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1858,11 +1827,11 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
+      <c r="D8">
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1872,11 +1841,11 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
+      <c r="D9">
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1886,11 +1855,11 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
+      <c r="D10">
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1900,11 +1869,11 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1914,11 +1883,11 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
+      <c r="D12">
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1928,11 +1897,11 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
+      <c r="D13">
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1942,11 +1911,11 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>29</v>
+      <c r="D14">
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1956,11 +1925,11 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>30</v>
+      <c r="D15">
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1970,11 +1939,11 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1984,11 +1953,11 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>27</v>
+      <c r="D17">
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1998,11 +1967,11 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>28</v>
+      <c r="D18">
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2012,11 +1981,11 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>29</v>
+      <c r="D19">
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2026,11 +1995,11 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
-        <v>26</v>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2040,11 +2009,11 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
+      <c r="D21">
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2054,11 +2023,11 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
-        <v>28</v>
+      <c r="D22">
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2068,11 +2037,11 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
-        <v>29</v>
+      <c r="D23">
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2082,11 +2051,11 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>26</v>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2096,11 +2065,11 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
+      <c r="D25">
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2110,11 +2079,11 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s">
-        <v>28</v>
+      <c r="D26">
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2124,11 +2093,11 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
-        <v>29</v>
+      <c r="D27">
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2138,11 +2107,11 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
-        <v>30</v>
+      <c r="D28">
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2152,11 +2121,11 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
-        <v>31</v>
+      <c r="D29">
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2166,11 +2135,11 @@
       <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
-        <v>26</v>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2180,11 +2149,11 @@
       <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>27</v>
+      <c r="D31">
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2194,11 +2163,11 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>28</v>
+      <c r="D32">
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2208,11 +2177,11 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>29</v>
+      <c r="D33">
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2222,11 +2191,11 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="s">
-        <v>30</v>
+      <c r="D34">
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2236,11 +2205,11 @@
       <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s">
-        <v>26</v>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2250,11 +2219,11 @@
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D36" t="s">
-        <v>27</v>
+      <c r="D36">
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2264,11 +2233,11 @@
       <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D37" t="s">
-        <v>28</v>
+      <c r="D37">
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2278,11 +2247,11 @@
       <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="D38" t="s">
-        <v>29</v>
+      <c r="D38">
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2292,11 +2261,11 @@
       <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
-        <v>26</v>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2306,11 +2275,11 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
-        <v>27</v>
+      <c r="D40">
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2320,11 +2289,11 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" t="s">
-        <v>28</v>
+      <c r="D41">
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2334,11 +2303,11 @@
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" t="s">
-        <v>29</v>
+      <c r="D42">
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2348,11 +2317,11 @@
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" t="s">
-        <v>26</v>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2362,11 +2331,11 @@
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44" t="s">
-        <v>27</v>
+      <c r="D44">
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2376,11 +2345,11 @@
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" t="s">
-        <v>28</v>
+      <c r="D45">
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2390,11 +2359,11 @@
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" t="s">
-        <v>29</v>
+      <c r="D46">
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2404,11 +2373,11 @@
       <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" t="s">
-        <v>30</v>
+      <c r="D47">
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2418,11 +2387,11 @@
       <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="D48" t="s">
-        <v>26</v>
+      <c r="D48">
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2432,11 +2401,11 @@
       <c r="C49" t="s">
         <v>10</v>
       </c>
-      <c r="D49" t="s">
-        <v>27</v>
+      <c r="D49">
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2446,11 +2415,11 @@
       <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="D50" t="s">
-        <v>28</v>
+      <c r="D50">
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2460,11 +2429,11 @@
       <c r="C51" t="s">
         <v>10</v>
       </c>
-      <c r="D51" t="s">
-        <v>29</v>
+      <c r="D51">
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2474,11 +2443,11 @@
       <c r="C52" t="s">
         <v>10</v>
       </c>
-      <c r="D52" t="s">
-        <v>30</v>
+      <c r="D52">
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2488,11 +2457,11 @@
       <c r="C53" t="s">
         <v>11</v>
       </c>
-      <c r="D53" t="s">
-        <v>26</v>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2502,11 +2471,11 @@
       <c r="C54" t="s">
         <v>11</v>
       </c>
-      <c r="D54" t="s">
-        <v>27</v>
+      <c r="D54">
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2516,11 +2485,11 @@
       <c r="C55" t="s">
         <v>11</v>
       </c>
-      <c r="D55" t="s">
-        <v>28</v>
+      <c r="D55">
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2530,11 +2499,11 @@
       <c r="C56" t="s">
         <v>11</v>
       </c>
-      <c r="D56" t="s">
-        <v>29</v>
+      <c r="D56">
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2544,11 +2513,11 @@
       <c r="C57" t="s">
         <v>11</v>
       </c>
-      <c r="D57" t="s">
-        <v>30</v>
+      <c r="D57">
+        <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2558,11 +2527,11 @@
       <c r="C58" t="s">
         <v>12</v>
       </c>
-      <c r="D58" t="s">
-        <v>26</v>
+      <c r="D58">
+        <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2572,11 +2541,11 @@
       <c r="C59" t="s">
         <v>12</v>
       </c>
-      <c r="D59" t="s">
-        <v>27</v>
+      <c r="D59">
+        <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2586,11 +2555,11 @@
       <c r="C60" t="s">
         <v>12</v>
       </c>
-      <c r="D60" t="s">
-        <v>28</v>
+      <c r="D60">
+        <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2600,11 +2569,11 @@
       <c r="C61" t="s">
         <v>12</v>
       </c>
-      <c r="D61" t="s">
-        <v>29</v>
+      <c r="D61">
+        <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2614,11 +2583,11 @@
       <c r="C62" t="s">
         <v>13</v>
       </c>
-      <c r="D62" t="s">
-        <v>26</v>
+      <c r="D62">
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2628,11 +2597,11 @@
       <c r="C63" t="s">
         <v>13</v>
       </c>
-      <c r="D63" t="s">
-        <v>27</v>
+      <c r="D63">
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2642,11 +2611,11 @@
       <c r="C64" t="s">
         <v>13</v>
       </c>
-      <c r="D64" t="s">
-        <v>28</v>
+      <c r="D64">
+        <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2656,11 +2625,11 @@
       <c r="C65" t="s">
         <v>13</v>
       </c>
-      <c r="D65" t="s">
-        <v>29</v>
+      <c r="D65">
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2670,11 +2639,11 @@
       <c r="C66" t="s">
         <v>13</v>
       </c>
-      <c r="D66" t="s">
-        <v>30</v>
+      <c r="D66">
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2684,11 +2653,11 @@
       <c r="C67" t="s">
         <v>13</v>
       </c>
-      <c r="D67" t="s">
-        <v>31</v>
+      <c r="D67">
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2698,11 +2667,11 @@
       <c r="C68" t="s">
         <v>13</v>
       </c>
-      <c r="D68" t="s">
-        <v>124</v>
+      <c r="D68">
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2712,11 +2681,11 @@
       <c r="C69" t="s">
         <v>13</v>
       </c>
-      <c r="D69" t="s">
-        <v>125</v>
+      <c r="D69">
+        <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2726,11 +2695,11 @@
       <c r="C70" t="s">
         <v>13</v>
       </c>
-      <c r="D70" t="s">
-        <v>126</v>
+      <c r="D70">
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2740,11 +2709,11 @@
       <c r="C71" t="s">
         <v>14</v>
       </c>
-      <c r="D71" t="s">
-        <v>26</v>
+      <c r="D71">
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2754,11 +2723,11 @@
       <c r="C72" t="s">
         <v>14</v>
       </c>
-      <c r="D72" t="s">
-        <v>27</v>
+      <c r="D72">
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2768,11 +2737,11 @@
       <c r="C73" t="s">
         <v>14</v>
       </c>
-      <c r="D73" t="s">
-        <v>28</v>
+      <c r="D73">
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2782,11 +2751,11 @@
       <c r="C74" t="s">
         <v>14</v>
       </c>
-      <c r="D74" t="s">
-        <v>29</v>
+      <c r="D74">
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2796,11 +2765,11 @@
       <c r="C75" t="s">
         <v>15</v>
       </c>
-      <c r="D75" t="s">
-        <v>26</v>
+      <c r="D75">
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2810,11 +2779,11 @@
       <c r="C76" t="s">
         <v>15</v>
       </c>
-      <c r="D76" t="s">
-        <v>27</v>
+      <c r="D76">
+        <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2824,11 +2793,11 @@
       <c r="C77" t="s">
         <v>15</v>
       </c>
-      <c r="D77" t="s">
-        <v>28</v>
+      <c r="D77">
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2838,11 +2807,11 @@
       <c r="C78" t="s">
         <v>15</v>
       </c>
-      <c r="D78" t="s">
-        <v>29</v>
+      <c r="D78">
+        <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2852,11 +2821,11 @@
       <c r="C79" t="s">
         <v>16</v>
       </c>
-      <c r="D79" t="s">
-        <v>26</v>
+      <c r="D79">
+        <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2866,11 +2835,11 @@
       <c r="C80" t="s">
         <v>16</v>
       </c>
-      <c r="D80" t="s">
-        <v>27</v>
+      <c r="D80">
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2880,11 +2849,11 @@
       <c r="C81" t="s">
         <v>16</v>
       </c>
-      <c r="D81" t="s">
-        <v>28</v>
+      <c r="D81">
+        <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2894,11 +2863,11 @@
       <c r="C82" t="s">
         <v>16</v>
       </c>
-      <c r="D82" t="s">
-        <v>29</v>
+      <c r="D82">
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2908,11 +2877,11 @@
       <c r="C83" t="s">
         <v>16</v>
       </c>
-      <c r="D83" t="s">
-        <v>30</v>
+      <c r="D83">
+        <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2922,11 +2891,11 @@
       <c r="C84" t="s">
         <v>16</v>
       </c>
-      <c r="D84" t="s">
-        <v>31</v>
+      <c r="D84">
+        <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2936,11 +2905,11 @@
       <c r="C85" t="s">
         <v>17</v>
       </c>
-      <c r="D85" t="s">
-        <v>26</v>
+      <c r="D85">
+        <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2950,11 +2919,11 @@
       <c r="C86" t="s">
         <v>17</v>
       </c>
-      <c r="D86" t="s">
-        <v>27</v>
+      <c r="D86">
+        <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2964,11 +2933,11 @@
       <c r="C87" t="s">
         <v>17</v>
       </c>
-      <c r="D87" t="s">
-        <v>28</v>
+      <c r="D87">
+        <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2978,11 +2947,11 @@
       <c r="C88" t="s">
         <v>17</v>
       </c>
-      <c r="D88" t="s">
-        <v>29</v>
+      <c r="D88">
+        <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2992,11 +2961,11 @@
       <c r="C89" t="s">
         <v>17</v>
       </c>
-      <c r="D89" t="s">
-        <v>30</v>
+      <c r="D89">
+        <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -3006,11 +2975,11 @@
       <c r="C90" t="s">
         <v>18</v>
       </c>
-      <c r="D90" t="s">
-        <v>26</v>
+      <c r="D90">
+        <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -3020,11 +2989,11 @@
       <c r="C91" t="s">
         <v>18</v>
       </c>
-      <c r="D91" t="s">
-        <v>27</v>
+      <c r="D91">
+        <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -3034,11 +3003,11 @@
       <c r="C92" t="s">
         <v>18</v>
       </c>
-      <c r="D92" t="s">
-        <v>28</v>
+      <c r="D92">
+        <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -3048,11 +3017,11 @@
       <c r="C93" t="s">
         <v>18</v>
       </c>
-      <c r="D93" t="s">
-        <v>29</v>
+      <c r="D93">
+        <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3062,11 +3031,11 @@
       <c r="C94" t="s">
         <v>19</v>
       </c>
-      <c r="D94" t="s">
-        <v>26</v>
+      <c r="D94">
+        <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -3076,11 +3045,11 @@
       <c r="C95" t="s">
         <v>19</v>
       </c>
-      <c r="D95" t="s">
-        <v>27</v>
+      <c r="D95">
+        <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -3090,11 +3059,11 @@
       <c r="C96" t="s">
         <v>19</v>
       </c>
-      <c r="D96" t="s">
-        <v>28</v>
+      <c r="D96">
+        <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3104,11 +3073,11 @@
       <c r="C97" t="s">
         <v>19</v>
       </c>
-      <c r="D97" t="s">
-        <v>29</v>
+      <c r="D97">
+        <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3118,11 +3087,11 @@
       <c r="C98" t="s">
         <v>20</v>
       </c>
-      <c r="D98" t="s">
-        <v>26</v>
+      <c r="D98">
+        <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3132,11 +3101,11 @@
       <c r="C99" t="s">
         <v>20</v>
       </c>
-      <c r="D99" t="s">
-        <v>27</v>
+      <c r="D99">
+        <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3146,11 +3115,11 @@
       <c r="C100" t="s">
         <v>20</v>
       </c>
-      <c r="D100" t="s">
-        <v>28</v>
+      <c r="D100">
+        <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3160,11 +3129,11 @@
       <c r="C101" t="s">
         <v>20</v>
       </c>
-      <c r="D101" t="s">
-        <v>29</v>
+      <c r="D101">
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3174,11 +3143,11 @@
       <c r="C102" t="s">
         <v>20</v>
       </c>
-      <c r="D102" t="s">
-        <v>30</v>
+      <c r="D102">
+        <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3188,11 +3157,11 @@
       <c r="C103" t="s">
         <v>21</v>
       </c>
-      <c r="D103" t="s">
-        <v>26</v>
+      <c r="D103">
+        <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3202,11 +3171,11 @@
       <c r="C104" t="s">
         <v>21</v>
       </c>
-      <c r="D104" t="s">
-        <v>27</v>
+      <c r="D104">
+        <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3216,11 +3185,11 @@
       <c r="C105" t="s">
         <v>21</v>
       </c>
-      <c r="D105" t="s">
-        <v>28</v>
+      <c r="D105">
+        <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3230,11 +3199,11 @@
       <c r="C106" t="s">
         <v>21</v>
       </c>
-      <c r="D106" t="s">
-        <v>29</v>
+      <c r="D106">
+        <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3244,11 +3213,11 @@
       <c r="C107" t="s">
         <v>21</v>
       </c>
-      <c r="D107" t="s">
-        <v>30</v>
+      <c r="D107">
+        <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3258,11 +3227,11 @@
       <c r="C108" t="s">
         <v>22</v>
       </c>
-      <c r="D108" t="s">
-        <v>26</v>
+      <c r="D108">
+        <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -3272,11 +3241,11 @@
       <c r="C109" t="s">
         <v>22</v>
       </c>
-      <c r="D109" t="s">
-        <v>27</v>
+      <c r="D109">
+        <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -3286,11 +3255,11 @@
       <c r="C110" t="s">
         <v>22</v>
       </c>
-      <c r="D110" t="s">
-        <v>28</v>
+      <c r="D110">
+        <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -3300,11 +3269,11 @@
       <c r="C111" t="s">
         <v>22</v>
       </c>
-      <c r="D111" t="s">
-        <v>29</v>
+      <c r="D111">
+        <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3314,11 +3283,11 @@
       <c r="C112" t="s">
         <v>23</v>
       </c>
-      <c r="D112" t="s">
-        <v>26</v>
+      <c r="D112">
+        <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3328,11 +3297,11 @@
       <c r="C113" t="s">
         <v>23</v>
       </c>
-      <c r="D113" t="s">
-        <v>27</v>
+      <c r="D113">
+        <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -3342,11 +3311,11 @@
       <c r="C114" t="s">
         <v>23</v>
       </c>
-      <c r="D114" t="s">
-        <v>28</v>
+      <c r="D114">
+        <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -3356,11 +3325,11 @@
       <c r="C115" t="s">
         <v>23</v>
       </c>
-      <c r="D115" t="s">
-        <v>29</v>
+      <c r="D115">
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3370,11 +3339,11 @@
       <c r="C116" t="s">
         <v>24</v>
       </c>
-      <c r="D116" t="s">
-        <v>26</v>
+      <c r="D116">
+        <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3384,11 +3353,11 @@
       <c r="C117" t="s">
         <v>24</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
         <v>27</v>
-      </c>
-      <c r="E117" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3398,11 +3367,11 @@
       <c r="C118" t="s">
         <v>24</v>
       </c>
-      <c r="D118" t="s">
-        <v>28</v>
+      <c r="D118">
+        <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3412,11 +3381,11 @@
       <c r="C119" t="s">
         <v>24</v>
       </c>
-      <c r="D119" t="s">
-        <v>29</v>
+      <c r="D119">
+        <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -3426,11 +3395,11 @@
       <c r="C120" t="s">
         <v>24</v>
       </c>
-      <c r="D120" t="s">
-        <v>30</v>
+      <c r="D120">
+        <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3440,11 +3409,11 @@
       <c r="C121" t="s">
         <v>25</v>
       </c>
-      <c r="D121" t="s">
-        <v>26</v>
+      <c r="D121">
+        <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3454,11 +3423,11 @@
       <c r="C122" t="s">
         <v>25</v>
       </c>
-      <c r="D122" t="s">
-        <v>27</v>
+      <c r="D122">
+        <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3468,11 +3437,11 @@
       <c r="C123" t="s">
         <v>25</v>
       </c>
-      <c r="D123" t="s">
-        <v>28</v>
+      <c r="D123">
+        <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3482,11 +3451,11 @@
       <c r="C124" t="s">
         <v>25</v>
       </c>
-      <c r="D124" t="s">
-        <v>29</v>
+      <c r="D124">
+        <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -3494,13 +3463,13 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>128</v>
-      </c>
-      <c r="D125" t="s">
-        <v>26</v>
+        <v>119</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -3508,13 +3477,13 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
-      </c>
-      <c r="D126" t="s">
-        <v>27</v>
+        <v>119</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3522,13 +3491,13 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>128</v>
-      </c>
-      <c r="D127" t="s">
-        <v>28</v>
+        <v>119</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3536,13 +3505,13 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>128</v>
-      </c>
-      <c r="D128" t="s">
-        <v>29</v>
+        <v>119</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3550,13 +3519,13 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>128</v>
-      </c>
-      <c r="D129" t="s">
-        <v>30</v>
+        <v>119</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3564,13 +3533,13 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>134</v>
-      </c>
-      <c r="D130" t="s">
-        <v>26</v>
+        <v>125</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3578,13 +3547,13 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>134</v>
-      </c>
-      <c r="D131" t="s">
-        <v>27</v>
+        <v>125</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3592,13 +3561,13 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
-      </c>
-      <c r="D132" t="s">
-        <v>28</v>
+        <v>125</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3606,13 +3575,13 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
-      </c>
-      <c r="D133" t="s">
-        <v>29</v>
+        <v>125</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3620,13 +3589,13 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>134</v>
-      </c>
-      <c r="D134" t="s">
-        <v>30</v>
+        <v>125</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -3634,13 +3603,13 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>140</v>
-      </c>
-      <c r="D135" t="s">
-        <v>26</v>
+        <v>131</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3648,13 +3617,13 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>140</v>
-      </c>
-      <c r="D136" t="s">
-        <v>27</v>
+        <v>131</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -3662,13 +3631,13 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>140</v>
-      </c>
-      <c r="D137" t="s">
-        <v>28</v>
+        <v>131</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -3676,13 +3645,13 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
-      </c>
-      <c r="D138" t="s">
-        <v>29</v>
+        <v>131</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -3690,13 +3659,13 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>142</v>
-      </c>
-      <c r="D139" t="s">
-        <v>26</v>
+        <v>133</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -3704,13 +3673,13 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>142</v>
-      </c>
-      <c r="D140" t="s">
-        <v>27</v>
+        <v>133</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -3718,13 +3687,13 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>142</v>
-      </c>
-      <c r="D141" t="s">
-        <v>28</v>
+        <v>133</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -3732,13 +3701,13 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>142</v>
-      </c>
-      <c r="D142" t="s">
-        <v>29</v>
+        <v>133</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
       </c>
       <c r="E142" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -3746,13 +3715,13 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>142</v>
-      </c>
-      <c r="D143" t="s">
-        <v>30</v>
+        <v>133</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -3760,13 +3729,13 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>148</v>
-      </c>
-      <c r="D144" t="s">
-        <v>26</v>
+        <v>139</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -3774,13 +3743,13 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>148</v>
-      </c>
-      <c r="D145" t="s">
-        <v>27</v>
+        <v>139</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -3788,13 +3757,13 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>148</v>
-      </c>
-      <c r="D146" t="s">
-        <v>28</v>
+        <v>139</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -3802,13 +3771,13 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>148</v>
-      </c>
-      <c r="D147" t="s">
-        <v>29</v>
+        <v>139</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -3816,13 +3785,13 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>152</v>
-      </c>
-      <c r="D148" t="s">
-        <v>26</v>
+        <v>143</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -3830,13 +3799,13 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>152</v>
-      </c>
-      <c r="D149" t="s">
-        <v>27</v>
+        <v>143</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3844,13 +3813,13 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>152</v>
-      </c>
-      <c r="D150" t="s">
-        <v>28</v>
+        <v>143</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -3858,13 +3827,13 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>152</v>
-      </c>
-      <c r="D151" t="s">
-        <v>29</v>
+        <v>143</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -3872,13 +3841,13 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>152</v>
-      </c>
-      <c r="D152" t="s">
-        <v>30</v>
+        <v>143</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -3886,13 +3855,13 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>152</v>
-      </c>
-      <c r="D153" t="s">
-        <v>31</v>
+        <v>143</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3900,13 +3869,13 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>152</v>
-      </c>
-      <c r="D154" t="s">
-        <v>124</v>
+        <v>143</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3914,13 +3883,13 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>152</v>
-      </c>
-      <c r="D155" t="s">
-        <v>125</v>
+        <v>143</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -3928,13 +3897,13 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>152</v>
-      </c>
-      <c r="D156" t="s">
-        <v>126</v>
+        <v>143</v>
+      </c>
+      <c r="D156">
+        <v>4</v>
       </c>
       <c r="E156" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -3942,13 +3911,13 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
+        <v>143</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157" t="s">
         <v>152</v>
-      </c>
-      <c r="D157" t="s">
-        <v>161</v>
-      </c>
-      <c r="E157" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3956,13 +3925,13 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>163</v>
-      </c>
-      <c r="D158" t="s">
-        <v>26</v>
+        <v>153</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3970,13 +3939,13 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>163</v>
-      </c>
-      <c r="D159" t="s">
-        <v>27</v>
+        <v>153</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3984,13 +3953,13 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>163</v>
-      </c>
-      <c r="D160" t="s">
-        <v>28</v>
+        <v>153</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3998,13 +3967,13 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>163</v>
-      </c>
-      <c r="D161" t="s">
-        <v>29</v>
+        <v>153</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -4012,13 +3981,13 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
-      </c>
-      <c r="D162" t="s">
-        <v>30</v>
+        <v>153</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -4026,13 +3995,13 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>163</v>
-      </c>
-      <c r="D163" t="s">
-        <v>31</v>
+        <v>153</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -4040,13 +4009,13 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
-      </c>
-      <c r="D164" t="s">
-        <v>26</v>
+        <v>155</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -4054,13 +4023,13 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>165</v>
-      </c>
-      <c r="D165" t="s">
-        <v>27</v>
+        <v>155</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -4068,13 +4037,13 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>165</v>
-      </c>
-      <c r="D166" t="s">
-        <v>28</v>
+        <v>155</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -4082,13 +4051,13 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>165</v>
-      </c>
-      <c r="D167" t="s">
-        <v>29</v>
+        <v>155</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
       </c>
       <c r="E167" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -4096,13 +4065,13 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>170</v>
-      </c>
-      <c r="D168" t="s">
-        <v>26</v>
+        <v>160</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -4110,13 +4079,13 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>170</v>
-      </c>
-      <c r="D169" t="s">
-        <v>27</v>
+        <v>160</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -4124,13 +4093,13 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>170</v>
-      </c>
-      <c r="D170" t="s">
-        <v>28</v>
+        <v>160</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -4138,13 +4107,13 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>170</v>
-      </c>
-      <c r="D171" t="s">
-        <v>29</v>
+        <v>160</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
       </c>
       <c r="E171" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -4152,13 +4121,13 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>170</v>
-      </c>
-      <c r="D172" t="s">
-        <v>30</v>
+        <v>160</v>
+      </c>
+      <c r="D172">
+        <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -4166,13 +4135,13 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>176</v>
-      </c>
-      <c r="D173" t="s">
-        <v>26</v>
+        <v>166</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -4180,13 +4149,13 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>176</v>
-      </c>
-      <c r="D174" t="s">
-        <v>27</v>
+        <v>166</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
       </c>
       <c r="E174" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -4194,13 +4163,13 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
-      </c>
-      <c r="D175" t="s">
-        <v>28</v>
+        <v>166</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -4208,13 +4177,13 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>176</v>
-      </c>
-      <c r="D176" t="s">
-        <v>29</v>
+        <v>166</v>
+      </c>
+      <c r="D176">
+        <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -4222,13 +4191,13 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>181</v>
-      </c>
-      <c r="D177" t="s">
-        <v>26</v>
+        <v>171</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -4236,13 +4205,13 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>181</v>
-      </c>
-      <c r="D178" t="s">
-        <v>27</v>
+        <v>171</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
       </c>
       <c r="E178" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -4250,13 +4219,13 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>181</v>
-      </c>
-      <c r="D179" t="s">
-        <v>28</v>
+        <v>171</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -4264,13 +4233,13 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
-      </c>
-      <c r="D180" t="s">
-        <v>29</v>
+        <v>171</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
       </c>
       <c r="E180" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -4278,13 +4247,13 @@
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>181</v>
-      </c>
-      <c r="D181" t="s">
-        <v>30</v>
+        <v>171</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -4292,13 +4261,13 @@
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>187</v>
-      </c>
-      <c r="D182" t="s">
-        <v>26</v>
+        <v>177</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
       </c>
       <c r="E182" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -4306,13 +4275,13 @@
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>187</v>
-      </c>
-      <c r="D183" t="s">
-        <v>27</v>
+        <v>177</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
       </c>
       <c r="E183" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -4320,13 +4289,13 @@
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>187</v>
-      </c>
-      <c r="D184" t="s">
-        <v>28</v>
+        <v>177</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -4334,13 +4303,13 @@
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>187</v>
-      </c>
-      <c r="D185" t="s">
-        <v>29</v>
+        <v>177</v>
+      </c>
+      <c r="D185">
+        <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -4348,13 +4317,13 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>189</v>
-      </c>
-      <c r="D186" t="s">
-        <v>26</v>
+        <v>179</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -4362,13 +4331,13 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>189</v>
-      </c>
-      <c r="D187" t="s">
-        <v>27</v>
+        <v>179</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
       </c>
       <c r="E187" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -4376,13 +4345,13 @@
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>189</v>
-      </c>
-      <c r="D188" t="s">
-        <v>28</v>
+        <v>179</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -4390,13 +4359,13 @@
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>189</v>
-      </c>
-      <c r="D189" t="s">
-        <v>29</v>
+        <v>179</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
       </c>
       <c r="E189" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -4404,13 +4373,13 @@
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>189</v>
-      </c>
-      <c r="D190" t="s">
-        <v>30</v>
+        <v>179</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -4418,13 +4387,13 @@
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>189</v>
-      </c>
-      <c r="D191" t="s">
-        <v>31</v>
+        <v>179</v>
+      </c>
+      <c r="D191">
+        <v>6</v>
       </c>
       <c r="E191" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -4432,13 +4401,13 @@
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>194</v>
-      </c>
-      <c r="D192" t="s">
-        <v>26</v>
+        <v>184</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -4446,13 +4415,13 @@
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>194</v>
-      </c>
-      <c r="D193" t="s">
-        <v>27</v>
+        <v>184</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -4460,13 +4429,13 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>194</v>
-      </c>
-      <c r="D194" t="s">
-        <v>28</v>
+        <v>184</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -4474,13 +4443,13 @@
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>194</v>
-      </c>
-      <c r="D195" t="s">
-        <v>29</v>
+        <v>184</v>
+      </c>
+      <c r="D195">
+        <v>4</v>
       </c>
       <c r="E195" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -4488,13 +4457,13 @@
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>194</v>
-      </c>
-      <c r="D196" t="s">
-        <v>30</v>
+        <v>184</v>
+      </c>
+      <c r="D196">
+        <v>5</v>
       </c>
       <c r="E196" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -4502,13 +4471,13 @@
         <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>196</v>
-      </c>
-      <c r="D197" t="s">
-        <v>26</v>
+        <v>186</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -4516,13 +4485,13 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>196</v>
-      </c>
-      <c r="D198" t="s">
-        <v>27</v>
+        <v>186</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -4530,13 +4499,13 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>196</v>
-      </c>
-      <c r="D199" t="s">
-        <v>28</v>
+        <v>186</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -4544,13 +4513,13 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>196</v>
-      </c>
-      <c r="D200" t="s">
-        <v>29</v>
+        <v>186</v>
+      </c>
+      <c r="D200">
+        <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -4558,13 +4527,13 @@
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>196</v>
-      </c>
-      <c r="D201" t="s">
-        <v>30</v>
+        <v>186</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
       </c>
       <c r="E201" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -4572,13 +4541,13 @@
         <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>202</v>
-      </c>
-      <c r="D202" t="s">
-        <v>26</v>
+        <v>192</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -4586,13 +4555,13 @@
         <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>202</v>
-      </c>
-      <c r="D203" t="s">
-        <v>27</v>
+        <v>192</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
       </c>
       <c r="E203" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -4600,13 +4569,13 @@
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>202</v>
-      </c>
-      <c r="D204" t="s">
-        <v>28</v>
+        <v>192</v>
+      </c>
+      <c r="D204">
+        <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -4614,13 +4583,13 @@
         <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>202</v>
-      </c>
-      <c r="D205" t="s">
-        <v>29</v>
+        <v>192</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
       </c>
       <c r="E205" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -4628,13 +4597,13 @@
         <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
-      </c>
-      <c r="D206" t="s">
-        <v>26</v>
+        <v>197</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -4642,13 +4611,13 @@
         <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>207</v>
-      </c>
-      <c r="D207" t="s">
-        <v>27</v>
+        <v>197</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
       </c>
       <c r="E207" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -4656,13 +4625,13 @@
         <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>207</v>
-      </c>
-      <c r="D208" t="s">
-        <v>28</v>
+        <v>197</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -4670,13 +4639,13 @@
         <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>207</v>
-      </c>
-      <c r="D209" t="s">
-        <v>29</v>
+        <v>197</v>
+      </c>
+      <c r="D209">
+        <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -4684,13 +4653,13 @@
         <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>207</v>
-      </c>
-      <c r="D210" t="s">
-        <v>30</v>
+        <v>197</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -4698,13 +4667,13 @@
         <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>213</v>
-      </c>
-      <c r="D211" t="s">
-        <v>26</v>
+        <v>203</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -4712,13 +4681,13 @@
         <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
-      </c>
-      <c r="D212" t="s">
-        <v>27</v>
+        <v>203</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
       </c>
       <c r="E212" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -4726,13 +4695,13 @@
         <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>213</v>
-      </c>
-      <c r="D213" t="s">
-        <v>28</v>
+        <v>203</v>
+      </c>
+      <c r="D213">
+        <v>3</v>
       </c>
       <c r="E213" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -4740,13 +4709,13 @@
         <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>213</v>
-      </c>
-      <c r="D214" t="s">
-        <v>29</v>
+        <v>203</v>
+      </c>
+      <c r="D214">
+        <v>4</v>
       </c>
       <c r="E214" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -4754,13 +4723,13 @@
         <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>217</v>
-      </c>
-      <c r="D215" t="s">
-        <v>26</v>
+        <v>207</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -4768,13 +4737,13 @@
         <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>217</v>
-      </c>
-      <c r="D216" t="s">
-        <v>27</v>
+        <v>207</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
       </c>
       <c r="E216" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -4782,13 +4751,13 @@
         <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>217</v>
-      </c>
-      <c r="D217" t="s">
-        <v>28</v>
+        <v>207</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -4796,13 +4765,13 @@
         <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>217</v>
-      </c>
-      <c r="D218" t="s">
-        <v>29</v>
+        <v>207</v>
+      </c>
+      <c r="D218">
+        <v>4</v>
       </c>
       <c r="E218" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -4810,13 +4779,13 @@
         <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>217</v>
-      </c>
-      <c r="D219" t="s">
-        <v>30</v>
+        <v>207</v>
+      </c>
+      <c r="D219">
+        <v>5</v>
       </c>
       <c r="E219" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -4824,13 +4793,13 @@
         <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>217</v>
-      </c>
-      <c r="D220" t="s">
-        <v>31</v>
+        <v>213</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -4838,13 +4807,13 @@
         <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>224</v>
-      </c>
-      <c r="D221" t="s">
-        <v>26</v>
+        <v>213</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
       </c>
       <c r="E221" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -4852,13 +4821,13 @@
         <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>224</v>
-      </c>
-      <c r="D222" t="s">
-        <v>27</v>
+        <v>213</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -4866,13 +4835,13 @@
         <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>224</v>
-      </c>
-      <c r="D223" t="s">
-        <v>28</v>
+        <v>213</v>
+      </c>
+      <c r="D223">
+        <v>4</v>
       </c>
       <c r="E223" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -4880,13 +4849,13 @@
         <v>223</v>
       </c>
       <c r="C224" t="s">
-        <v>224</v>
-      </c>
-      <c r="D224" t="s">
-        <v>29</v>
+        <v>218</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
       </c>
       <c r="E224" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -4894,13 +4863,13 @@
         <v>224</v>
       </c>
       <c r="C225" t="s">
-        <v>229</v>
-      </c>
-      <c r="D225" t="s">
-        <v>26</v>
+        <v>218</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -4908,13 +4877,13 @@
         <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>229</v>
-      </c>
-      <c r="D226" t="s">
-        <v>27</v>
+        <v>218</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -4922,13 +4891,13 @@
         <v>226</v>
       </c>
       <c r="C227" t="s">
-        <v>229</v>
-      </c>
-      <c r="D227" t="s">
-        <v>28</v>
+        <v>218</v>
+      </c>
+      <c r="D227">
+        <v>4</v>
       </c>
       <c r="E227" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -4936,13 +4905,13 @@
         <v>227</v>
       </c>
       <c r="C228" t="s">
-        <v>229</v>
-      </c>
-      <c r="D228" t="s">
-        <v>29</v>
+        <v>223</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -4950,13 +4919,13 @@
         <v>228</v>
       </c>
       <c r="C229" t="s">
-        <v>234</v>
-      </c>
-      <c r="D229" t="s">
-        <v>26</v>
+        <v>223</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
       </c>
       <c r="E229" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -4964,13 +4933,13 @@
         <v>229</v>
       </c>
       <c r="C230" t="s">
-        <v>234</v>
-      </c>
-      <c r="D230" t="s">
-        <v>27</v>
+        <v>223</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -4978,13 +4947,13 @@
         <v>230</v>
       </c>
       <c r="C231" t="s">
-        <v>234</v>
-      </c>
-      <c r="D231" t="s">
-        <v>28</v>
+        <v>223</v>
+      </c>
+      <c r="D231">
+        <v>4</v>
       </c>
       <c r="E231" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -4992,13 +4961,13 @@
         <v>231</v>
       </c>
       <c r="C232" t="s">
-        <v>234</v>
-      </c>
-      <c r="D232" t="s">
-        <v>29</v>
+        <v>224</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -5006,13 +4975,13 @@
         <v>232</v>
       </c>
       <c r="C233" t="s">
-        <v>235</v>
-      </c>
-      <c r="D233" t="s">
-        <v>26</v>
+        <v>224</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -5020,13 +4989,13 @@
         <v>233</v>
       </c>
       <c r="C234" t="s">
-        <v>235</v>
-      </c>
-      <c r="D234" t="s">
-        <v>27</v>
+        <v>224</v>
+      </c>
+      <c r="D234">
+        <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -5034,13 +5003,13 @@
         <v>234</v>
       </c>
       <c r="C235" t="s">
-        <v>235</v>
-      </c>
-      <c r="D235" t="s">
-        <v>28</v>
+        <v>224</v>
+      </c>
+      <c r="D235">
+        <v>4</v>
       </c>
       <c r="E235" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -5048,13 +5017,13 @@
         <v>235</v>
       </c>
       <c r="C236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D236" t="s">
-        <v>29</v>
+        <v>224</v>
+      </c>
+      <c r="D236">
+        <v>5</v>
       </c>
       <c r="E236" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -5062,13 +5031,13 @@
         <v>236</v>
       </c>
       <c r="C237" t="s">
-        <v>235</v>
-      </c>
-      <c r="D237" t="s">
-        <v>30</v>
+        <v>224</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
       </c>
       <c r="E237" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -5076,13 +5045,13 @@
         <v>237</v>
       </c>
       <c r="C238" t="s">
-        <v>235</v>
-      </c>
-      <c r="D238" t="s">
-        <v>31</v>
+        <v>224</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
       </c>
       <c r="E238" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -5090,13 +5059,13 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>235</v>
-      </c>
-      <c r="D239" t="s">
-        <v>124</v>
+        <v>224</v>
+      </c>
+      <c r="D239">
+        <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -5104,13 +5073,13 @@
         <v>239</v>
       </c>
       <c r="C240" t="s">
-        <v>235</v>
-      </c>
-      <c r="D240" t="s">
-        <v>125</v>
+        <v>224</v>
+      </c>
+      <c r="D240">
+        <v>4</v>
       </c>
       <c r="E240" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -5118,13 +5087,13 @@
         <v>240</v>
       </c>
       <c r="C241" t="s">
-        <v>235</v>
-      </c>
-      <c r="D241" t="s">
-        <v>126</v>
+        <v>234</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
       </c>
       <c r="E241" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -5132,13 +5101,13 @@
         <v>241</v>
       </c>
       <c r="C242" t="s">
-        <v>245</v>
-      </c>
-      <c r="D242" t="s">
-        <v>26</v>
+        <v>234</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
       </c>
       <c r="E242" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -5146,13 +5115,13 @@
         <v>242</v>
       </c>
       <c r="C243" t="s">
-        <v>245</v>
-      </c>
-      <c r="D243" t="s">
-        <v>27</v>
+        <v>234</v>
+      </c>
+      <c r="D243">
+        <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -5160,13 +5129,13 @@
         <v>243</v>
       </c>
       <c r="C244" t="s">
-        <v>245</v>
-      </c>
-      <c r="D244" t="s">
-        <v>28</v>
+        <v>236</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -5174,13 +5143,13 @@
         <v>244</v>
       </c>
       <c r="C245" t="s">
-        <v>247</v>
-      </c>
-      <c r="D245" t="s">
-        <v>26</v>
+        <v>236</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
       </c>
       <c r="E245" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -5188,13 +5157,13 @@
         <v>245</v>
       </c>
       <c r="C246" t="s">
-        <v>247</v>
-      </c>
-      <c r="D246" t="s">
-        <v>27</v>
+        <v>236</v>
+      </c>
+      <c r="D246">
+        <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -5202,13 +5171,13 @@
         <v>246</v>
       </c>
       <c r="C247" t="s">
-        <v>247</v>
-      </c>
-      <c r="D247" t="s">
-        <v>28</v>
+        <v>236</v>
+      </c>
+      <c r="D247">
+        <v>4</v>
       </c>
       <c r="E247" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -5216,13 +5185,13 @@
         <v>247</v>
       </c>
       <c r="C248" t="s">
-        <v>247</v>
-      </c>
-      <c r="D248" t="s">
-        <v>29</v>
+        <v>236</v>
+      </c>
+      <c r="D248">
+        <v>5</v>
       </c>
       <c r="E248" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -5230,13 +5199,13 @@
         <v>248</v>
       </c>
       <c r="C249" t="s">
-        <v>247</v>
-      </c>
-      <c r="D249" t="s">
-        <v>30</v>
+        <v>242</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
       </c>
       <c r="E249" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -5244,13 +5213,13 @@
         <v>249</v>
       </c>
       <c r="C250" t="s">
-        <v>253</v>
-      </c>
-      <c r="D250" t="s">
-        <v>26</v>
+        <v>242</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
       </c>
       <c r="E250" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -5258,13 +5227,13 @@
         <v>250</v>
       </c>
       <c r="C251" t="s">
-        <v>253</v>
-      </c>
-      <c r="D251" t="s">
-        <v>27</v>
+        <v>242</v>
+      </c>
+      <c r="D251">
+        <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -5272,13 +5241,13 @@
         <v>251</v>
       </c>
       <c r="C252" t="s">
-        <v>253</v>
-      </c>
-      <c r="D252" t="s">
-        <v>28</v>
+        <v>242</v>
+      </c>
+      <c r="D252">
+        <v>4</v>
       </c>
       <c r="E252" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -5286,13 +5255,13 @@
         <v>252</v>
       </c>
       <c r="C253" t="s">
-        <v>253</v>
-      </c>
-      <c r="D253" t="s">
-        <v>29</v>
+        <v>242</v>
+      </c>
+      <c r="D253">
+        <v>5</v>
       </c>
       <c r="E253" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -5300,13 +5269,13 @@
         <v>253</v>
       </c>
       <c r="C254" t="s">
-        <v>253</v>
-      </c>
-      <c r="D254" t="s">
-        <v>30</v>
+        <v>248</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -5314,13 +5283,13 @@
         <v>254</v>
       </c>
       <c r="C255" t="s">
-        <v>259</v>
-      </c>
-      <c r="D255" t="s">
-        <v>26</v>
+        <v>248</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
       </c>
       <c r="E255" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -5328,13 +5297,13 @@
         <v>255</v>
       </c>
       <c r="C256" t="s">
-        <v>259</v>
-      </c>
-      <c r="D256" t="s">
-        <v>27</v>
+        <v>248</v>
+      </c>
+      <c r="D256">
+        <v>3</v>
       </c>
       <c r="E256" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -5342,13 +5311,13 @@
         <v>256</v>
       </c>
       <c r="C257" t="s">
-        <v>259</v>
-      </c>
-      <c r="D257" t="s">
-        <v>28</v>
+        <v>248</v>
+      </c>
+      <c r="D257">
+        <v>4</v>
       </c>
       <c r="E257" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -5356,13 +5325,13 @@
         <v>257</v>
       </c>
       <c r="C258" t="s">
-        <v>259</v>
-      </c>
-      <c r="D258" t="s">
-        <v>29</v>
+        <v>250</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
       </c>
       <c r="E258" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -5370,13 +5339,13 @@
         <v>258</v>
       </c>
       <c r="C259" t="s">
-        <v>261</v>
-      </c>
-      <c r="D259" t="s">
-        <v>26</v>
+        <v>250</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
       </c>
       <c r="E259" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -5384,13 +5353,13 @@
         <v>259</v>
       </c>
       <c r="C260" t="s">
-        <v>261</v>
-      </c>
-      <c r="D260" t="s">
-        <v>27</v>
+        <v>250</v>
+      </c>
+      <c r="D260">
+        <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -5398,13 +5367,13 @@
         <v>260</v>
       </c>
       <c r="C261" t="s">
-        <v>261</v>
-      </c>
-      <c r="D261" t="s">
-        <v>28</v>
+        <v>250</v>
+      </c>
+      <c r="D261">
+        <v>4</v>
       </c>
       <c r="E261" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -5412,13 +5381,13 @@
         <v>261</v>
       </c>
       <c r="C262" t="s">
-        <v>261</v>
-      </c>
-      <c r="D262" t="s">
-        <v>29</v>
+        <v>253</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
       </c>
       <c r="E262" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -5426,13 +5395,13 @@
         <v>262</v>
       </c>
       <c r="C263" t="s">
-        <v>264</v>
-      </c>
-      <c r="D263" t="s">
-        <v>26</v>
+        <v>253</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
       </c>
       <c r="E263" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -5440,13 +5409,13 @@
         <v>263</v>
       </c>
       <c r="C264" t="s">
-        <v>264</v>
-      </c>
-      <c r="D264" t="s">
-        <v>27</v>
+        <v>253</v>
+      </c>
+      <c r="D264">
+        <v>3</v>
       </c>
       <c r="E264" t="s">
-        <v>266</v>
+        <v>43</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -5454,13 +5423,13 @@
         <v>264</v>
       </c>
       <c r="C265" t="s">
-        <v>264</v>
-      </c>
-      <c r="D265" t="s">
-        <v>28</v>
+        <v>253</v>
+      </c>
+      <c r="D265">
+        <v>4</v>
       </c>
       <c r="E265" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -5468,13 +5437,13 @@
         <v>265</v>
       </c>
       <c r="C266" t="s">
-        <v>264</v>
-      </c>
-      <c r="D266" t="s">
-        <v>29</v>
+        <v>256</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
       </c>
       <c r="E266" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -5482,13 +5451,13 @@
         <v>266</v>
       </c>
       <c r="C267" t="s">
-        <v>267</v>
-      </c>
-      <c r="D267" t="s">
-        <v>26</v>
+        <v>256</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
       </c>
       <c r="E267" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -5496,13 +5465,13 @@
         <v>267</v>
       </c>
       <c r="C268" t="s">
-        <v>267</v>
-      </c>
-      <c r="D268" t="s">
-        <v>27</v>
+        <v>256</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -5510,13 +5479,13 @@
         <v>268</v>
       </c>
       <c r="C269" t="s">
-        <v>267</v>
-      </c>
-      <c r="D269" t="s">
-        <v>28</v>
+        <v>256</v>
+      </c>
+      <c r="D269">
+        <v>4</v>
       </c>
       <c r="E269" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -5524,13 +5493,13 @@
         <v>269</v>
       </c>
       <c r="C270" t="s">
-        <v>267</v>
-      </c>
-      <c r="D270" t="s">
-        <v>29</v>
+        <v>256</v>
+      </c>
+      <c r="D270">
+        <v>5</v>
       </c>
       <c r="E270" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -5538,13 +5507,13 @@
         <v>270</v>
       </c>
       <c r="C271" t="s">
-        <v>267</v>
-      </c>
-      <c r="D271" t="s">
-        <v>30</v>
+        <v>262</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
       </c>
       <c r="E271" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -5552,13 +5521,13 @@
         <v>271</v>
       </c>
       <c r="C272" t="s">
-        <v>273</v>
-      </c>
-      <c r="D272" t="s">
-        <v>26</v>
+        <v>262</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
       </c>
       <c r="E272" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -5566,13 +5535,13 @@
         <v>272</v>
       </c>
       <c r="C273" t="s">
-        <v>273</v>
-      </c>
-      <c r="D273" t="s">
-        <v>27</v>
+        <v>262</v>
+      </c>
+      <c r="D273">
+        <v>3</v>
       </c>
       <c r="E273" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -5580,13 +5549,13 @@
         <v>273</v>
       </c>
       <c r="C274" t="s">
-        <v>273</v>
-      </c>
-      <c r="D274" t="s">
-        <v>28</v>
+        <v>262</v>
+      </c>
+      <c r="D274">
+        <v>4</v>
       </c>
       <c r="E274" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -5594,13 +5563,13 @@
         <v>274</v>
       </c>
       <c r="C275" t="s">
-        <v>273</v>
-      </c>
-      <c r="D275" t="s">
-        <v>29</v>
+        <v>265</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
       </c>
       <c r="E275" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -5608,13 +5577,13 @@
         <v>275</v>
       </c>
       <c r="C276" t="s">
-        <v>276</v>
-      </c>
-      <c r="D276" t="s">
-        <v>26</v>
+        <v>265</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
       </c>
       <c r="E276" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -5622,13 +5591,13 @@
         <v>276</v>
       </c>
       <c r="C277" t="s">
-        <v>276</v>
-      </c>
-      <c r="D277" t="s">
-        <v>27</v>
+        <v>265</v>
+      </c>
+      <c r="D277">
+        <v>3</v>
       </c>
       <c r="E277" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -5636,13 +5605,13 @@
         <v>277</v>
       </c>
       <c r="C278" t="s">
-        <v>276</v>
-      </c>
-      <c r="D278" t="s">
-        <v>28</v>
+        <v>265</v>
+      </c>
+      <c r="D278">
+        <v>4</v>
       </c>
       <c r="E278" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -5650,13 +5619,13 @@
         <v>278</v>
       </c>
       <c r="C279" t="s">
-        <v>276</v>
-      </c>
-      <c r="D279" t="s">
-        <v>29</v>
+        <v>265</v>
+      </c>
+      <c r="D279">
+        <v>5</v>
       </c>
       <c r="E279" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -5664,13 +5633,13 @@
         <v>279</v>
       </c>
       <c r="C280" t="s">
-        <v>276</v>
-      </c>
-      <c r="D280" t="s">
-        <v>30</v>
+        <v>271</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
       </c>
       <c r="E280" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -5678,13 +5647,13 @@
         <v>280</v>
       </c>
       <c r="C281" t="s">
-        <v>282</v>
-      </c>
-      <c r="D281" t="s">
-        <v>26</v>
+        <v>271</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
       </c>
       <c r="E281" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -5692,13 +5661,13 @@
         <v>281</v>
       </c>
       <c r="C282" t="s">
-        <v>282</v>
-      </c>
-      <c r="D282" t="s">
-        <v>27</v>
+        <v>271</v>
+      </c>
+      <c r="D282">
+        <v>3</v>
       </c>
       <c r="E282" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -5706,13 +5675,13 @@
         <v>282</v>
       </c>
       <c r="C283" t="s">
-        <v>282</v>
-      </c>
-      <c r="D283" t="s">
-        <v>28</v>
+        <v>271</v>
+      </c>
+      <c r="D283">
+        <v>4</v>
       </c>
       <c r="E283" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -5720,13 +5689,13 @@
         <v>283</v>
       </c>
       <c r="C284" t="s">
-        <v>282</v>
-      </c>
-      <c r="D284" t="s">
-        <v>29</v>
+        <v>271</v>
+      </c>
+      <c r="D284">
+        <v>5</v>
       </c>
       <c r="E284" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -5734,13 +5703,13 @@
         <v>284</v>
       </c>
       <c r="C285" t="s">
-        <v>282</v>
-      </c>
-      <c r="D285" t="s">
-        <v>30</v>
+        <v>276</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
       </c>
       <c r="E285" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -5748,13 +5717,13 @@
         <v>285</v>
       </c>
       <c r="C286" t="s">
-        <v>287</v>
-      </c>
-      <c r="D286" t="s">
-        <v>26</v>
+        <v>276</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
       </c>
       <c r="E286" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -5762,13 +5731,13 @@
         <v>286</v>
       </c>
       <c r="C287" t="s">
-        <v>287</v>
-      </c>
-      <c r="D287" t="s">
-        <v>27</v>
+        <v>276</v>
+      </c>
+      <c r="D287">
+        <v>3</v>
       </c>
       <c r="E287" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -5776,13 +5745,13 @@
         <v>287</v>
       </c>
       <c r="C288" t="s">
-        <v>287</v>
-      </c>
-      <c r="D288" t="s">
-        <v>28</v>
+        <v>276</v>
+      </c>
+      <c r="D288">
+        <v>4</v>
       </c>
       <c r="E288" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -5790,13 +5759,13 @@
         <v>288</v>
       </c>
       <c r="C289" t="s">
-        <v>287</v>
-      </c>
-      <c r="D289" t="s">
-        <v>29</v>
+        <v>277</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
       </c>
       <c r="E289" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -5804,13 +5773,13 @@
         <v>289</v>
       </c>
       <c r="C290" t="s">
-        <v>288</v>
-      </c>
-      <c r="D290" t="s">
-        <v>26</v>
+        <v>277</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
       </c>
       <c r="E290" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -5818,13 +5787,13 @@
         <v>290</v>
       </c>
       <c r="C291" t="s">
-        <v>288</v>
-      </c>
-      <c r="D291" t="s">
-        <v>27</v>
+        <v>277</v>
+      </c>
+      <c r="D291">
+        <v>3</v>
       </c>
       <c r="E291" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -5832,13 +5801,13 @@
         <v>291</v>
       </c>
       <c r="C292" t="s">
-        <v>288</v>
-      </c>
-      <c r="D292" t="s">
-        <v>28</v>
+        <v>277</v>
+      </c>
+      <c r="D292">
+        <v>4</v>
       </c>
       <c r="E292" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -5846,13 +5815,13 @@
         <v>292</v>
       </c>
       <c r="C293" t="s">
-        <v>288</v>
-      </c>
-      <c r="D293" t="s">
-        <v>29</v>
+        <v>277</v>
+      </c>
+      <c r="D293">
+        <v>5</v>
       </c>
       <c r="E293" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -5860,13 +5829,13 @@
         <v>293</v>
       </c>
       <c r="C294" t="s">
-        <v>288</v>
-      </c>
-      <c r="D294" t="s">
-        <v>30</v>
+        <v>283</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
       </c>
       <c r="E294" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -5874,13 +5843,13 @@
         <v>294</v>
       </c>
       <c r="C295" t="s">
-        <v>294</v>
-      </c>
-      <c r="D295" t="s">
-        <v>26</v>
+        <v>283</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
       </c>
       <c r="E295" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -5888,13 +5857,13 @@
         <v>295</v>
       </c>
       <c r="C296" t="s">
-        <v>294</v>
-      </c>
-      <c r="D296" t="s">
-        <v>27</v>
+        <v>283</v>
+      </c>
+      <c r="D296">
+        <v>3</v>
       </c>
       <c r="E296" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -5902,13 +5871,13 @@
         <v>296</v>
       </c>
       <c r="C297" t="s">
-        <v>294</v>
-      </c>
-      <c r="D297" t="s">
-        <v>28</v>
+        <v>283</v>
+      </c>
+      <c r="D297">
+        <v>4</v>
       </c>
       <c r="E297" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -5916,13 +5885,13 @@
         <v>297</v>
       </c>
       <c r="C298" t="s">
-        <v>294</v>
-      </c>
-      <c r="D298" t="s">
-        <v>29</v>
+        <v>283</v>
+      </c>
+      <c r="D298">
+        <v>5</v>
       </c>
       <c r="E298" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -5930,13 +5899,13 @@
         <v>298</v>
       </c>
       <c r="C299" t="s">
-        <v>294</v>
-      </c>
-      <c r="D299" t="s">
-        <v>30</v>
+        <v>288</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
       </c>
       <c r="E299" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -5944,13 +5913,13 @@
         <v>299</v>
       </c>
       <c r="C300" t="s">
-        <v>299</v>
-      </c>
-      <c r="D300" t="s">
-        <v>26</v>
+        <v>288</v>
+      </c>
+      <c r="D300">
+        <v>2</v>
       </c>
       <c r="E300" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -5958,13 +5927,13 @@
         <v>300</v>
       </c>
       <c r="C301" t="s">
-        <v>299</v>
-      </c>
-      <c r="D301" t="s">
-        <v>27</v>
+        <v>288</v>
+      </c>
+      <c r="D301">
+        <v>3</v>
       </c>
       <c r="E301" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -5972,13 +5941,13 @@
         <v>301</v>
       </c>
       <c r="C302" t="s">
-        <v>299</v>
-      </c>
-      <c r="D302" t="s">
-        <v>28</v>
+        <v>288</v>
+      </c>
+      <c r="D302">
+        <v>4</v>
       </c>
       <c r="E302" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -5986,13 +5955,13 @@
         <v>302</v>
       </c>
       <c r="C303" t="s">
-        <v>299</v>
-      </c>
-      <c r="D303" t="s">
-        <v>29</v>
+        <v>288</v>
+      </c>
+      <c r="D303">
+        <v>5</v>
       </c>
       <c r="E303" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -6000,13 +5969,13 @@
         <v>303</v>
       </c>
       <c r="C304" t="s">
-        <v>299</v>
-      </c>
-      <c r="D304" t="s">
-        <v>30</v>
+        <v>290</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
       </c>
       <c r="E304" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -6014,13 +5983,13 @@
         <v>304</v>
       </c>
       <c r="C305" t="s">
-        <v>301</v>
-      </c>
-      <c r="D305" t="s">
-        <v>26</v>
+        <v>290</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
       </c>
       <c r="E305" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -6028,13 +5997,13 @@
         <v>305</v>
       </c>
       <c r="C306" t="s">
-        <v>301</v>
-      </c>
-      <c r="D306" t="s">
-        <v>27</v>
+        <v>290</v>
+      </c>
+      <c r="D306">
+        <v>3</v>
       </c>
       <c r="E306" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -6042,13 +6011,13 @@
         <v>306</v>
       </c>
       <c r="C307" t="s">
-        <v>301</v>
-      </c>
-      <c r="D307" t="s">
-        <v>28</v>
+        <v>290</v>
+      </c>
+      <c r="D307">
+        <v>4</v>
       </c>
       <c r="E307" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -6056,13 +6025,13 @@
         <v>307</v>
       </c>
       <c r="C308" t="s">
-        <v>301</v>
-      </c>
-      <c r="D308" t="s">
-        <v>29</v>
+        <v>295</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
       </c>
       <c r="E308" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -6070,13 +6039,13 @@
         <v>308</v>
       </c>
       <c r="C309" t="s">
-        <v>306</v>
-      </c>
-      <c r="D309" t="s">
-        <v>26</v>
+        <v>295</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
       </c>
       <c r="E309" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -6084,13 +6053,13 @@
         <v>309</v>
       </c>
       <c r="C310" t="s">
-        <v>306</v>
-      </c>
-      <c r="D310" t="s">
-        <v>27</v>
+        <v>295</v>
+      </c>
+      <c r="D310">
+        <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -6098,13 +6067,13 @@
         <v>310</v>
       </c>
       <c r="C311" t="s">
-        <v>306</v>
-      </c>
-      <c r="D311" t="s">
-        <v>28</v>
+        <v>295</v>
+      </c>
+      <c r="D311">
+        <v>4</v>
       </c>
       <c r="E311" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -6112,13 +6081,13 @@
         <v>311</v>
       </c>
       <c r="C312" t="s">
+        <v>300</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312" t="s">
         <v>306</v>
-      </c>
-      <c r="D312" t="s">
-        <v>29</v>
-      </c>
-      <c r="E312" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -6126,13 +6095,13 @@
         <v>312</v>
       </c>
       <c r="C313" t="s">
-        <v>311</v>
-      </c>
-      <c r="D313" t="s">
-        <v>26</v>
+        <v>300</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
       </c>
       <c r="E313" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -6140,13 +6109,13 @@
         <v>313</v>
       </c>
       <c r="C314" t="s">
-        <v>311</v>
-      </c>
-      <c r="D314" t="s">
-        <v>27</v>
+        <v>300</v>
+      </c>
+      <c r="D314">
+        <v>3</v>
       </c>
       <c r="E314" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -6154,13 +6123,13 @@
         <v>314</v>
       </c>
       <c r="C315" t="s">
-        <v>311</v>
-      </c>
-      <c r="D315" t="s">
-        <v>28</v>
+        <v>300</v>
+      </c>
+      <c r="D315">
+        <v>4</v>
       </c>
       <c r="E315" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -6168,13 +6137,13 @@
         <v>315</v>
       </c>
       <c r="C316" t="s">
-        <v>311</v>
-      </c>
-      <c r="D316" t="s">
-        <v>29</v>
+        <v>300</v>
+      </c>
+      <c r="D316">
+        <v>5</v>
       </c>
       <c r="E316" t="s">
-        <v>270</v>
+        <v>60</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -6182,13 +6151,13 @@
         <v>316</v>
       </c>
       <c r="C317" t="s">
-        <v>311</v>
-      </c>
-      <c r="D317" t="s">
-        <v>30</v>
+        <v>300</v>
+      </c>
+      <c r="D317">
+        <v>6</v>
       </c>
       <c r="E317" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -6196,13 +6165,13 @@
         <v>317</v>
       </c>
       <c r="C318" t="s">
-        <v>311</v>
-      </c>
-      <c r="D318" t="s">
-        <v>31</v>
+        <v>300</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
       </c>
       <c r="E318" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -6210,13 +6179,13 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>311</v>
-      </c>
-      <c r="D319" t="s">
-        <v>124</v>
+        <v>300</v>
+      </c>
+      <c r="D319">
+        <v>2</v>
       </c>
       <c r="E319" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -6224,13 +6193,13 @@
         <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>311</v>
-      </c>
-      <c r="D320" t="s">
-        <v>125</v>
+        <v>300</v>
+      </c>
+      <c r="D320">
+        <v>3</v>
       </c>
       <c r="E320" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -6238,13 +6207,13 @@
         <v>320</v>
       </c>
       <c r="C321" t="s">
-        <v>311</v>
-      </c>
-      <c r="D321" t="s">
-        <v>126</v>
+        <v>300</v>
+      </c>
+      <c r="D321">
+        <v>4</v>
       </c>
       <c r="E321" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -6252,13 +6221,13 @@
         <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>311</v>
-      </c>
-      <c r="D322" t="s">
-        <v>161</v>
+        <v>309</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
       </c>
       <c r="E322" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -6266,13 +6235,13 @@
         <v>322</v>
       </c>
       <c r="C323" t="s">
-        <v>320</v>
-      </c>
-      <c r="D323" t="s">
-        <v>26</v>
+        <v>309</v>
+      </c>
+      <c r="D323">
+        <v>2</v>
       </c>
       <c r="E323" t="s">
-        <v>66</v>
+        <v>310</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -6280,13 +6249,13 @@
         <v>323</v>
       </c>
       <c r="C324" t="s">
-        <v>320</v>
-      </c>
-      <c r="D324" t="s">
-        <v>27</v>
+        <v>309</v>
+      </c>
+      <c r="D324">
+        <v>3</v>
       </c>
       <c r="E324" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -6294,13 +6263,13 @@
         <v>324</v>
       </c>
       <c r="C325" t="s">
-        <v>320</v>
-      </c>
-      <c r="D325" t="s">
-        <v>28</v>
+        <v>309</v>
+      </c>
+      <c r="D325">
+        <v>4</v>
       </c>
       <c r="E325" t="s">
-        <v>321</v>
+        <v>60</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -6308,13 +6277,13 @@
         <v>325</v>
       </c>
       <c r="C326" t="s">
-        <v>320</v>
-      </c>
-      <c r="D326" t="s">
-        <v>29</v>
+        <v>311</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
       </c>
       <c r="E326" t="s">
-        <v>317</v>
+        <v>27</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -6322,13 +6291,13 @@
         <v>326</v>
       </c>
       <c r="C327" t="s">
-        <v>322</v>
-      </c>
-      <c r="D327" t="s">
-        <v>26</v>
+        <v>311</v>
+      </c>
+      <c r="D327">
+        <v>2</v>
       </c>
       <c r="E327" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -6336,13 +6305,13 @@
         <v>327</v>
       </c>
       <c r="C328" t="s">
-        <v>322</v>
-      </c>
-      <c r="D328" t="s">
-        <v>27</v>
+        <v>311</v>
+      </c>
+      <c r="D328">
+        <v>3</v>
       </c>
       <c r="E328" t="s">
-        <v>33</v>
+        <v>312</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -6350,13 +6319,13 @@
         <v>328</v>
       </c>
       <c r="C329" t="s">
-        <v>322</v>
-      </c>
-      <c r="D329" t="s">
-        <v>28</v>
+        <v>311</v>
+      </c>
+      <c r="D329">
+        <v>4</v>
       </c>
       <c r="E329" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -6364,13 +6333,13 @@
         <v>329</v>
       </c>
       <c r="C330" t="s">
-        <v>322</v>
-      </c>
-      <c r="D330" t="s">
-        <v>29</v>
+        <v>311</v>
+      </c>
+      <c r="D330">
+        <v>5</v>
       </c>
       <c r="E330" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -6378,13 +6347,13 @@
         <v>330</v>
       </c>
       <c r="C331" t="s">
-        <v>322</v>
-      </c>
-      <c r="D331" t="s">
-        <v>30</v>
+        <v>316</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
       </c>
       <c r="E331" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -6392,13 +6361,13 @@
         <v>331</v>
       </c>
       <c r="C332" t="s">
-        <v>327</v>
-      </c>
-      <c r="D332" t="s">
-        <v>26</v>
+        <v>316</v>
+      </c>
+      <c r="D332">
+        <v>2</v>
       </c>
       <c r="E332" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -6406,13 +6375,13 @@
         <v>332</v>
       </c>
       <c r="C333" t="s">
-        <v>327</v>
-      </c>
-      <c r="D333" t="s">
-        <v>27</v>
+        <v>316</v>
+      </c>
+      <c r="D333">
+        <v>3</v>
       </c>
       <c r="E333" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -6420,13 +6389,13 @@
         <v>333</v>
       </c>
       <c r="C334" t="s">
-        <v>327</v>
-      </c>
-      <c r="D334" t="s">
-        <v>28</v>
+        <v>316</v>
+      </c>
+      <c r="D334">
+        <v>4</v>
       </c>
       <c r="E334" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -6434,13 +6403,13 @@
         <v>334</v>
       </c>
       <c r="C335" t="s">
-        <v>327</v>
-      </c>
-      <c r="D335" t="s">
-        <v>29</v>
+        <v>321</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
       </c>
       <c r="E335" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -6448,13 +6417,13 @@
         <v>335</v>
       </c>
       <c r="C336" t="s">
-        <v>332</v>
-      </c>
-      <c r="D336" t="s">
-        <v>26</v>
+        <v>321</v>
+      </c>
+      <c r="D336">
+        <v>2</v>
       </c>
       <c r="E336" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -6462,13 +6431,13 @@
         <v>336</v>
       </c>
       <c r="C337" t="s">
-        <v>332</v>
-      </c>
-      <c r="D337" t="s">
-        <v>27</v>
+        <v>321</v>
+      </c>
+      <c r="D337">
+        <v>3</v>
       </c>
       <c r="E337" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -6476,13 +6445,13 @@
         <v>337</v>
       </c>
       <c r="C338" t="s">
-        <v>332</v>
-      </c>
-      <c r="D338" t="s">
-        <v>28</v>
+        <v>321</v>
+      </c>
+      <c r="D338">
+        <v>4</v>
       </c>
       <c r="E338" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -6490,13 +6459,13 @@
         <v>338</v>
       </c>
       <c r="C339" t="s">
-        <v>332</v>
-      </c>
-      <c r="D339" t="s">
-        <v>29</v>
+        <v>321</v>
+      </c>
+      <c r="D339">
+        <v>5</v>
       </c>
       <c r="E339" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -6504,13 +6473,13 @@
         <v>339</v>
       </c>
       <c r="C340" t="s">
-        <v>332</v>
-      </c>
-      <c r="D340" t="s">
-        <v>30</v>
+        <v>327</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
       </c>
       <c r="E340" t="s">
-        <v>337</v>
+        <v>102</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -6518,13 +6487,13 @@
         <v>340</v>
       </c>
       <c r="C341" t="s">
-        <v>338</v>
-      </c>
-      <c r="D341" t="s">
-        <v>26</v>
+        <v>327</v>
+      </c>
+      <c r="D341">
+        <v>2</v>
       </c>
       <c r="E341" t="s">
-        <v>108</v>
+        <v>330</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -6532,13 +6501,13 @@
         <v>341</v>
       </c>
       <c r="C342" t="s">
-        <v>338</v>
-      </c>
-      <c r="D342" t="s">
-        <v>27</v>
+        <v>327</v>
+      </c>
+      <c r="D342">
+        <v>3</v>
       </c>
       <c r="E342" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -6546,13 +6515,13 @@
         <v>342</v>
       </c>
       <c r="C343" t="s">
-        <v>338</v>
-      </c>
-      <c r="D343" t="s">
-        <v>28</v>
+        <v>327</v>
+      </c>
+      <c r="D343">
+        <v>4</v>
       </c>
       <c r="E343" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -6560,13 +6529,13 @@
         <v>343</v>
       </c>
       <c r="C344" t="s">
-        <v>338</v>
-      </c>
-      <c r="D344" t="s">
-        <v>29</v>
+        <v>331</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
       </c>
       <c r="E344" t="s">
-        <v>341</v>
+        <v>37</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -6574,13 +6543,13 @@
         <v>344</v>
       </c>
       <c r="C345" t="s">
-        <v>342</v>
-      </c>
-      <c r="D345" t="s">
-        <v>26</v>
+        <v>331</v>
+      </c>
+      <c r="D345">
+        <v>2</v>
       </c>
       <c r="E345" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -6588,13 +6557,13 @@
         <v>345</v>
       </c>
       <c r="C346" t="s">
-        <v>342</v>
-      </c>
-      <c r="D346" t="s">
-        <v>27</v>
+        <v>331</v>
+      </c>
+      <c r="D346">
+        <v>3</v>
       </c>
       <c r="E346" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -6602,13 +6571,13 @@
         <v>346</v>
       </c>
       <c r="C347" t="s">
-        <v>342</v>
-      </c>
-      <c r="D347" t="s">
-        <v>28</v>
+        <v>331</v>
+      </c>
+      <c r="D347">
+        <v>4</v>
       </c>
       <c r="E347" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -6616,13 +6585,13 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>342</v>
-      </c>
-      <c r="D348" t="s">
-        <v>29</v>
+        <v>331</v>
+      </c>
+      <c r="D348">
+        <v>5</v>
       </c>
       <c r="E348" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -6630,13 +6599,13 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>342</v>
-      </c>
-      <c r="D349" t="s">
-        <v>30</v>
+        <v>335</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
       </c>
       <c r="E349" t="s">
-        <v>38</v>
+        <v>336</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -6644,13 +6613,13 @@
         <v>349</v>
       </c>
       <c r="C350" t="s">
-        <v>346</v>
-      </c>
-      <c r="D350" t="s">
-        <v>26</v>
+        <v>335</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
       </c>
       <c r="E350" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -6658,13 +6627,13 @@
         <v>350</v>
       </c>
       <c r="C351" t="s">
-        <v>346</v>
-      </c>
-      <c r="D351" t="s">
-        <v>27</v>
+        <v>335</v>
+      </c>
+      <c r="D351">
+        <v>3</v>
       </c>
       <c r="E351" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -6672,13 +6641,13 @@
         <v>351</v>
       </c>
       <c r="C352" t="s">
-        <v>346</v>
-      </c>
-      <c r="D352" t="s">
-        <v>28</v>
+        <v>337</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
       </c>
       <c r="E352" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -6686,13 +6655,13 @@
         <v>352</v>
       </c>
       <c r="C353" t="s">
-        <v>348</v>
-      </c>
-      <c r="D353" t="s">
-        <v>26</v>
+        <v>337</v>
+      </c>
+      <c r="D353">
+        <v>2</v>
       </c>
       <c r="E353" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -6700,13 +6669,13 @@
         <v>353</v>
       </c>
       <c r="C354" t="s">
-        <v>348</v>
-      </c>
-      <c r="D354" t="s">
-        <v>27</v>
+        <v>337</v>
+      </c>
+      <c r="D354">
+        <v>3</v>
       </c>
       <c r="E354" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -6714,13 +6683,13 @@
         <v>354</v>
       </c>
       <c r="C355" t="s">
-        <v>348</v>
-      </c>
-      <c r="D355" t="s">
-        <v>28</v>
+        <v>337</v>
+      </c>
+      <c r="D355">
+        <v>4</v>
       </c>
       <c r="E355" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -6728,13 +6697,13 @@
         <v>355</v>
       </c>
       <c r="C356" t="s">
-        <v>348</v>
-      </c>
-      <c r="D356" t="s">
-        <v>29</v>
+        <v>337</v>
+      </c>
+      <c r="D356">
+        <v>5</v>
       </c>
       <c r="E356" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -6742,13 +6711,13 @@
         <v>356</v>
       </c>
       <c r="C357" t="s">
-        <v>348</v>
-      </c>
-      <c r="D357" t="s">
-        <v>30</v>
+        <v>343</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
       </c>
       <c r="E357" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -6756,13 +6725,13 @@
         <v>357</v>
       </c>
       <c r="C358" t="s">
-        <v>354</v>
-      </c>
-      <c r="D358" t="s">
-        <v>26</v>
+        <v>343</v>
+      </c>
+      <c r="D358">
+        <v>2</v>
       </c>
       <c r="E358" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -6770,13 +6739,13 @@
         <v>358</v>
       </c>
       <c r="C359" t="s">
-        <v>354</v>
-      </c>
-      <c r="D359" t="s">
-        <v>27</v>
+        <v>343</v>
+      </c>
+      <c r="D359">
+        <v>3</v>
       </c>
       <c r="E359" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -6784,13 +6753,13 @@
         <v>359</v>
       </c>
       <c r="C360" t="s">
-        <v>354</v>
-      </c>
-      <c r="D360" t="s">
-        <v>28</v>
+        <v>347</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
       </c>
       <c r="E360" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -6798,13 +6767,13 @@
         <v>360</v>
       </c>
       <c r="C361" t="s">
-        <v>358</v>
-      </c>
-      <c r="D361" t="s">
-        <v>26</v>
+        <v>347</v>
+      </c>
+      <c r="D361">
+        <v>2</v>
       </c>
       <c r="E361" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -6812,13 +6781,13 @@
         <v>361</v>
       </c>
       <c r="C362" t="s">
-        <v>358</v>
-      </c>
-      <c r="D362" t="s">
-        <v>27</v>
+        <v>347</v>
+      </c>
+      <c r="D362">
+        <v>3</v>
       </c>
       <c r="E362" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -6826,13 +6795,13 @@
         <v>362</v>
       </c>
       <c r="C363" t="s">
-        <v>358</v>
-      </c>
-      <c r="D363" t="s">
-        <v>28</v>
+        <v>347</v>
+      </c>
+      <c r="D363">
+        <v>4</v>
       </c>
       <c r="E363" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -6840,13 +6809,13 @@
         <v>363</v>
       </c>
       <c r="C364" t="s">
-        <v>358</v>
-      </c>
-      <c r="D364" t="s">
-        <v>29</v>
+        <v>347</v>
+      </c>
+      <c r="D364">
+        <v>5</v>
       </c>
       <c r="E364" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -6854,13 +6823,13 @@
         <v>364</v>
       </c>
       <c r="C365" t="s">
-        <v>358</v>
-      </c>
-      <c r="D365" t="s">
-        <v>30</v>
+        <v>353</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
       </c>
       <c r="E365" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -6868,13 +6837,13 @@
         <v>365</v>
       </c>
       <c r="C366" t="s">
-        <v>364</v>
-      </c>
-      <c r="D366" t="s">
-        <v>26</v>
+        <v>353</v>
+      </c>
+      <c r="D366">
+        <v>2</v>
       </c>
       <c r="E366" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -6882,13 +6851,13 @@
         <v>366</v>
       </c>
       <c r="C367" t="s">
-        <v>364</v>
-      </c>
-      <c r="D367" t="s">
-        <v>27</v>
+        <v>353</v>
+      </c>
+      <c r="D367">
+        <v>3</v>
       </c>
       <c r="E367" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -6896,13 +6865,13 @@
         <v>367</v>
       </c>
       <c r="C368" t="s">
-        <v>364</v>
-      </c>
-      <c r="D368" t="s">
-        <v>28</v>
+        <v>353</v>
+      </c>
+      <c r="D368">
+        <v>4</v>
       </c>
       <c r="E368" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -6910,13 +6879,13 @@
         <v>368</v>
       </c>
       <c r="C369" t="s">
-        <v>364</v>
-      </c>
-      <c r="D369" t="s">
-        <v>29</v>
+        <v>353</v>
+      </c>
+      <c r="D369">
+        <v>5</v>
       </c>
       <c r="E369" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -6924,13 +6893,13 @@
         <v>369</v>
       </c>
       <c r="C370" t="s">
-        <v>364</v>
-      </c>
-      <c r="D370" t="s">
-        <v>30</v>
+        <v>359</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
       </c>
       <c r="E370" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -6938,13 +6907,13 @@
         <v>370</v>
       </c>
       <c r="C371" t="s">
-        <v>370</v>
-      </c>
-      <c r="D371" t="s">
-        <v>26</v>
+        <v>359</v>
+      </c>
+      <c r="D371">
+        <v>2</v>
       </c>
       <c r="E371" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -6952,13 +6921,13 @@
         <v>371</v>
       </c>
       <c r="C372" t="s">
-        <v>370</v>
-      </c>
-      <c r="D372" t="s">
-        <v>27</v>
+        <v>359</v>
+      </c>
+      <c r="D372">
+        <v>3</v>
       </c>
       <c r="E372" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -6966,13 +6935,13 @@
         <v>372</v>
       </c>
       <c r="C373" t="s">
-        <v>370</v>
-      </c>
-      <c r="D373" t="s">
-        <v>28</v>
+        <v>359</v>
+      </c>
+      <c r="D373">
+        <v>4</v>
       </c>
       <c r="E373" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -6980,13 +6949,13 @@
         <v>373</v>
       </c>
       <c r="C374" t="s">
-        <v>370</v>
-      </c>
-      <c r="D374" t="s">
-        <v>29</v>
+        <v>364</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
       </c>
       <c r="E374" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
@@ -6994,13 +6963,13 @@
         <v>374</v>
       </c>
       <c r="C375" t="s">
-        <v>375</v>
-      </c>
-      <c r="D375" t="s">
-        <v>26</v>
+        <v>364</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
       </c>
       <c r="E375" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
@@ -7008,13 +6977,13 @@
         <v>375</v>
       </c>
       <c r="C376" t="s">
-        <v>375</v>
-      </c>
-      <c r="D376" t="s">
-        <v>27</v>
+        <v>364</v>
+      </c>
+      <c r="D376">
+        <v>3</v>
       </c>
       <c r="E376" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
@@ -7022,13 +6991,13 @@
         <v>376</v>
       </c>
       <c r="C377" t="s">
-        <v>375</v>
-      </c>
-      <c r="D377" t="s">
-        <v>28</v>
+        <v>364</v>
+      </c>
+      <c r="D377">
+        <v>4</v>
       </c>
       <c r="E377" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
@@ -7036,13 +7005,13 @@
         <v>377</v>
       </c>
       <c r="C378" t="s">
-        <v>375</v>
-      </c>
-      <c r="D378" t="s">
-        <v>29</v>
+        <v>364</v>
+      </c>
+      <c r="D378">
+        <v>5</v>
       </c>
       <c r="E378" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
@@ -7050,13 +7019,13 @@
         <v>378</v>
       </c>
       <c r="C379" t="s">
-        <v>375</v>
-      </c>
-      <c r="D379" t="s">
-        <v>30</v>
+        <v>370</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
       </c>
       <c r="E379" t="s">
-        <v>380</v>
+        <v>32</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
@@ -7064,13 +7033,13 @@
         <v>379</v>
       </c>
       <c r="C380" t="s">
-        <v>381</v>
-      </c>
-      <c r="D380" t="s">
-        <v>26</v>
+        <v>370</v>
+      </c>
+      <c r="D380">
+        <v>2</v>
       </c>
       <c r="E380" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -7078,13 +7047,13 @@
         <v>380</v>
       </c>
       <c r="C381" t="s">
-        <v>381</v>
-      </c>
-      <c r="D381" t="s">
-        <v>27</v>
+        <v>370</v>
+      </c>
+      <c r="D381">
+        <v>3</v>
       </c>
       <c r="E381" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -7092,13 +7061,13 @@
         <v>381</v>
       </c>
       <c r="C382" t="s">
-        <v>381</v>
-      </c>
-      <c r="D382" t="s">
-        <v>28</v>
+        <v>370</v>
+      </c>
+      <c r="D382">
+        <v>4</v>
       </c>
       <c r="E382" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -7106,13 +7075,13 @@
         <v>382</v>
       </c>
       <c r="C383" t="s">
-        <v>381</v>
-      </c>
-      <c r="D383" t="s">
-        <v>29</v>
+        <v>370</v>
+      </c>
+      <c r="D383">
+        <v>5</v>
       </c>
       <c r="E383" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -7120,13 +7089,13 @@
         <v>383</v>
       </c>
       <c r="C384" t="s">
-        <v>381</v>
-      </c>
-      <c r="D384" t="s">
-        <v>30</v>
+        <v>373</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
       </c>
       <c r="E384" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
@@ -7134,13 +7103,13 @@
         <v>384</v>
       </c>
       <c r="C385" t="s">
-        <v>384</v>
-      </c>
-      <c r="D385" t="s">
-        <v>26</v>
+        <v>373</v>
+      </c>
+      <c r="D385">
+        <v>2</v>
       </c>
       <c r="E385" t="s">
-        <v>183</v>
+        <v>374</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -7148,13 +7117,13 @@
         <v>385</v>
       </c>
       <c r="C386" t="s">
-        <v>384</v>
-      </c>
-      <c r="D386" t="s">
-        <v>27</v>
+        <v>373</v>
+      </c>
+      <c r="D386">
+        <v>3</v>
       </c>
       <c r="E386" t="s">
-        <v>385</v>
+        <v>173</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
@@ -7162,13 +7131,13 @@
         <v>386</v>
       </c>
       <c r="C387" t="s">
-        <v>384</v>
-      </c>
-      <c r="D387" t="s">
-        <v>28</v>
+        <v>373</v>
+      </c>
+      <c r="D387">
+        <v>4</v>
       </c>
       <c r="E387" t="s">
-        <v>186</v>
+        <v>375</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
@@ -7176,13 +7145,13 @@
         <v>387</v>
       </c>
       <c r="C388" t="s">
-        <v>384</v>
-      </c>
-      <c r="D388" t="s">
-        <v>29</v>
+        <v>376</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
       </c>
       <c r="E388" t="s">
-        <v>386</v>
+        <v>102</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
@@ -7190,13 +7159,13 @@
         <v>388</v>
       </c>
       <c r="C389" t="s">
-        <v>387</v>
-      </c>
-      <c r="D389" t="s">
-        <v>26</v>
+        <v>376</v>
+      </c>
+      <c r="D389">
+        <v>2</v>
       </c>
       <c r="E389" t="s">
-        <v>108</v>
+        <v>379</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
@@ -7204,13 +7173,13 @@
         <v>389</v>
       </c>
       <c r="C390" t="s">
-        <v>387</v>
-      </c>
-      <c r="D390" t="s">
-        <v>27</v>
+        <v>376</v>
+      </c>
+      <c r="D390">
+        <v>3</v>
       </c>
       <c r="E390" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
@@ -7218,13 +7187,13 @@
         <v>390</v>
       </c>
       <c r="C391" t="s">
-        <v>387</v>
-      </c>
-      <c r="D391" t="s">
-        <v>28</v>
+        <v>376</v>
+      </c>
+      <c r="D391">
+        <v>4</v>
       </c>
       <c r="E391" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -7232,13 +7201,13 @@
         <v>391</v>
       </c>
       <c r="C392" t="s">
-        <v>387</v>
-      </c>
-      <c r="D392" t="s">
-        <v>29</v>
+        <v>380</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
       </c>
       <c r="E392" t="s">
-        <v>390</v>
+        <v>43</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -7246,13 +7215,13 @@
         <v>392</v>
       </c>
       <c r="C393" t="s">
-        <v>391</v>
-      </c>
-      <c r="D393" t="s">
-        <v>26</v>
+        <v>380</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
       </c>
       <c r="E393" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
@@ -7260,13 +7229,13 @@
         <v>393</v>
       </c>
       <c r="C394" t="s">
-        <v>391</v>
-      </c>
-      <c r="D394" t="s">
-        <v>27</v>
+        <v>380</v>
+      </c>
+      <c r="D394">
+        <v>3</v>
       </c>
       <c r="E394" t="s">
-        <v>49</v>
+        <v>381</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
@@ -7274,13 +7243,13 @@
         <v>394</v>
       </c>
       <c r="C395" t="s">
-        <v>391</v>
-      </c>
-      <c r="D395" t="s">
-        <v>28</v>
+        <v>380</v>
+      </c>
+      <c r="D395">
+        <v>4</v>
       </c>
       <c r="E395" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
@@ -7288,13 +7257,13 @@
         <v>395</v>
       </c>
       <c r="C396" t="s">
-        <v>391</v>
-      </c>
-      <c r="D396" t="s">
-        <v>29</v>
+        <v>380</v>
+      </c>
+      <c r="D396">
+        <v>5</v>
       </c>
       <c r="E396" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
@@ -7302,13 +7271,13 @@
         <v>396</v>
       </c>
       <c r="C397" t="s">
-        <v>391</v>
-      </c>
-      <c r="D397" t="s">
-        <v>30</v>
+        <v>384</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
       </c>
       <c r="E397" t="s">
-        <v>394</v>
+        <v>43</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
@@ -7316,13 +7285,13 @@
         <v>397</v>
       </c>
       <c r="C398" t="s">
-        <v>395</v>
-      </c>
-      <c r="D398" t="s">
-        <v>26</v>
+        <v>384</v>
+      </c>
+      <c r="D398">
+        <v>2</v>
       </c>
       <c r="E398" t="s">
-        <v>49</v>
+        <v>386</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
@@ -7330,13 +7299,13 @@
         <v>398</v>
       </c>
       <c r="C399" t="s">
-        <v>395</v>
-      </c>
-      <c r="D399" t="s">
-        <v>27</v>
+        <v>384</v>
+      </c>
+      <c r="D399">
+        <v>3</v>
       </c>
       <c r="E399" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
@@ -7344,13 +7313,13 @@
         <v>399</v>
       </c>
       <c r="C400" t="s">
-        <v>395</v>
-      </c>
-      <c r="D400" t="s">
-        <v>28</v>
+        <v>384</v>
+      </c>
+      <c r="D400">
+        <v>4</v>
       </c>
       <c r="E400" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -7358,13 +7327,13 @@
         <v>400</v>
       </c>
       <c r="C401" t="s">
+        <v>387</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401" t="s">
         <v>395</v>
-      </c>
-      <c r="D401" t="s">
-        <v>29</v>
-      </c>
-      <c r="E401" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -7372,13 +7341,13 @@
         <v>401</v>
       </c>
       <c r="C402" t="s">
-        <v>398</v>
-      </c>
-      <c r="D402" t="s">
-        <v>26</v>
+        <v>387</v>
+      </c>
+      <c r="D402">
+        <v>2</v>
       </c>
       <c r="E402" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
@@ -7386,13 +7355,13 @@
         <v>402</v>
       </c>
       <c r="C403" t="s">
-        <v>398</v>
-      </c>
-      <c r="D403" t="s">
-        <v>27</v>
+        <v>387</v>
+      </c>
+      <c r="D403">
+        <v>3</v>
       </c>
       <c r="E403" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -7400,13 +7369,13 @@
         <v>403</v>
       </c>
       <c r="C404" t="s">
-        <v>398</v>
-      </c>
-      <c r="D404" t="s">
-        <v>28</v>
+        <v>387</v>
+      </c>
+      <c r="D404">
+        <v>4</v>
       </c>
       <c r="E404" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
@@ -7414,13 +7383,13 @@
         <v>404</v>
       </c>
       <c r="C405" t="s">
-        <v>398</v>
-      </c>
-      <c r="D405" t="s">
-        <v>29</v>
+        <v>387</v>
+      </c>
+      <c r="D405">
+        <v>5</v>
       </c>
       <c r="E405" t="s">
-        <v>402</v>
+        <v>200</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
@@ -7428,13 +7397,13 @@
         <v>405</v>
       </c>
       <c r="C406" t="s">
-        <v>398</v>
-      </c>
-      <c r="D406" t="s">
-        <v>30</v>
+        <v>387</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
       </c>
       <c r="E406" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
@@ -7442,13 +7411,13 @@
         <v>406</v>
       </c>
       <c r="C407" t="s">
-        <v>398</v>
-      </c>
-      <c r="D407" t="s">
-        <v>31</v>
+        <v>387</v>
+      </c>
+      <c r="D407">
+        <v>2</v>
       </c>
       <c r="E407" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
@@ -7456,13 +7425,13 @@
         <v>407</v>
       </c>
       <c r="C408" t="s">
-        <v>398</v>
-      </c>
-      <c r="D408" t="s">
-        <v>124</v>
+        <v>387</v>
+      </c>
+      <c r="D408">
+        <v>3</v>
       </c>
       <c r="E408" t="s">
-        <v>210</v>
+        <v>392</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
@@ -7470,13 +7439,13 @@
         <v>408</v>
       </c>
       <c r="C409" t="s">
-        <v>398</v>
-      </c>
-      <c r="D409" t="s">
-        <v>125</v>
+        <v>387</v>
+      </c>
+      <c r="D409">
+        <v>4</v>
       </c>
       <c r="E409" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
@@ -7484,13 +7453,13 @@
         <v>409</v>
       </c>
       <c r="C410" t="s">
-        <v>398</v>
-      </c>
-      <c r="D410" t="s">
-        <v>126</v>
+        <v>396</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
       </c>
       <c r="E410" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -7498,13 +7467,13 @@
         <v>410</v>
       </c>
       <c r="C411" t="s">
-        <v>407</v>
-      </c>
-      <c r="D411" t="s">
-        <v>26</v>
+        <v>396</v>
+      </c>
+      <c r="D411">
+        <v>2</v>
       </c>
       <c r="E411" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -7512,13 +7481,13 @@
         <v>411</v>
       </c>
       <c r="C412" t="s">
-        <v>407</v>
-      </c>
-      <c r="D412" t="s">
-        <v>27</v>
+        <v>396</v>
+      </c>
+      <c r="D412">
+        <v>3</v>
       </c>
       <c r="E412" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -7526,13 +7495,13 @@
         <v>412</v>
       </c>
       <c r="C413" t="s">
-        <v>407</v>
-      </c>
-      <c r="D413" t="s">
-        <v>28</v>
+        <v>396</v>
+      </c>
+      <c r="D413">
+        <v>4</v>
       </c>
       <c r="E413" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
@@ -7540,13 +7509,13 @@
         <v>413</v>
       </c>
       <c r="C414" t="s">
-        <v>407</v>
-      </c>
-      <c r="D414" t="s">
-        <v>29</v>
+        <v>399</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
       </c>
       <c r="E414" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -7554,13 +7523,13 @@
         <v>414</v>
       </c>
       <c r="C415" t="s">
-        <v>410</v>
-      </c>
-      <c r="D415" t="s">
-        <v>26</v>
+        <v>399</v>
+      </c>
+      <c r="D415">
+        <v>2</v>
       </c>
       <c r="E415" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
@@ -7568,13 +7537,13 @@
         <v>415</v>
       </c>
       <c r="C416" t="s">
-        <v>410</v>
-      </c>
-      <c r="D416" t="s">
-        <v>27</v>
+        <v>399</v>
+      </c>
+      <c r="D416">
+        <v>3</v>
       </c>
       <c r="E416" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
@@ -7582,13 +7551,13 @@
         <v>416</v>
       </c>
       <c r="C417" t="s">
-        <v>410</v>
-      </c>
-      <c r="D417" t="s">
-        <v>28</v>
+        <v>399</v>
+      </c>
+      <c r="D417">
+        <v>4</v>
       </c>
       <c r="E417" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
@@ -7596,13 +7565,13 @@
         <v>417</v>
       </c>
       <c r="C418" t="s">
-        <v>410</v>
-      </c>
-      <c r="D418" t="s">
-        <v>29</v>
+        <v>399</v>
+      </c>
+      <c r="D418">
+        <v>5</v>
       </c>
       <c r="E418" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
@@ -7610,13 +7579,13 @@
         <v>418</v>
       </c>
       <c r="C419" t="s">
-        <v>410</v>
-      </c>
-      <c r="D419" t="s">
-        <v>30</v>
+        <v>405</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
       </c>
       <c r="E419" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
@@ -7624,13 +7593,13 @@
         <v>419</v>
       </c>
       <c r="C420" t="s">
-        <v>416</v>
-      </c>
-      <c r="D420" t="s">
-        <v>26</v>
+        <v>405</v>
+      </c>
+      <c r="D420">
+        <v>2</v>
       </c>
       <c r="E420" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
@@ -7638,13 +7607,13 @@
         <v>420</v>
       </c>
       <c r="C421" t="s">
-        <v>416</v>
-      </c>
-      <c r="D421" t="s">
-        <v>27</v>
+        <v>405</v>
+      </c>
+      <c r="D421">
+        <v>3</v>
       </c>
       <c r="E421" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -7652,13 +7621,13 @@
         <v>421</v>
       </c>
       <c r="C422" t="s">
-        <v>416</v>
-      </c>
-      <c r="D422" t="s">
-        <v>28</v>
+        <v>405</v>
+      </c>
+      <c r="D422">
+        <v>4</v>
       </c>
       <c r="E422" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -7666,13 +7635,13 @@
         <v>422</v>
       </c>
       <c r="C423" t="s">
-        <v>416</v>
-      </c>
-      <c r="D423" t="s">
-        <v>29</v>
+        <v>405</v>
+      </c>
+      <c r="D423">
+        <v>5</v>
       </c>
       <c r="E423" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -7680,13 +7649,13 @@
         <v>423</v>
       </c>
       <c r="C424" t="s">
-        <v>416</v>
-      </c>
-      <c r="D424" t="s">
-        <v>30</v>
+        <v>409</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
       </c>
       <c r="E424" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -7694,13 +7663,13 @@
         <v>424</v>
       </c>
       <c r="C425" t="s">
-        <v>420</v>
-      </c>
-      <c r="D425" t="s">
-        <v>26</v>
+        <v>409</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
       </c>
       <c r="E425" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -7708,13 +7677,13 @@
         <v>425</v>
       </c>
       <c r="C426" t="s">
-        <v>420</v>
-      </c>
-      <c r="D426" t="s">
-        <v>27</v>
+        <v>409</v>
+      </c>
+      <c r="D426">
+        <v>3</v>
       </c>
       <c r="E426" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -7722,13 +7691,13 @@
         <v>426</v>
       </c>
       <c r="C427" t="s">
-        <v>420</v>
-      </c>
-      <c r="D427" t="s">
-        <v>28</v>
+        <v>409</v>
+      </c>
+      <c r="D427">
+        <v>4</v>
       </c>
       <c r="E427" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -7736,13 +7705,13 @@
         <v>427</v>
       </c>
       <c r="C428" t="s">
-        <v>420</v>
-      </c>
-      <c r="D428" t="s">
-        <v>29</v>
+        <v>409</v>
+      </c>
+      <c r="D428">
+        <v>5</v>
       </c>
       <c r="E428" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
@@ -7750,13 +7719,13 @@
         <v>428</v>
       </c>
       <c r="C429" t="s">
-        <v>420</v>
-      </c>
-      <c r="D429" t="s">
-        <v>30</v>
+        <v>411</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
       </c>
       <c r="E429" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -7764,13 +7733,13 @@
         <v>429</v>
       </c>
       <c r="C430" t="s">
-        <v>422</v>
-      </c>
-      <c r="D430" t="s">
-        <v>26</v>
+        <v>411</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
       </c>
       <c r="E430" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -7778,13 +7747,13 @@
         <v>430</v>
       </c>
       <c r="C431" t="s">
-        <v>422</v>
-      </c>
-      <c r="D431" t="s">
-        <v>27</v>
+        <v>411</v>
+      </c>
+      <c r="D431">
+        <v>3</v>
       </c>
       <c r="E431" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -7792,13 +7761,13 @@
         <v>431</v>
       </c>
       <c r="C432" t="s">
-        <v>422</v>
-      </c>
-      <c r="D432" t="s">
-        <v>28</v>
+        <v>411</v>
+      </c>
+      <c r="D432">
+        <v>4</v>
       </c>
       <c r="E432" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -7806,13 +7775,13 @@
         <v>432</v>
       </c>
       <c r="C433" t="s">
-        <v>422</v>
-      </c>
-      <c r="D433" t="s">
-        <v>29</v>
+        <v>411</v>
+      </c>
+      <c r="D433">
+        <v>5</v>
       </c>
       <c r="E433" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -7820,13 +7789,13 @@
         <v>433</v>
       </c>
       <c r="C434" t="s">
-        <v>422</v>
-      </c>
-      <c r="D434" t="s">
-        <v>30</v>
+        <v>413</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
       </c>
       <c r="E434" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -7834,13 +7803,13 @@
         <v>434</v>
       </c>
       <c r="C435" t="s">
-        <v>424</v>
-      </c>
-      <c r="D435" t="s">
-        <v>26</v>
+        <v>413</v>
+      </c>
+      <c r="D435">
+        <v>2</v>
       </c>
       <c r="E435" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -7848,13 +7817,13 @@
         <v>435</v>
       </c>
       <c r="C436" t="s">
-        <v>424</v>
-      </c>
-      <c r="D436" t="s">
-        <v>27</v>
+        <v>413</v>
+      </c>
+      <c r="D436">
+        <v>3</v>
       </c>
       <c r="E436" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -7862,13 +7831,13 @@
         <v>436</v>
       </c>
       <c r="C437" t="s">
-        <v>424</v>
-      </c>
-      <c r="D437" t="s">
-        <v>28</v>
+        <v>413</v>
+      </c>
+      <c r="D437">
+        <v>4</v>
       </c>
       <c r="E437" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -7876,13 +7845,13 @@
         <v>437</v>
       </c>
       <c r="C438" t="s">
-        <v>424</v>
-      </c>
-      <c r="D438" t="s">
-        <v>29</v>
+        <v>416</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
       </c>
       <c r="E438" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -7890,13 +7859,13 @@
         <v>438</v>
       </c>
       <c r="C439" t="s">
-        <v>427</v>
-      </c>
-      <c r="D439" t="s">
-        <v>26</v>
+        <v>416</v>
+      </c>
+      <c r="D439">
+        <v>2</v>
       </c>
       <c r="E439" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
@@ -7904,13 +7873,13 @@
         <v>439</v>
       </c>
       <c r="C440" t="s">
-        <v>427</v>
-      </c>
-      <c r="D440" t="s">
-        <v>27</v>
+        <v>416</v>
+      </c>
+      <c r="D440">
+        <v>3</v>
       </c>
       <c r="E440" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -7918,13 +7887,13 @@
         <v>440</v>
       </c>
       <c r="C441" t="s">
-        <v>427</v>
-      </c>
-      <c r="D441" t="s">
-        <v>28</v>
+        <v>416</v>
+      </c>
+      <c r="D441">
+        <v>4</v>
       </c>
       <c r="E441" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -7932,13 +7901,13 @@
         <v>441</v>
       </c>
       <c r="C442" t="s">
-        <v>427</v>
-      </c>
-      <c r="D442" t="s">
-        <v>29</v>
+        <v>418</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
       </c>
       <c r="E442" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -7946,13 +7915,13 @@
         <v>442</v>
       </c>
       <c r="C443" t="s">
-        <v>429</v>
-      </c>
-      <c r="D443" t="s">
-        <v>26</v>
+        <v>418</v>
+      </c>
+      <c r="D443">
+        <v>2</v>
       </c>
       <c r="E443" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
@@ -7960,13 +7929,13 @@
         <v>443</v>
       </c>
       <c r="C444" t="s">
-        <v>429</v>
-      </c>
-      <c r="D444" t="s">
-        <v>27</v>
+        <v>418</v>
+      </c>
+      <c r="D444">
+        <v>3</v>
       </c>
       <c r="E444" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
@@ -7974,13 +7943,13 @@
         <v>444</v>
       </c>
       <c r="C445" t="s">
-        <v>429</v>
-      </c>
-      <c r="D445" t="s">
-        <v>28</v>
+        <v>418</v>
+      </c>
+      <c r="D445">
+        <v>4</v>
       </c>
       <c r="E445" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
@@ -7988,13 +7957,13 @@
         <v>445</v>
       </c>
       <c r="C446" t="s">
-        <v>429</v>
-      </c>
-      <c r="D446" t="s">
-        <v>29</v>
+        <v>418</v>
+      </c>
+      <c r="D446">
+        <v>5</v>
       </c>
       <c r="E446" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
@@ -8002,13 +7971,13 @@
         <v>446</v>
       </c>
       <c r="C447" t="s">
-        <v>429</v>
-      </c>
-      <c r="D447" t="s">
-        <v>30</v>
+        <v>424</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
       </c>
       <c r="E447" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
@@ -8016,13 +7985,13 @@
         <v>447</v>
       </c>
       <c r="C448" t="s">
-        <v>435</v>
-      </c>
-      <c r="D448" t="s">
-        <v>26</v>
+        <v>424</v>
+      </c>
+      <c r="D448">
+        <v>2</v>
       </c>
       <c r="E448" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
@@ -8030,13 +7999,13 @@
         <v>448</v>
       </c>
       <c r="C449" t="s">
-        <v>435</v>
-      </c>
-      <c r="D449" t="s">
-        <v>27</v>
+        <v>424</v>
+      </c>
+      <c r="D449">
+        <v>3</v>
       </c>
       <c r="E449" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
@@ -8044,13 +8013,13 @@
         <v>449</v>
       </c>
       <c r="C450" t="s">
-        <v>435</v>
-      </c>
-      <c r="D450" t="s">
-        <v>28</v>
+        <v>424</v>
+      </c>
+      <c r="D450">
+        <v>4</v>
       </c>
       <c r="E450" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
@@ -8058,13 +8027,13 @@
         <v>450</v>
       </c>
       <c r="C451" t="s">
-        <v>435</v>
-      </c>
-      <c r="D451" t="s">
-        <v>29</v>
+        <v>429</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
       </c>
       <c r="E451" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
@@ -8072,13 +8041,13 @@
         <v>451</v>
       </c>
       <c r="C452" t="s">
-        <v>440</v>
-      </c>
-      <c r="D452" t="s">
-        <v>26</v>
+        <v>429</v>
+      </c>
+      <c r="D452">
+        <v>2</v>
       </c>
       <c r="E452" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
@@ -8086,13 +8055,13 @@
         <v>452</v>
       </c>
       <c r="C453" t="s">
-        <v>440</v>
-      </c>
-      <c r="D453" t="s">
-        <v>27</v>
+        <v>429</v>
+      </c>
+      <c r="D453">
+        <v>3</v>
       </c>
       <c r="E453" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
@@ -8100,13 +8069,13 @@
         <v>453</v>
       </c>
       <c r="C454" t="s">
-        <v>440</v>
-      </c>
-      <c r="D454" t="s">
-        <v>28</v>
+        <v>429</v>
+      </c>
+      <c r="D454">
+        <v>4</v>
       </c>
       <c r="E454" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
@@ -8114,13 +8083,13 @@
         <v>454</v>
       </c>
       <c r="C455" t="s">
-        <v>440</v>
-      </c>
-      <c r="D455" t="s">
-        <v>29</v>
+        <v>429</v>
+      </c>
+      <c r="D455">
+        <v>5</v>
       </c>
       <c r="E455" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
@@ -8128,13 +8097,13 @@
         <v>455</v>
       </c>
       <c r="C456" t="s">
-        <v>440</v>
-      </c>
-      <c r="D456" t="s">
-        <v>30</v>
+        <v>434</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
       </c>
       <c r="E456" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
@@ -8142,13 +8111,13 @@
         <v>456</v>
       </c>
       <c r="C457" t="s">
-        <v>445</v>
-      </c>
-      <c r="D457" t="s">
-        <v>26</v>
+        <v>434</v>
+      </c>
+      <c r="D457">
+        <v>2</v>
       </c>
       <c r="E457" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
@@ -8156,13 +8125,13 @@
         <v>457</v>
       </c>
       <c r="C458" t="s">
-        <v>445</v>
-      </c>
-      <c r="D458" t="s">
-        <v>27</v>
+        <v>434</v>
+      </c>
+      <c r="D458">
+        <v>3</v>
       </c>
       <c r="E458" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
@@ -8170,13 +8139,13 @@
         <v>458</v>
       </c>
       <c r="C459" t="s">
-        <v>445</v>
-      </c>
-      <c r="D459" t="s">
-        <v>28</v>
+        <v>434</v>
+      </c>
+      <c r="D459">
+        <v>4</v>
       </c>
       <c r="E459" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
@@ -8184,27 +8153,13 @@
         <v>459</v>
       </c>
       <c r="C460" t="s">
-        <v>445</v>
-      </c>
-      <c r="D460" t="s">
-        <v>29</v>
+        <v>434</v>
+      </c>
+      <c r="D460">
+        <v>5</v>
       </c>
       <c r="E460" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A461">
-        <v>460</v>
-      </c>
-      <c r="C461" t="s">
-        <v>445</v>
-      </c>
-      <c r="D461" t="s">
-        <v>30</v>
-      </c>
-      <c r="E461" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/subjects.xlsx
+++ b/subjects.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunji\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jyj_project\project_crawling_25_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="645">
   <si>
     <t>certName</t>
-  </si>
-  <si>
-    <t>subjectName</t>
-  </si>
-  <si>
-    <t>과목번호</t>
   </si>
   <si>
     <t>가스기사</t>
@@ -1952,6 +1946,17 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>subjectNum</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2328,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D670"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="C490" sqref="C490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2339,14 +2344,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>643</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>644</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2354,10 +2362,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2368,10 +2376,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2382,10 +2390,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2396,10 +2404,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2410,10 +2418,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2424,10 +2432,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2438,10 +2446,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2452,10 +2460,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -2466,10 +2474,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -2480,10 +2488,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2494,10 +2502,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2508,10 +2516,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -2522,10 +2530,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -2536,10 +2544,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -2550,10 +2558,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2564,10 +2572,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2578,10 +2586,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -2592,10 +2600,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2606,10 +2614,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2620,10 +2628,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2634,10 +2642,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2648,10 +2656,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -2662,10 +2670,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2676,10 +2684,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2690,10 +2698,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -2704,10 +2712,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -2718,10 +2726,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -2732,10 +2740,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -2746,10 +2754,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2760,10 +2768,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2774,10 +2782,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -2788,10 +2796,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -2802,10 +2810,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -2816,10 +2824,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2830,10 +2838,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2844,10 +2852,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2858,10 +2866,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -2872,10 +2880,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2886,10 +2894,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2900,10 +2908,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -2914,10 +2922,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -2928,10 +2936,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2942,10 +2950,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2956,10 +2964,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -2970,10 +2978,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -2984,10 +2992,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -2998,10 +3006,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3012,10 +3020,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3026,10 +3034,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3040,10 +3048,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -3054,10 +3062,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -3068,10 +3076,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3082,10 +3090,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3096,10 +3104,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3110,10 +3118,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -3124,10 +3132,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -3138,10 +3146,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3152,10 +3160,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3166,10 +3174,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3180,10 +3188,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -3194,10 +3202,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3208,10 +3216,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3222,10 +3230,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3236,10 +3244,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -3250,10 +3258,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -3264,10 +3272,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3278,10 +3286,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3292,10 +3300,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -3306,10 +3314,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -3320,10 +3328,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3334,10 +3342,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -3348,10 +3356,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -3362,10 +3370,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -3376,10 +3384,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3390,10 +3398,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -3404,10 +3412,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -3418,10 +3426,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -3432,10 +3440,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -3446,10 +3454,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -3460,10 +3468,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3474,10 +3482,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -3488,10 +3496,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -3502,10 +3510,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -3516,10 +3524,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -3530,10 +3538,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3544,10 +3552,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -3558,10 +3566,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -3572,10 +3580,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -3586,10 +3594,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -3600,10 +3608,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -3614,10 +3622,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -3628,10 +3636,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -3642,10 +3650,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -3656,10 +3664,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -3670,10 +3678,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -3684,10 +3692,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D97">
         <v>4</v>
@@ -3698,10 +3706,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -3712,10 +3720,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -3726,10 +3734,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -3740,10 +3748,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -3754,10 +3762,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -3768,10 +3776,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -3782,10 +3790,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -3796,10 +3804,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -3810,10 +3818,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -3824,10 +3832,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -3838,10 +3846,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -3852,10 +3860,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -3866,10 +3874,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -3880,10 +3888,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -3894,10 +3902,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -3908,10 +3916,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -3922,10 +3930,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -3936,10 +3944,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -3950,10 +3958,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -3964,10 +3972,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3978,10 +3986,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C118" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -3992,10 +4000,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -4006,10 +4014,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D120">
         <v>4</v>
@@ -4020,10 +4028,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -4034,10 +4042,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C122" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -4048,10 +4056,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -4062,10 +4070,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -4076,10 +4084,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C125" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D125">
         <v>5</v>
@@ -4090,10 +4098,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -4104,10 +4112,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -4118,10 +4126,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C128" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -4132,10 +4140,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D129">
         <v>4</v>
@@ -4146,10 +4154,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C130" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D130">
         <v>5</v>
@@ -4160,10 +4168,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -4174,10 +4182,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C132" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -4188,10 +4196,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -4202,10 +4210,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C134" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -4216,10 +4224,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C135" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -4230,10 +4238,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C136" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -4244,10 +4252,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C137" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -4258,10 +4266,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C138" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D138">
         <v>4</v>
@@ -4272,10 +4280,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C139" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D139">
         <v>5</v>
@@ -4286,10 +4294,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C140" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -4300,10 +4308,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C141" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -4314,10 +4322,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C142" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -4328,10 +4336,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C143" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D143">
         <v>4</v>
@@ -4342,10 +4350,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C144" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -4356,10 +4364,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C145" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -4370,10 +4378,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C146" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D146">
         <v>3</v>
@@ -4384,10 +4392,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C147" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D147">
         <v>4</v>
@@ -4398,10 +4406,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C148" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D148">
         <v>5</v>
@@ -4412,10 +4420,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C149" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4426,10 +4434,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C150" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -4440,10 +4448,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C151" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D151">
         <v>3</v>
@@ -4454,10 +4462,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C152" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D152">
         <v>4</v>
@@ -4468,10 +4476,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C153" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D153">
         <v>5</v>
@@ -4482,10 +4490,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C154" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -4496,10 +4504,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C155" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -4510,10 +4518,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C156" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -4524,10 +4532,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C157" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D157">
         <v>4</v>
@@ -4538,10 +4546,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C158" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -4552,10 +4560,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C159" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D159">
         <v>4</v>
@@ -4566,10 +4574,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C160" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -4580,10 +4588,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C161" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -4594,10 +4602,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C162" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -4608,10 +4616,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C163" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D163">
         <v>4</v>
@@ -4622,10 +4630,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C164" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -4636,10 +4644,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C165" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -4650,10 +4658,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C166" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -4664,10 +4672,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C167" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D167">
         <v>4</v>
@@ -4678,10 +4686,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C168" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D168">
         <v>5</v>
@@ -4692,10 +4700,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C169" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -4706,10 +4714,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C170" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -4720,10 +4728,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C171" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D171">
         <v>3</v>
@@ -4734,10 +4742,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C172" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D172">
         <v>4</v>
@@ -4748,10 +4756,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C173" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -4762,10 +4770,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C174" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D174">
         <v>2</v>
@@ -4776,10 +4784,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C175" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -4790,10 +4798,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C176" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D176">
         <v>4</v>
@@ -4804,10 +4812,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C177" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D177">
         <v>5</v>
@@ -4818,10 +4826,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C178" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -4832,10 +4840,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C179" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D179">
         <v>2</v>
@@ -4846,10 +4854,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C180" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -4860,10 +4868,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C181" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D181">
         <v>4</v>
@@ -4874,10 +4882,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C182" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -4888,10 +4896,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C183" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -4902,10 +4910,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C184" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -4916,10 +4924,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C185" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D185">
         <v>4</v>
@@ -4930,10 +4938,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C186" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D186">
         <v>5</v>
@@ -4944,10 +4952,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C187" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D187">
         <v>6</v>
@@ -4958,10 +4966,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C188" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -4972,10 +4980,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C189" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -4986,10 +4994,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C190" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -5000,10 +5008,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C191" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D191">
         <v>4</v>
@@ -5014,10 +5022,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C192" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D192">
         <v>5</v>
@@ -5028,10 +5036,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C193" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -5042,10 +5050,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C194" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -5056,10 +5064,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C195" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D195">
         <v>3</v>
@@ -5070,10 +5078,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C196" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D196">
         <v>4</v>
@@ -5084,10 +5092,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C197" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D197">
         <v>5</v>
@@ -5098,10 +5106,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C198" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -5112,10 +5120,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C199" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -5126,10 +5134,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C200" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D200">
         <v>3</v>
@@ -5140,10 +5148,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C201" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D201">
         <v>4</v>
@@ -5154,10 +5162,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C202" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -5168,10 +5176,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C203" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D203">
         <v>2</v>
@@ -5182,10 +5190,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C204" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D204">
         <v>3</v>
@@ -5196,10 +5204,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C205" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D205">
         <v>4</v>
@@ -5210,10 +5218,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C206" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D206">
         <v>5</v>
@@ -5224,10 +5232,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C207" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -5238,10 +5246,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C208" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D208">
         <v>2</v>
@@ -5252,10 +5260,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C209" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D209">
         <v>3</v>
@@ -5266,10 +5274,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C210" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D210">
         <v>4</v>
@@ -5280,10 +5288,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C211" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -5294,10 +5302,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C212" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -5308,10 +5316,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C213" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D213">
         <v>3</v>
@@ -5322,10 +5330,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C214" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D214">
         <v>4</v>
@@ -5336,10 +5344,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C215" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D215">
         <v>5</v>
@@ -5350,10 +5358,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C216" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D216">
         <v>4</v>
@@ -5364,10 +5372,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C217" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -5378,10 +5386,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C218" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D218">
         <v>2</v>
@@ -5392,10 +5400,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C219" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D219">
         <v>3</v>
@@ -5406,10 +5414,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C220" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D220">
         <v>4</v>
@@ -5420,10 +5428,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C221" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -5434,10 +5442,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C222" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D222">
         <v>2</v>
@@ -5448,10 +5456,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C223" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D223">
         <v>3</v>
@@ -5462,10 +5470,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C224" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D224">
         <v>4</v>
@@ -5476,10 +5484,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C225" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -5490,10 +5498,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C226" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D226">
         <v>2</v>
@@ -5504,10 +5512,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C227" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D227">
         <v>3</v>
@@ -5518,10 +5526,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C228" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D228">
         <v>4</v>
@@ -5532,10 +5540,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C229" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -5546,10 +5554,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C230" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D230">
         <v>2</v>
@@ -5560,10 +5568,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C231" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D231">
         <v>3</v>
@@ -5574,10 +5582,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C232" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D232">
         <v>4</v>
@@ -5588,10 +5596,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C233" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D233">
         <v>5</v>
@@ -5602,10 +5610,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C234" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -5616,10 +5624,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C235" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D235">
         <v>2</v>
@@ -5630,10 +5638,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C236" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D236">
         <v>3</v>
@@ -5644,10 +5652,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C237" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D237">
         <v>4</v>
@@ -5658,10 +5666,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C238" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -5672,10 +5680,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C239" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D239">
         <v>2</v>
@@ -5686,10 +5694,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C240" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D240">
         <v>3</v>
@@ -5700,10 +5708,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C241" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D241">
         <v>4</v>
@@ -5714,10 +5722,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C242" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -5728,10 +5736,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C243" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D243">
         <v>2</v>
@@ -5742,10 +5750,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C244" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D244">
         <v>3</v>
@@ -5756,10 +5764,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C245" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D245">
         <v>4</v>
@@ -5770,10 +5778,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C246" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D246">
         <v>5</v>
@@ -5784,10 +5792,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C247" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -5798,10 +5806,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C248" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D248">
         <v>2</v>
@@ -5812,10 +5820,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C249" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D249">
         <v>3</v>
@@ -5826,10 +5834,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C250" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D250">
         <v>4</v>
@@ -5840,10 +5848,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C251" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D251">
         <v>5</v>
@@ -5854,10 +5862,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C252" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -5868,10 +5876,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C253" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D253">
         <v>2</v>
@@ -5882,10 +5890,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C254" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D254">
         <v>3</v>
@@ -5896,10 +5904,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C255" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D255">
         <v>4</v>
@@ -5910,10 +5918,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C256" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -5924,10 +5932,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C257" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D257">
         <v>2</v>
@@ -5938,10 +5946,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C258" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D258">
         <v>3</v>
@@ -5952,10 +5960,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C259" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D259">
         <v>4</v>
@@ -5966,10 +5974,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C260" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -5980,10 +5988,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C261" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D261">
         <v>2</v>
@@ -5994,10 +6002,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C262" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D262">
         <v>3</v>
@@ -6008,10 +6016,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C263" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D263">
         <v>4</v>
@@ -6022,10 +6030,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C264" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -6036,10 +6044,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C265" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D265">
         <v>2</v>
@@ -6050,10 +6058,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C266" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D266">
         <v>3</v>
@@ -6064,10 +6072,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C267" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D267">
         <v>4</v>
@@ -6078,10 +6086,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C268" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D268">
         <v>5</v>
@@ -6092,10 +6100,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C269" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -6106,10 +6114,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C270" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D270">
         <v>2</v>
@@ -6120,10 +6128,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C271" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D271">
         <v>3</v>
@@ -6134,10 +6142,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C272" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D272">
         <v>4</v>
@@ -6148,10 +6156,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C273" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -6162,10 +6170,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C274" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -6176,10 +6184,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C275" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D275">
         <v>3</v>
@@ -6190,10 +6198,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C276" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D276">
         <v>4</v>
@@ -6204,10 +6212,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C277" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D277">
         <v>5</v>
@@ -6218,10 +6226,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C278" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -6232,10 +6240,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C279" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D279">
         <v>2</v>
@@ -6246,10 +6254,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C280" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D280">
         <v>3</v>
@@ -6260,10 +6268,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C281" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D281">
         <v>4</v>
@@ -6274,10 +6282,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C282" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D282">
         <v>5</v>
@@ -6288,10 +6296,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C283" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -6302,10 +6310,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C284" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D284">
         <v>2</v>
@@ -6316,10 +6324,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C285" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D285">
         <v>3</v>
@@ -6330,10 +6338,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C286" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D286">
         <v>4</v>
@@ -6344,10 +6352,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C287" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -6358,10 +6366,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C288" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D288">
         <v>2</v>
@@ -6372,10 +6380,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C289" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D289">
         <v>3</v>
@@ -6386,10 +6394,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C290" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D290">
         <v>4</v>
@@ -6400,10 +6408,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C291" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D291">
         <v>5</v>
@@ -6414,10 +6422,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C292" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -6428,10 +6436,10 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C293" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D293">
         <v>2</v>
@@ -6442,10 +6450,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C294" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D294">
         <v>3</v>
@@ -6456,10 +6464,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C295" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D295">
         <v>4</v>
@@ -6470,10 +6478,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C296" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D296">
         <v>5</v>
@@ -6484,10 +6492,10 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C297" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -6498,10 +6506,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C298" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -6512,10 +6520,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C299" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D299">
         <v>3</v>
@@ -6526,10 +6534,10 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C300" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D300">
         <v>4</v>
@@ -6540,10 +6548,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C301" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D301">
         <v>5</v>
@@ -6554,10 +6562,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C302" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -6568,10 +6576,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C303" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D303">
         <v>2</v>
@@ -6582,10 +6590,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C304" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -6596,10 +6604,10 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C305" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D305">
         <v>4</v>
@@ -6610,10 +6618,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C306" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -6624,10 +6632,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C307" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D307">
         <v>2</v>
@@ -6638,10 +6646,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C308" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D308">
         <v>3</v>
@@ -6652,10 +6660,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C309" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D309">
         <v>4</v>
@@ -6666,10 +6674,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C310" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -6680,10 +6688,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C311" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D311">
         <v>2</v>
@@ -6694,10 +6702,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C312" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D312">
         <v>3</v>
@@ -6708,10 +6716,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C313" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D313">
         <v>4</v>
@@ -6722,10 +6730,10 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C314" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D314">
         <v>5</v>
@@ -6736,10 +6744,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C315" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D315">
         <v>6</v>
@@ -6750,10 +6758,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C316" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -6764,10 +6772,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C317" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D317">
         <v>2</v>
@@ -6778,10 +6786,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C318" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D318">
         <v>3</v>
@@ -6792,10 +6800,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C319" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D319">
         <v>4</v>
@@ -6806,10 +6814,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C320" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -6820,10 +6828,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C321" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D321">
         <v>2</v>
@@ -6834,10 +6842,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C322" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D322">
         <v>3</v>
@@ -6848,10 +6856,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C323" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D323">
         <v>4</v>
@@ -6862,10 +6870,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C324" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -6876,10 +6884,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C325" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D325">
         <v>2</v>
@@ -6890,10 +6898,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C326" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D326">
         <v>3</v>
@@ -6904,10 +6912,10 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C327" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D327">
         <v>4</v>
@@ -6918,10 +6926,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C328" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D328">
         <v>5</v>
@@ -6932,10 +6940,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C329" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -6946,10 +6954,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C330" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D330">
         <v>2</v>
@@ -6960,10 +6968,10 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C331" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D331">
         <v>3</v>
@@ -6974,10 +6982,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C332" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D332">
         <v>4</v>
@@ -6988,10 +6996,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C333" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -7002,10 +7010,10 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C334" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D334">
         <v>2</v>
@@ -7016,10 +7024,10 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C335" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D335">
         <v>3</v>
@@ -7030,10 +7038,10 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C336" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D336">
         <v>4</v>
@@ -7044,10 +7052,10 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C337" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D337">
         <v>5</v>
@@ -7058,10 +7066,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C338" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D338">
         <v>1</v>
@@ -7072,10 +7080,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C339" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D339">
         <v>2</v>
@@ -7086,10 +7094,10 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C340" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D340">
         <v>3</v>
@@ -7100,10 +7108,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C341" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D341">
         <v>4</v>
@@ -7114,10 +7122,10 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C342" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -7128,10 +7136,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C343" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D343">
         <v>2</v>
@@ -7142,10 +7150,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C344" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D344">
         <v>3</v>
@@ -7156,10 +7164,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C345" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D345">
         <v>4</v>
@@ -7170,10 +7178,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C346" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D346">
         <v>5</v>
@@ -7184,10 +7192,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C347" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D347">
         <v>1</v>
@@ -7198,10 +7206,10 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C348" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D348">
         <v>2</v>
@@ -7212,10 +7220,10 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C349" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D349">
         <v>3</v>
@@ -7226,10 +7234,10 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C350" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -7240,10 +7248,10 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C351" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D351">
         <v>2</v>
@@ -7254,10 +7262,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C352" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D352">
         <v>3</v>
@@ -7268,10 +7276,10 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C353" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D353">
         <v>4</v>
@@ -7282,10 +7290,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C354" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D354">
         <v>5</v>
@@ -7296,10 +7304,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C355" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D355">
         <v>1</v>
@@ -7310,10 +7318,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C356" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D356">
         <v>2</v>
@@ -7324,10 +7332,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C357" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D357">
         <v>3</v>
@@ -7338,10 +7346,10 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C358" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -7352,10 +7360,10 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C359" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D359">
         <v>2</v>
@@ -7366,10 +7374,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C360" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D360">
         <v>3</v>
@@ -7380,10 +7388,10 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C361" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D361">
         <v>4</v>
@@ -7394,10 +7402,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C362" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D362">
         <v>5</v>
@@ -7408,10 +7416,10 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C363" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D363">
         <v>1</v>
@@ -7422,10 +7430,10 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C364" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D364">
         <v>2</v>
@@ -7436,10 +7444,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C365" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D365">
         <v>3</v>
@@ -7450,10 +7458,10 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C366" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D366">
         <v>4</v>
@@ -7464,10 +7472,10 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C367" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D367">
         <v>5</v>
@@ -7478,10 +7486,10 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C368" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -7492,10 +7500,10 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C369" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D369">
         <v>2</v>
@@ -7506,10 +7514,10 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C370" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D370">
         <v>3</v>
@@ -7520,10 +7528,10 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C371" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D371">
         <v>4</v>
@@ -7534,10 +7542,10 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C372" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D372">
         <v>1</v>
@@ -7548,10 +7556,10 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C373" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D373">
         <v>2</v>
@@ -7562,10 +7570,10 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C374" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D374">
         <v>3</v>
@@ -7576,10 +7584,10 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C375" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D375">
         <v>4</v>
@@ -7590,10 +7598,10 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C376" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D376">
         <v>5</v>
@@ -7604,10 +7612,10 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C377" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D377">
         <v>1</v>
@@ -7618,10 +7626,10 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C378" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D378">
         <v>2</v>
@@ -7632,10 +7640,10 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C379" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D379">
         <v>3</v>
@@ -7646,10 +7654,10 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C380" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D380">
         <v>4</v>
@@ -7660,10 +7668,10 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C381" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D381">
         <v>5</v>
@@ -7674,10 +7682,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C382" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -7688,10 +7696,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C383" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D383">
         <v>2</v>
@@ -7702,10 +7710,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C384" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D384">
         <v>3</v>
@@ -7716,10 +7724,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C385" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D385">
         <v>4</v>
@@ -7730,10 +7738,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C386" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -7744,10 +7752,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C387" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D387">
         <v>2</v>
@@ -7758,10 +7766,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C388" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D388">
         <v>3</v>
@@ -7772,10 +7780,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C389" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D389">
         <v>4</v>
@@ -7786,10 +7794,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C390" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D390">
         <v>1</v>
@@ -7800,10 +7808,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C391" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D391">
         <v>2</v>
@@ -7814,10 +7822,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C392" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D392">
         <v>3</v>
@@ -7828,10 +7836,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C393" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D393">
         <v>4</v>
@@ -7842,10 +7850,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C394" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D394">
         <v>5</v>
@@ -7856,10 +7864,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C395" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -7870,10 +7878,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C396" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D396">
         <v>2</v>
@@ -7884,10 +7892,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C397" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D397">
         <v>3</v>
@@ -7898,10 +7906,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C398" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D398">
         <v>4</v>
@@ -7912,10 +7920,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C399" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -7926,10 +7934,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C400" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D400">
         <v>2</v>
@@ -7940,10 +7948,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C401" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D401">
         <v>3</v>
@@ -7954,10 +7962,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C402" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D402">
         <v>4</v>
@@ -7968,10 +7976,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C403" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D403">
         <v>5</v>
@@ -7982,10 +7990,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C404" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -7996,10 +8004,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C405" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D405">
         <v>2</v>
@@ -8010,10 +8018,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C406" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D406">
         <v>3</v>
@@ -8024,10 +8032,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C407" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D407">
         <v>4</v>
@@ -8038,10 +8046,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C408" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -8052,10 +8060,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C409" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D409">
         <v>2</v>
@@ -8066,10 +8074,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C410" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D410">
         <v>3</v>
@@ -8080,10 +8088,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C411" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D411">
         <v>4</v>
@@ -8094,10 +8102,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C412" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -8108,10 +8116,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C413" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D413">
         <v>2</v>
@@ -8122,10 +8130,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C414" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D414">
         <v>3</v>
@@ -8136,10 +8144,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C415" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D415">
         <v>4</v>
@@ -8150,10 +8158,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C416" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D416">
         <v>5</v>
@@ -8164,10 +8172,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C417" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -8178,10 +8186,10 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C418" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D418">
         <v>2</v>
@@ -8192,10 +8200,10 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C419" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D419">
         <v>3</v>
@@ -8206,10 +8214,10 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C420" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D420">
         <v>4</v>
@@ -8220,10 +8228,10 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C421" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D421">
         <v>5</v>
@@ -8234,10 +8242,10 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C422" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D422">
         <v>1</v>
@@ -8248,10 +8256,10 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C423" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D423">
         <v>2</v>
@@ -8262,10 +8270,10 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C424" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D424">
         <v>3</v>
@@ -8276,10 +8284,10 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C425" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D425">
         <v>4</v>
@@ -8290,10 +8298,10 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C426" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D426">
         <v>5</v>
@@ -8304,10 +8312,10 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C427" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -8318,10 +8326,10 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C428" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D428">
         <v>2</v>
@@ -8332,10 +8340,10 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C429" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D429">
         <v>3</v>
@@ -8346,10 +8354,10 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C430" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D430">
         <v>4</v>
@@ -8360,10 +8368,10 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C431" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D431">
         <v>5</v>
@@ -8374,10 +8382,10 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C432" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D432">
         <v>1</v>
@@ -8388,10 +8396,10 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C433" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D433">
         <v>2</v>
@@ -8402,10 +8410,10 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C434" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D434">
         <v>3</v>
@@ -8416,10 +8424,10 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C435" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D435">
         <v>4</v>
@@ -8430,10 +8438,10 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C436" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D436">
         <v>1</v>
@@ -8444,10 +8452,10 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C437" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D437">
         <v>2</v>
@@ -8458,10 +8466,10 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C438" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D438">
         <v>3</v>
@@ -8472,10 +8480,10 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C439" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D439">
         <v>4</v>
@@ -8486,10 +8494,10 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C440" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -8500,10 +8508,10 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C441" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D441">
         <v>2</v>
@@ -8514,10 +8522,10 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C442" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D442">
         <v>3</v>
@@ -8528,10 +8536,10 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C443" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D443">
         <v>4</v>
@@ -8542,10 +8550,10 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C444" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D444">
         <v>5</v>
@@ -8556,10 +8564,10 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C445" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D445">
         <v>1</v>
@@ -8570,10 +8578,10 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C446" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D446">
         <v>2</v>
@@ -8584,10 +8592,10 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C447" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D447">
         <v>3</v>
@@ -8598,10 +8606,10 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C448" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D448">
         <v>4</v>
@@ -8612,10 +8620,10 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C449" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -8626,10 +8634,10 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C450" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D450">
         <v>2</v>
@@ -8640,10 +8648,10 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C451" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D451">
         <v>3</v>
@@ -8654,10 +8662,10 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C452" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D452">
         <v>4</v>
@@ -8668,10 +8676,10 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C453" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D453">
         <v>5</v>
@@ -8682,10 +8690,10 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C454" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D454">
         <v>1</v>
@@ -8696,10 +8704,10 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C455" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D455">
         <v>2</v>
@@ -8710,10 +8718,10 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C456" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D456">
         <v>3</v>
@@ -8724,10 +8732,10 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C457" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D457">
         <v>4</v>
@@ -8738,10 +8746,10 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C458" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D458">
         <v>5</v>
@@ -8752,13 +8760,13 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C459" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D459" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -8766,13 +8774,13 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C460" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D460" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -8780,13 +8788,13 @@
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C461" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D461" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -8794,13 +8802,13 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C462" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D462" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -8808,13 +8816,13 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C463" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D463" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -8822,13 +8830,13 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C464" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D464" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -8836,13 +8844,13 @@
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C465" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D465" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -8850,13 +8858,13 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C466" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D466" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -8864,13 +8872,13 @@
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C467" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D467" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -8878,13 +8886,13 @@
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C468" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D468" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -8892,13 +8900,13 @@
         <v>468</v>
       </c>
       <c r="B469" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C469" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D469" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -8906,13 +8914,13 @@
         <v>469</v>
       </c>
       <c r="B470" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C470" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D470" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -8920,13 +8928,13 @@
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C471" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D471" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -8934,13 +8942,13 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C472" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D472" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -8948,13 +8956,13 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C473" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D473" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -8962,13 +8970,13 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C474" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D474" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -8976,13 +8984,13 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C475" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D475" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -8990,13 +8998,13 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C476" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D476" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
@@ -9004,13 +9012,13 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C477" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D477" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -9018,13 +9026,13 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C478" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D478" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
@@ -9032,13 +9040,13 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C479" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D479" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -9046,13 +9054,13 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C480" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D480" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -9060,13 +9068,13 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C481" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D481" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
@@ -9074,13 +9082,13 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C482" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D482" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -9088,13 +9096,13 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C483" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D483" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -9102,13 +9110,13 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C484" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D484" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -9116,13 +9124,13 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C485" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D485" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -9130,13 +9138,13 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C486" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D486" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -9144,13 +9152,13 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C487" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D487" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -9158,13 +9166,13 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C488" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D488" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -9172,13 +9180,13 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C489" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D489" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -9186,13 +9194,13 @@
         <v>489</v>
       </c>
       <c r="B490" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C490" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D490" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
@@ -9200,13 +9208,13 @@
         <v>490</v>
       </c>
       <c r="B491" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C491" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D491" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -9214,13 +9222,13 @@
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C492" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D492" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -9228,13 +9236,13 @@
         <v>492</v>
       </c>
       <c r="B493" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C493" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D493" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -9242,13 +9250,13 @@
         <v>493</v>
       </c>
       <c r="B494" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C494" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D494" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
@@ -9256,13 +9264,13 @@
         <v>494</v>
       </c>
       <c r="B495" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C495" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D495" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -9270,13 +9278,13 @@
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C496" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D496" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -9284,13 +9292,13 @@
         <v>496</v>
       </c>
       <c r="B497" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C497" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D497" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -9298,13 +9306,13 @@
         <v>497</v>
       </c>
       <c r="B498" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C498" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D498" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
@@ -9312,13 +9320,13 @@
         <v>498</v>
       </c>
       <c r="B499" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C499" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D499" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -9326,13 +9334,13 @@
         <v>499</v>
       </c>
       <c r="B500" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C500" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D500" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -9340,13 +9348,13 @@
         <v>500</v>
       </c>
       <c r="B501" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C501" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D501" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -9354,13 +9362,13 @@
         <v>501</v>
       </c>
       <c r="B502" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C502" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D502" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -9368,13 +9376,13 @@
         <v>502</v>
       </c>
       <c r="B503" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C503" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D503" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
@@ -9382,13 +9390,13 @@
         <v>503</v>
       </c>
       <c r="B504" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C504" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D504" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
@@ -9396,13 +9404,13 @@
         <v>504</v>
       </c>
       <c r="B505" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C505" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D505" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -9410,13 +9418,13 @@
         <v>505</v>
       </c>
       <c r="B506" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C506" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D506" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
@@ -9424,13 +9432,13 @@
         <v>506</v>
       </c>
       <c r="B507" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C507" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D507" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
@@ -9438,13 +9446,13 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C508" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D508" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
@@ -9452,13 +9460,13 @@
         <v>508</v>
       </c>
       <c r="B509" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C509" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D509" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
@@ -9466,13 +9474,13 @@
         <v>509</v>
       </c>
       <c r="B510" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C510" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D510" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
@@ -9480,13 +9488,13 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C511" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D511" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
@@ -9494,13 +9502,13 @@
         <v>511</v>
       </c>
       <c r="B512" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C512" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D512" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
@@ -9508,13 +9516,13 @@
         <v>512</v>
       </c>
       <c r="B513" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C513" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D513" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
@@ -9522,13 +9530,13 @@
         <v>513</v>
       </c>
       <c r="B514" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C514" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D514" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
@@ -9536,13 +9544,13 @@
         <v>514</v>
       </c>
       <c r="B515" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C515" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D515" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -9550,13 +9558,13 @@
         <v>515</v>
       </c>
       <c r="B516" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C516" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D516" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -9564,13 +9572,13 @@
         <v>516</v>
       </c>
       <c r="B517" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C517" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D517" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
@@ -9578,13 +9586,13 @@
         <v>517</v>
       </c>
       <c r="B518" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C518" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D518" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
@@ -9592,13 +9600,13 @@
         <v>518</v>
       </c>
       <c r="B519" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C519" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D519" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -9606,13 +9614,13 @@
         <v>519</v>
       </c>
       <c r="B520" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C520" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D520" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -9620,13 +9628,13 @@
         <v>520</v>
       </c>
       <c r="B521" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C521" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D521" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
@@ -9634,13 +9642,13 @@
         <v>521</v>
       </c>
       <c r="B522" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C522" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D522" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
@@ -9648,13 +9656,13 @@
         <v>522</v>
       </c>
       <c r="B523" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C523" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D523" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
@@ -9662,13 +9670,13 @@
         <v>523</v>
       </c>
       <c r="B524" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C524" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D524" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
@@ -9676,13 +9684,13 @@
         <v>524</v>
       </c>
       <c r="B525" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C525" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D525" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
@@ -9690,13 +9698,13 @@
         <v>525</v>
       </c>
       <c r="B526" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C526" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D526" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
@@ -9704,13 +9712,13 @@
         <v>526</v>
       </c>
       <c r="B527" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C527" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D527" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
@@ -9718,13 +9726,13 @@
         <v>527</v>
       </c>
       <c r="B528" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C528" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D528" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
@@ -9732,13 +9740,13 @@
         <v>528</v>
       </c>
       <c r="B529" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C529" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D529" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
@@ -9746,13 +9754,13 @@
         <v>529</v>
       </c>
       <c r="B530" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C530" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D530" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
@@ -9760,13 +9768,13 @@
         <v>530</v>
       </c>
       <c r="B531" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C531" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D531" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
@@ -9774,13 +9782,13 @@
         <v>531</v>
       </c>
       <c r="B532" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C532" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D532" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
@@ -9788,13 +9796,13 @@
         <v>532</v>
       </c>
       <c r="B533" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C533" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D533" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
@@ -9802,13 +9810,13 @@
         <v>533</v>
       </c>
       <c r="B534" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C534" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D534" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
@@ -9816,13 +9824,13 @@
         <v>534</v>
       </c>
       <c r="B535" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C535" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D535" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
@@ -9830,13 +9838,13 @@
         <v>535</v>
       </c>
       <c r="B536" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C536" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D536" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
@@ -9844,13 +9852,13 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C537" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D537" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
@@ -9858,13 +9866,13 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C538" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D538" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
@@ -9872,13 +9880,13 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C539" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D539" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
@@ -9886,13 +9894,13 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C540" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D540" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
@@ -9900,13 +9908,13 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C541" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D541" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
@@ -9914,13 +9922,13 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C542" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D542" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
@@ -9928,13 +9936,13 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C543" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D543" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
@@ -9942,13 +9950,13 @@
         <v>543</v>
       </c>
       <c r="B544" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C544" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D544" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
@@ -9956,13 +9964,13 @@
         <v>544</v>
       </c>
       <c r="B545" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C545" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D545" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
@@ -9970,13 +9978,13 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C546" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D546" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
@@ -9984,13 +9992,13 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C547" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D547" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
@@ -9998,13 +10006,13 @@
         <v>547</v>
       </c>
       <c r="B548" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C548" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D548" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
@@ -10012,13 +10020,13 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C549" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D549" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
@@ -10026,13 +10034,13 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C550" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D550" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
@@ -10040,13 +10048,13 @@
         <v>550</v>
       </c>
       <c r="B551" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C551" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D551" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
@@ -10054,13 +10062,13 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C552" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D552" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
@@ -10068,13 +10076,13 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C553" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D553" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
@@ -10082,13 +10090,13 @@
         <v>553</v>
       </c>
       <c r="B554" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C554" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D554" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
@@ -10096,13 +10104,13 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C555" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D555" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
@@ -10110,13 +10118,13 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C556" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D556" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
@@ -10124,13 +10132,13 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C557" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D557" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
@@ -10138,13 +10146,13 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C558" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D558" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
@@ -10152,13 +10160,13 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C559" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D559" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
@@ -10166,13 +10174,13 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C560" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D560" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
@@ -10180,13 +10188,13 @@
         <v>560</v>
       </c>
       <c r="B561" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C561" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D561" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
@@ -10194,13 +10202,13 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C562" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D562" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
@@ -10208,13 +10216,13 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C563" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D563" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
@@ -10222,13 +10230,13 @@
         <v>563</v>
       </c>
       <c r="B564" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C564" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D564" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
@@ -10236,13 +10244,13 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C565" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D565" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
@@ -10250,13 +10258,13 @@
         <v>565</v>
       </c>
       <c r="B566" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C566" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D566" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
@@ -10264,13 +10272,13 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C567" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D567" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
@@ -10278,13 +10286,13 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C568" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D568" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
@@ -10292,13 +10300,13 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C569" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D569" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
@@ -10306,13 +10314,13 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C570" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D570" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
@@ -10320,13 +10328,13 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C571" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D571" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
@@ -10334,13 +10342,13 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C572" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D572" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
@@ -10348,13 +10356,13 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C573" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D573" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
@@ -10362,13 +10370,13 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C574" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D574" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
@@ -10376,13 +10384,13 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C575" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D575" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
@@ -10390,13 +10398,13 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C576" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D576" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
@@ -10404,13 +10412,13 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C577" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D577" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
@@ -10418,13 +10426,13 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C578" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D578" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
@@ -10432,13 +10440,13 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C579" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D579" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
@@ -10446,13 +10454,13 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C580" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D580" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
@@ -10460,13 +10468,13 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C581" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D581" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
@@ -10474,13 +10482,13 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C582" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D582" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
@@ -10488,13 +10496,13 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C583" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D583" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
@@ -10502,13 +10510,13 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C584" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D584" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
@@ -10516,13 +10524,13 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C585" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D585" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
@@ -10530,13 +10538,13 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C586" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D586" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
@@ -10544,13 +10552,13 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C587" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D587" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
@@ -10558,13 +10566,13 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C588" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D588" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
@@ -10572,13 +10580,13 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C589" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D589" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
@@ -10586,13 +10594,13 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C590" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D590" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
@@ -10600,13 +10608,13 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C591" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D591" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
@@ -10614,13 +10622,13 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C592" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D592" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
@@ -10628,13 +10636,13 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C593" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D593" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
@@ -10642,13 +10650,13 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C594" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D594" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
@@ -10656,13 +10664,13 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C595" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D595" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
@@ -10670,13 +10678,13 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C596" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D596" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
@@ -10684,13 +10692,13 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C597" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D597" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
@@ -10698,13 +10706,13 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C598" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D598" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
@@ -10712,13 +10720,13 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C599" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D599" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
@@ -10726,13 +10734,13 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C600" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D600" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
@@ -10740,13 +10748,13 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C601" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D601" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
@@ -10754,13 +10762,13 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C602" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D602" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
@@ -10768,13 +10776,13 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C603" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D603" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
@@ -10782,13 +10790,13 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C604" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D604" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
@@ -10796,13 +10804,13 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C605" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D605" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
@@ -10810,13 +10818,13 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C606" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D606" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
@@ -10824,13 +10832,13 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C607" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D607" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
@@ -10838,13 +10846,13 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C608" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D608" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
@@ -10852,13 +10860,13 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C609" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D609" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
@@ -10866,13 +10874,13 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C610" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D610" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
@@ -10880,13 +10888,13 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C611" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D611" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
@@ -10894,13 +10902,13 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C612" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D612" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
@@ -10908,13 +10916,13 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C613" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D613" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
@@ -10922,13 +10930,13 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C614" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D614" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
@@ -10936,13 +10944,13 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C615" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D615" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
@@ -10950,13 +10958,13 @@
         <v>615</v>
       </c>
       <c r="B616" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C616" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D616" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
@@ -10964,13 +10972,13 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C617" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D617" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
@@ -10978,13 +10986,13 @@
         <v>617</v>
       </c>
       <c r="B618" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C618" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D618" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
@@ -10992,13 +11000,13 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C619" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D619" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
@@ -11006,13 +11014,13 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C620" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D620" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
@@ -11020,13 +11028,13 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C621" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D621" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
@@ -11034,13 +11042,13 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C622" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D622" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
@@ -11048,13 +11056,13 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C623" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D623" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
@@ -11062,13 +11070,13 @@
         <v>623</v>
       </c>
       <c r="B624" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C624" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D624" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
@@ -11076,13 +11084,13 @@
         <v>624</v>
       </c>
       <c r="B625" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C625" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D625" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
@@ -11090,13 +11098,13 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C626" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D626" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
@@ -11104,13 +11112,13 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C627" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D627" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
@@ -11118,13 +11126,13 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C628" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D628" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
@@ -11132,13 +11140,13 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C629" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D629" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
@@ -11146,13 +11154,13 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C630" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D630" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
@@ -11160,13 +11168,13 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C631" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D631" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
@@ -11174,13 +11182,13 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C632" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D632" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
@@ -11188,13 +11196,13 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C633" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D633" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
@@ -11202,13 +11210,13 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C634" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D634" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
@@ -11216,13 +11224,13 @@
         <v>634</v>
       </c>
       <c r="B635" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C635" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D635" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
@@ -11230,13 +11238,13 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C636" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D636" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
@@ -11244,13 +11252,13 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C637" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D637" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
@@ -11258,13 +11266,13 @@
         <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C638" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D638" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
@@ -11272,13 +11280,13 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C639" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D639" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
@@ -11286,13 +11294,13 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C640" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D640" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
@@ -11300,13 +11308,13 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C641" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D641" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
@@ -11314,13 +11322,13 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C642" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D642" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
@@ -11328,13 +11336,13 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C643" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D643" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
@@ -11342,13 +11350,13 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C644" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D644" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
@@ -11356,13 +11364,13 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C645" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D645" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
@@ -11370,13 +11378,13 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C646" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D646" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
@@ -11384,13 +11392,13 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C647" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D647" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
@@ -11398,13 +11406,13 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C648" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D648" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
@@ -11412,13 +11420,13 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C649" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D649" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
@@ -11426,13 +11434,13 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C650" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D650" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
@@ -11440,13 +11448,13 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C651" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D651" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
@@ -11454,13 +11462,13 @@
         <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C652" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D652" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
@@ -11468,13 +11476,13 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C653" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D653" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
@@ -11482,13 +11490,13 @@
         <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C654" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D654" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
@@ -11496,13 +11504,13 @@
         <v>654</v>
       </c>
       <c r="B655" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C655" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D655" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
@@ -11510,13 +11518,13 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C656" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D656" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
@@ -11524,13 +11532,13 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C657" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D657" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
@@ -11538,13 +11546,13 @@
         <v>657</v>
       </c>
       <c r="B658" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C658" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D658" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
@@ -11552,13 +11560,13 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C659" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D659" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
@@ -11566,13 +11574,13 @@
         <v>659</v>
       </c>
       <c r="B660" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C660" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D660" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
@@ -11580,13 +11588,13 @@
         <v>660</v>
       </c>
       <c r="B661" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C661" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D661" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
@@ -11594,13 +11602,13 @@
         <v>661</v>
       </c>
       <c r="B662" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C662" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D662" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
@@ -11608,13 +11616,13 @@
         <v>662</v>
       </c>
       <c r="B663" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C663" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D663" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
@@ -11622,13 +11630,13 @@
         <v>663</v>
       </c>
       <c r="B664" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C664" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D664" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
@@ -11636,13 +11644,13 @@
         <v>664</v>
       </c>
       <c r="B665" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C665" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D665" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
@@ -11650,13 +11658,13 @@
         <v>665</v>
       </c>
       <c r="B666" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C666" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D666" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
@@ -11664,13 +11672,13 @@
         <v>666</v>
       </c>
       <c r="B667" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C667" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D667" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
@@ -11678,13 +11686,13 @@
         <v>667</v>
       </c>
       <c r="B668" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C668" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D668" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
@@ -11692,13 +11700,13 @@
         <v>668</v>
       </c>
       <c r="B669" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C669" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D669" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
@@ -11706,13 +11714,13 @@
         <v>669</v>
       </c>
       <c r="B670" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C670" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D670" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -11721,5 +11729,6 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>